--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -27,7 +27,7 @@
     <sheet name="MT" sheetId="18" r:id="rId18"/>
     <sheet name="NT" sheetId="19" r:id="rId19"/>
     <sheet name="NO" sheetId="20" r:id="rId20"/>
-    <sheet name="PO" sheetId="21" r:id="rId21"/>
+    <sheet name="PL" sheetId="21" r:id="rId21"/>
     <sheet name="PT" sheetId="22" r:id="rId22"/>
     <sheet name="RO" sheetId="23" r:id="rId23"/>
     <sheet name="SK" sheetId="24" r:id="rId24"/>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>928</v>
+        <v>1898</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>928</v>
+        <v>1898</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>928</v>
+        <v>1898</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>928</v>
+        <v>1898</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1506</v>
+        <v>3304</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2221</v>
+        <v>3304</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2871</v>
+        <v>3699</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>253</v>
       </c>
       <c r="E3">
-        <v>3385</v>
+        <v>3825</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1070</v>
+        <v>6213</v>
       </c>
       <c r="M3">
         <v>1275</v>
@@ -1221,7 +1221,7 @@
         <v>253</v>
       </c>
       <c r="E4">
-        <v>6198</v>
+        <v>7578</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2575</v>
+        <v>6793</v>
       </c>
       <c r="M4">
         <v>1275</v>
@@ -1265,13 +1265,13 @@
         <v>253</v>
       </c>
       <c r="E5">
-        <v>6518</v>
+        <v>7578</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6719</v>
+        <v>9891</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6955</v>
+        <v>11005</v>
       </c>
       <c r="M5">
         <v>1275</v>
@@ -1309,13 +1309,13 @@
         <v>253</v>
       </c>
       <c r="E6">
-        <v>9048</v>
+        <v>10108</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9516</v>
+        <v>12865</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8561</v>
+        <v>13475</v>
       </c>
       <c r="M6">
         <v>2677</v>
@@ -1353,13 +1353,13 @@
         <v>253</v>
       </c>
       <c r="E7">
-        <v>16341</v>
+        <v>18758</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>9516</v>
+        <v>12865</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10913</v>
+        <v>16825</v>
       </c>
       <c r="M7">
         <v>6609</v>
@@ -1397,13 +1397,13 @@
         <v>815.8</v>
       </c>
       <c r="E8">
-        <v>19493</v>
+        <v>22176</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>9941</v>
+        <v>13290</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11911</v>
+        <v>16825</v>
       </c>
       <c r="M8">
         <v>12085</v>
@@ -1441,13 +1441,13 @@
         <v>815.8</v>
       </c>
       <c r="E9">
-        <v>20340</v>
+        <v>23023</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11294</v>
+        <v>14133</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12361</v>
+        <v>17725</v>
       </c>
       <c r="M9">
         <v>12085</v>
@@ -1485,13 +1485,13 @@
         <v>943.6</v>
       </c>
       <c r="E10">
-        <v>20799</v>
+        <v>23146</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13601</v>
+        <v>16440</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16103</v>
+        <v>21017</v>
       </c>
       <c r="M10">
         <v>12085</v>
@@ -1529,13 +1529,13 @@
         <v>1394.9</v>
       </c>
       <c r="E11">
-        <v>20799</v>
+        <v>23146</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15624</v>
+        <v>17901</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17867</v>
+        <v>21017</v>
       </c>
       <c r="M11">
         <v>12085</v>
@@ -1573,7 +1573,7 @@
         <v>1655.3</v>
       </c>
       <c r="E12">
-        <v>21122</v>
+        <v>23469</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>18267</v>
+        <v>21017</v>
       </c>
       <c r="M12">
         <v>12085</v>
@@ -1661,13 +1661,13 @@
         <v>1655.3</v>
       </c>
       <c r="E14">
-        <v>25051</v>
+        <v>23971</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>21302</v>
+        <v>19168</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1682,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19677</v>
+        <v>16888</v>
       </c>
       <c r="M14">
-        <v>9526</v>
+        <v>8238</v>
       </c>
       <c r="N14">
         <v>1418</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>914</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>914</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>801</v>
+        <v>1258</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>137</v>
       </c>
       <c r="E7">
-        <v>285</v>
+        <v>855</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1072</v>
+        <v>1529</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1072</v>
+        <v>1529</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1535</v>
+        <v>1992</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1535</v>
+        <v>1992</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2444</v>
+        <v>3245</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4137</v>
+        <v>4029</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4137</v>
+        <v>4029</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>682.9000000000001</v>
+        <v>607.8000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>159</v>
+        <v>962</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>682.9000000000001</v>
+        <v>607.8000000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>379</v>
+        <v>1182</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>682.9000000000001</v>
+        <v>607.8000000000001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>379</v>
+        <v>1182</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1333.9</v>
+        <v>1448.8</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>379</v>
+        <v>1182</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2329.9</v>
+        <v>2312.8</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1166</v>
+        <v>1182</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2329.9</v>
+        <v>2312.8</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>1182</v>
       </c>
       <c r="M7">
-        <v>955.4</v>
+        <v>1899.4</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2329.9</v>
+        <v>2312.8</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6847</v>
+        <v>6862</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2953</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3693,13 +3693,13 @@
         <v>571</v>
       </c>
       <c r="E3">
-        <v>432</v>
+        <v>594</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7235</v>
+        <v>7615</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         <v>571</v>
       </c>
       <c r="E4">
-        <v>1144</v>
+        <v>1886</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>8314</v>
+        <v>8694</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3781,13 +3781,13 @@
         <v>571</v>
       </c>
       <c r="E5">
-        <v>2297</v>
+        <v>2479</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8622</v>
+        <v>10182</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3860</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3825,13 +3825,13 @@
         <v>571</v>
       </c>
       <c r="E6">
-        <v>2297</v>
+        <v>2479</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9020</v>
+        <v>10580</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>571</v>
       </c>
       <c r="E7">
-        <v>2297</v>
+        <v>2479</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>9420</v>
+        <v>10980</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>9420</v>
+        <v>10980</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>9907</v>
+        <v>11102</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13814</v>
+        <v>15009</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26817</v>
+        <v>27437</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4493</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>660</v>
+        <v>2005</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>660</v>
+        <v>2005</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1260</v>
+        <v>2005</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1560</v>
+        <v>2005</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1670</v>
+        <v>2115</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1670</v>
+        <v>2115</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1670</v>
+        <v>2115</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1670</v>
+        <v>2115</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1670</v>
+        <v>2115</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1670</v>
+        <v>2115</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1515</v>
+        <v>470</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -6794,13 +6794,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1019</v>
+        <v>408</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2029</v>
+        <v>1607</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6838,13 +6838,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1019</v>
+        <v>408</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2029</v>
+        <v>1607</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6882,13 +6882,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1019</v>
+        <v>408</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2029</v>
+        <v>1607</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6926,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2089</v>
+        <v>1478</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2379</v>
+        <v>2476</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3563</v>
+        <v>4964</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3563</v>
+        <v>4964</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3938</v>
+        <v>4964</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3382</v>
+        <v>3822</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5266</v>
+        <v>6727</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7146,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3382</v>
+        <v>3822</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>7362</v>
+        <v>9097</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3382</v>
+        <v>3822</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>8202</v>
+        <v>9937</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7234,13 +7234,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3382</v>
+        <v>3822</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>11354</v>
+        <v>11785</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>12735</v>
+        <v>14039</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7322,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5114</v>
+        <v>4471</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>11777</v>
+        <v>11359</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1363.5</v>
+        <v>1360.3</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>111.6</v>
       </c>
       <c r="E3">
-        <v>3451</v>
+        <v>3702</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2209</v>
+        <v>2329</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>111.6</v>
       </c>
       <c r="E4">
-        <v>4409.3</v>
+        <v>4869.299999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>111.6</v>
       </c>
       <c r="E5">
-        <v>9497.5</v>
+        <v>11533.5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8857,7 +8857,7 @@
         <v>111.6</v>
       </c>
       <c r="E6">
-        <v>14483.5</v>
+        <v>17176.5</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8901,7 +8901,7 @@
         <v>336.6</v>
       </c>
       <c r="E7">
-        <v>15684.5</v>
+        <v>17319.5</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6627</v>
+        <v>9045</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>336.6</v>
       </c>
       <c r="E8">
-        <v>15784.5</v>
+        <v>17319.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8187</v>
+        <v>9045</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>336.6</v>
       </c>
       <c r="E9">
-        <v>16810.1</v>
+        <v>19220.1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8187</v>
+        <v>9045</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -9033,7 +9033,7 @@
         <v>336.6</v>
       </c>
       <c r="E10">
-        <v>17874.1</v>
+        <v>19409.1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8187</v>
+        <v>9045</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>336.6</v>
       </c>
       <c r="E11">
-        <v>18255.1</v>
+        <v>19790.1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8187</v>
+        <v>9045</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>336.6</v>
       </c>
       <c r="E12">
-        <v>18715.1</v>
+        <v>19790.1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8661</v>
+        <v>9519</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -9165,7 +9165,7 @@
         <v>336.6</v>
       </c>
       <c r="E13">
-        <v>18715.1</v>
+        <v>19790.1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -9209,7 +9209,7 @@
         <v>336.6</v>
       </c>
       <c r="E14">
-        <v>19680.1</v>
+        <v>19350.1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>295</v>
+        <v>1180</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1592.7</v>
+        <v>2062.4</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2286.4</v>
+        <v>2454.4</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>760</v>
+        <v>1150</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2752.099999999999</v>
+        <v>2752.1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2752.099999999999</v>
+        <v>2752.1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2557.7</v>
+        <v>3813.7</v>
       </c>
       <c r="M6">
         <v>1354.5</v>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2752.099999999999</v>
+        <v>2752.1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3496.7</v>
+        <v>3813.7</v>
       </c>
       <c r="M7">
         <v>1354.5</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2752.099999999999</v>
+        <v>2752.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2752.099999999999</v>
+        <v>2752.1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2752.099999999999</v>
+        <v>2752.1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2752.099999999999</v>
+        <v>2752.1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -10385,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2752.099999999999</v>
+        <v>2752.1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3637.099999999999</v>
+        <v>3637.1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3637.099999999999</v>
+        <v>3637.1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -10765,10 +10765,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="M6">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="M7">
         <v>1000</v>
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="M8">
         <v>1000</v>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="M9">
         <v>1000</v>
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="M10">
         <v>1940</v>
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1940</v>
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11262,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>748</v>
+        <v>259</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>996</v>
+        <v>1351</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1301</v>
+        <v>1351</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -12046,7 +12046,7 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>9852.799999999999</v>
+        <v>9852.799999999997</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>9852.799999999999</v>
+        <v>9852.799999999997</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12134,7 +12134,7 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>9852.799999999999</v>
+        <v>9852.799999999997</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12354,7 +12354,7 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>9673</v>
+        <v>9672.999999999998</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -12570,7 +12570,7 @@
         <v>638</v>
       </c>
       <c r="N4">
-        <v>1503</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -13010,7 +13010,7 @@
         <v>8414</v>
       </c>
       <c r="N14">
-        <v>2173</v>
+        <v>1503</v>
       </c>
     </row>
   </sheetData>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3547</v>
+        <v>3462</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>1340</v>
       </c>
       <c r="N2">
-        <v>252</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3547</v>
+        <v>3462</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13152,10 +13152,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>2660</v>
       </c>
       <c r="N3">
-        <v>252</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3547</v>
+        <v>3462</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13196,10 +13196,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2560</v>
+        <v>3220</v>
       </c>
       <c r="N4">
-        <v>352</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -13222,7 +13222,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3547</v>
+        <v>3462</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -13240,10 +13240,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2560</v>
+        <v>3220</v>
       </c>
       <c r="N5">
-        <v>862</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -13266,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3619</v>
+        <v>3606</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13284,10 +13284,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5280</v>
+        <v>5940</v>
       </c>
       <c r="N6">
-        <v>2328</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3691</v>
+        <v>3606</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -13331,7 +13331,7 @@
         <v>5940</v>
       </c>
       <c r="N7">
-        <v>4379</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3691</v>
+        <v>3606</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>11318</v>
       </c>
       <c r="N8">
-        <v>4379</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -13398,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>10320</v>
+        <v>10235</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -13419,7 +13419,7 @@
         <v>12638</v>
       </c>
       <c r="N9">
-        <v>4379</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>19534</v>
+        <v>19449</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -13463,7 +13463,7 @@
         <v>12638</v>
       </c>
       <c r="N10">
-        <v>4379</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -13507,7 +13507,7 @@
         <v>12638</v>
       </c>
       <c r="N11">
-        <v>4379</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30014</v>
+        <v>30439</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -13568,7 +13568,7 @@
         <v>2035</v>
       </c>
       <c r="E13">
-        <v>19744</v>
+        <v>20724</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1899</v>
+        <v>1213</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1899</v>
+        <v>1213</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2595</v>
+        <v>2817</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3515</v>
+        <v>3507</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3963</v>
+        <v>3507</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3963</v>
+        <v>3507</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -13998,10 +13998,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3963</v>
+        <v>3507</v>
       </c>
       <c r="M8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -14042,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4193</v>
+        <v>3507</v>
       </c>
       <c r="M9">
         <v>2000</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4193</v>
+        <v>3507</v>
       </c>
       <c r="M10">
         <v>2000</v>
@@ -14130,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4193</v>
+        <v>3507</v>
       </c>
       <c r="M11">
         <v>2000</v>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4193</v>
+        <v>3507</v>
       </c>
       <c r="M12">
         <v>2000</v>
@@ -14342,13 +14342,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -14386,13 +14386,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -14430,13 +14430,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -14457,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -14474,13 +14474,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -14518,13 +14518,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -14545,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -14562,13 +14562,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -14606,13 +14606,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14633,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -14650,13 +14650,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -14677,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -14694,13 +14694,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -14721,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -14738,13 +14738,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -14765,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -14782,13 +14782,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -14809,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -14826,13 +14826,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -14870,13 +14870,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>343.5</v>
+        <v>330</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1456.23</v>
+        <v>112</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -14897,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>360.5</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2531</v>
+        <v>1850</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2531</v>
+        <v>1850</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -15080,7 +15080,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2718</v>
+        <v>2780</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -15103,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>547</v>
+        <v>922</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15124,7 +15124,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3819</v>
+        <v>3508</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -15168,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4957</v>
+        <v>4276</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -15215,7 +15215,7 @@
         <v>5750</v>
       </c>
       <c r="M7">
-        <v>470</v>
+        <v>1880</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>147</v>
+        <v>787</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -15688,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>411</v>
+        <v>1051</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -15732,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>411</v>
+        <v>1051</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15759,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>260</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -15776,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1417</v>
+        <v>2057</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1380</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16858,13 +16858,13 @@
         <v>920</v>
       </c>
       <c r="E2">
-        <v>661</v>
+        <v>766</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16902,13 +16902,13 @@
         <v>920</v>
       </c>
       <c r="E3">
-        <v>661</v>
+        <v>766</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -16946,13 +16946,13 @@
         <v>920</v>
       </c>
       <c r="E4">
-        <v>661</v>
+        <v>766</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -16990,13 +16990,13 @@
         <v>920</v>
       </c>
       <c r="E5">
-        <v>1806</v>
+        <v>2504</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17034,13 +17034,13 @@
         <v>920</v>
       </c>
       <c r="E6">
-        <v>2281</v>
+        <v>2744</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -17078,13 +17078,13 @@
         <v>920</v>
       </c>
       <c r="E7">
-        <v>2436</v>
+        <v>2899</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>904</v>
+        <v>744</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17122,13 +17122,13 @@
         <v>920</v>
       </c>
       <c r="E8">
-        <v>2676</v>
+        <v>2899</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>904</v>
+        <v>744</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17166,7 +17166,7 @@
         <v>920</v>
       </c>
       <c r="E9">
-        <v>3241</v>
+        <v>3464</v>
       </c>
       <c r="F9">
         <v>0</v>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>404.2</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>404.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1898</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1898</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1898</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -768,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1898</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -812,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3304</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3304</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -900,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3699</v>
+        <v>395</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4099</v>
+        <v>2067</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4937</v>
+        <v>2067</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4937</v>
+        <v>2067</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1133,13 +1133,13 @@
         <v>253</v>
       </c>
       <c r="E2">
-        <v>2356</v>
+        <v>4989.5</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1327</v>
+        <v>11343.6</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1154,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>710.8000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1177,13 +1177,13 @@
         <v>253</v>
       </c>
       <c r="E3">
-        <v>3825</v>
+        <v>5942</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1327</v>
+        <v>11417.7</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1198,13 +1198,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6213</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>136</v>
+        <v>833.1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1221,13 +1221,13 @@
         <v>253</v>
       </c>
       <c r="E4">
-        <v>7578</v>
+        <v>9600</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1327</v>
+        <v>11656.9</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6793</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>136</v>
+        <v>833.1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1265,13 +1265,13 @@
         <v>253</v>
       </c>
       <c r="E5">
-        <v>7578</v>
+        <v>13750</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>9891</v>
+        <v>12563.9</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11005</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1398</v>
+        <v>1470.1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1309,13 +1309,13 @@
         <v>253</v>
       </c>
       <c r="E6">
-        <v>10108</v>
+        <v>22834.7</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>12865</v>
+        <v>13752.8</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13475</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2677</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1674</v>
+        <v>2308.6</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1353,13 +1353,13 @@
         <v>253</v>
       </c>
       <c r="E7">
-        <v>18758</v>
+        <v>29349.4</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>12865</v>
+        <v>13850.2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16825</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>6609</v>
+        <v>5400</v>
       </c>
       <c r="N7">
-        <v>1674</v>
+        <v>2537.4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1397,13 +1397,13 @@
         <v>815.8</v>
       </c>
       <c r="E8">
-        <v>22176</v>
+        <v>34657.1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>13290</v>
+        <v>14179</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16825</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12085</v>
+        <v>11171</v>
       </c>
       <c r="N8">
-        <v>1674</v>
+        <v>2572.8</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1441,13 +1441,13 @@
         <v>815.8</v>
       </c>
       <c r="E9">
-        <v>23023</v>
+        <v>37730.6</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>14133</v>
+        <v>15492.41</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17725</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12085</v>
+        <v>11171</v>
       </c>
       <c r="N9">
-        <v>1674</v>
+        <v>2817.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1485,13 +1485,13 @@
         <v>943.6</v>
       </c>
       <c r="E10">
-        <v>23146</v>
+        <v>42123.5</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>16440</v>
+        <v>18949.01</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21017</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12085</v>
+        <v>11171</v>
       </c>
       <c r="N10">
-        <v>1674</v>
+        <v>2924.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1529,13 +1529,13 @@
         <v>1394.9</v>
       </c>
       <c r="E11">
-        <v>23146</v>
+        <v>42165.6</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>17901</v>
+        <v>22301.55</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21017</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12085</v>
+        <v>11171</v>
       </c>
       <c r="N11">
-        <v>1674</v>
+        <v>3004.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1573,13 +1573,13 @@
         <v>1655.3</v>
       </c>
       <c r="E12">
-        <v>23469</v>
+        <v>42277.9</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>19175</v>
+        <v>23517.15</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21017</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12085</v>
+        <v>11171</v>
       </c>
       <c r="N12">
-        <v>1674</v>
+        <v>3458.8</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1617,13 +1617,13 @@
         <v>1655.3</v>
       </c>
       <c r="E13">
-        <v>26069</v>
+        <v>47772.9</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>20845</v>
+        <v>24430.25</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1638,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21017</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12085</v>
+        <v>11171</v>
       </c>
       <c r="N13">
-        <v>1674</v>
+        <v>3608.099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1661,13 +1661,13 @@
         <v>1655.3</v>
       </c>
       <c r="E14">
-        <v>23971</v>
+        <v>47772.9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>19168</v>
+        <v>24430.25</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16888</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>8238</v>
+        <v>11171</v>
       </c>
       <c r="N14">
-        <v>1418</v>
+        <v>3608.099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>590</v>
+        <v>2462</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>288</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>590</v>
+        <v>2462</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>288</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>741</v>
+        <v>2462</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>288</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>929</v>
+        <v>2462</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1915,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1049</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>698</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>929</v>
+        <v>2462</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1959,13 +1959,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1049</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>698</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>929</v>
+        <v>2462</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2003,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2723</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>698</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>929</v>
+        <v>2462</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3269</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>698</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>929</v>
+        <v>2462</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2091,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>698</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1479</v>
+        <v>2596</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4122</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>698</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2502</v>
+        <v>3471</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2179,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4411</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>698</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4046</v>
+        <v>4324</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4411</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>698</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4550</v>
+        <v>5205</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2267,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4750</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>698</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4399</v>
+        <v>5205</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4750</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>178</v>
+        <v>3692.5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>748</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>178</v>
+        <v>3692.5</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>748</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>178</v>
+        <v>3692.5</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>178</v>
+        <v>3692.5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1258</v>
+        <v>3692.5</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2611,13 +2611,13 @@
         <v>137</v>
       </c>
       <c r="E7">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1529</v>
+        <v>3692.5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2655,13 +2655,13 @@
         <v>137</v>
       </c>
       <c r="E8">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1529</v>
+        <v>3692.5</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2699,13 +2699,13 @@
         <v>137</v>
       </c>
       <c r="E9">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1992</v>
+        <v>3692.5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2743,13 +2743,13 @@
         <v>137</v>
       </c>
       <c r="E10">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1992</v>
+        <v>3692.5</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2787,13 +2787,13 @@
         <v>137</v>
       </c>
       <c r="E11">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3245</v>
+        <v>3692.5</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2831,13 +2831,13 @@
         <v>137</v>
       </c>
       <c r="E12">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4300</v>
+        <v>3692.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2875,13 +2875,13 @@
         <v>137</v>
       </c>
       <c r="E13">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4029</v>
+        <v>3692.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2919,13 +2919,13 @@
         <v>137</v>
       </c>
       <c r="E14">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4029</v>
+        <v>3692.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1400</v>
+        <v>1145.6</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>607.8000000000001</v>
+        <v>2955.3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1886.8</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>310</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>607.8000000000001</v>
+        <v>2955.3</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1886.8</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>310</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>607.8000000000001</v>
+        <v>2955.3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3129,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1886.8</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>310</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1448.8</v>
+        <v>2955.3</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3173,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1886.8</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>310</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2312.8</v>
+        <v>2955.3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3217,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1886.8</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1194</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2312.8</v>
+        <v>2955.3</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3261,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1899.4</v>
+        <v>1886.8</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1194</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2312.8</v>
+        <v>2955.3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1899.4</v>
+        <v>1886.8</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1194</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2340.099999999999</v>
+        <v>2955.3</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3349,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1899.4</v>
+        <v>1886.8</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1194</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2742.099999999999</v>
+        <v>2955.3</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1899.4</v>
+        <v>1886.8</v>
       </c>
       <c r="N10">
-        <v>240</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1194</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3048.099999999999</v>
+        <v>2955.3</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3437,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1899.4</v>
+        <v>1886.8</v>
       </c>
       <c r="N11">
-        <v>410</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1194</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3095.099999999999</v>
+        <v>2955.3</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1899.4</v>
+        <v>1886.8</v>
       </c>
       <c r="N12">
-        <v>410</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1194</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3522.099999999999</v>
+        <v>2955.3</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3525,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1899.4</v>
+        <v>1886.8</v>
       </c>
       <c r="N13">
-        <v>410</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1194</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3522.099999999999</v>
+        <v>2955.3</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3569,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1899.4</v>
+        <v>1886.8</v>
       </c>
       <c r="N14">
-        <v>410</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3646,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6862</v>
+        <v>20335.65</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2899</v>
+        <v>8406.299999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3690,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7615</v>
+        <v>20335.65</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3202</v>
+        <v>8716.299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3734,16 +3734,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1886</v>
+        <v>1636</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>8694</v>
+        <v>20335.65</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3202</v>
+        <v>8716.299999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3778,16 +3778,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2479</v>
+        <v>3252</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>10182</v>
+        <v>20335.65</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4148</v>
+        <v>9036.299999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2479</v>
+        <v>3252</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>10580</v>
+        <v>20687.65</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4500</v>
+        <v>9036.299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2479</v>
+        <v>3252</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>10980</v>
+        <v>20687.65</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4500</v>
+        <v>9036.299999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2479</v>
+        <v>3402</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>10980</v>
+        <v>20687.65</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4500</v>
+        <v>9036.299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>5433</v>
+        <v>6682</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11102</v>
+        <v>22055.15</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4500</v>
+        <v>9213.299999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3998,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>5953</v>
+        <v>7032</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>15009</v>
+        <v>24638.15</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4500</v>
+        <v>9213.299999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4042,16 +4042,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>5953</v>
+        <v>7032</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27437</v>
+        <v>29319.15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4557</v>
+        <v>9213.299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4086,16 +4086,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>7798</v>
+        <v>9012</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>39439</v>
+        <v>36209.65</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4557</v>
+        <v>9213.299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4130,16 +4130,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>7798</v>
+        <v>9012</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>41273</v>
+        <v>38570.65</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4557</v>
+        <v>9213.299999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4174,16 +4174,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>7662</v>
+        <v>9012</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>40931</v>
+        <v>38570.65</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4413</v>
+        <v>9213.299999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>441</v>
+        <v>1001</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>441</v>
+        <v>1001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>441</v>
+        <v>1001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>441</v>
+        <v>1001</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>441</v>
+        <v>1001</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>441</v>
+        <v>1001</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>441</v>
+        <v>1001</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2005</v>
+        <v>2490</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2005</v>
+        <v>2490</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2005</v>
+        <v>2490</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2005</v>
+        <v>2490</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2115</v>
+        <v>2490</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2115</v>
+        <v>2490</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2115</v>
+        <v>2490</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2115</v>
+        <v>2490</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2115</v>
+        <v>2490</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2115</v>
+        <v>2490</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2115</v>
+        <v>2490</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2115</v>
+        <v>2490</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>470</v>
+        <v>2490</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -6794,13 +6794,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>408</v>
+        <v>590</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1607</v>
+        <v>1989</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6838,13 +6838,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>408</v>
+        <v>590</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1607</v>
+        <v>1989</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6882,13 +6882,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>408</v>
+        <v>590</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1607</v>
+        <v>1989</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6926,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1478</v>
+        <v>590</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2476</v>
+        <v>1989</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6970,13 +6970,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2732</v>
+        <v>590</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4964</v>
+        <v>1989</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -7014,13 +7014,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2732</v>
+        <v>590</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4964</v>
+        <v>1989</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7038,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -7058,13 +7058,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2732</v>
+        <v>1630</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4964</v>
+        <v>1989</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3822</v>
+        <v>2315</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>6727</v>
+        <v>2673</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -7146,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3822</v>
+        <v>2315</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>9097</v>
+        <v>5252</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3822</v>
+        <v>2315</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>9937</v>
+        <v>5252</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -7234,13 +7234,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3822</v>
+        <v>2315</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>11785</v>
+        <v>8001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -7278,13 +7278,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7203</v>
+        <v>3915</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>14039</v>
+        <v>9312</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -7322,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4471</v>
+        <v>5015</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>11359</v>
+        <v>9312</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -7423,13 +7423,13 @@
         <v>268</v>
       </c>
       <c r="E2">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1065.2</v>
+        <v>1038.8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>182</v>
@@ -7467,13 +7467,13 @@
         <v>268</v>
       </c>
       <c r="E3">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1065.2</v>
+        <v>1038.8</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>182</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1065.2</v>
+        <v>1038.8</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>182</v>
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1065.2</v>
+        <v>1038.8</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1828</v>
+        <v>962</v>
       </c>
       <c r="N5">
         <v>182</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1065.2</v>
+        <v>1038.8</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1828</v>
+        <v>962</v>
       </c>
       <c r="N6">
         <v>182</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1065.2</v>
+        <v>1038.8</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5919</v>
+        <v>5925.8</v>
       </c>
       <c r="N7">
         <v>182</v>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1065.2</v>
+        <v>1038.8</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5919</v>
+        <v>5925.8</v>
       </c>
       <c r="N8">
         <v>182</v>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1065.2</v>
+        <v>1489.8</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5919</v>
+        <v>5925.8</v>
       </c>
       <c r="N9">
         <v>182</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1910.5</v>
+        <v>2661.8</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5919</v>
+        <v>5925.8</v>
       </c>
       <c r="N10">
         <v>182</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="E11">
         <v>470</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2636.9</v>
+        <v>2661.8</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5919</v>
+        <v>5925.8</v>
       </c>
       <c r="N11">
         <v>182</v>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="E12">
         <v>470</v>
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3542.9</v>
+        <v>3028.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5919</v>
+        <v>5925.8</v>
       </c>
       <c r="N12">
         <v>182</v>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="E13">
         <v>470</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4367.700000000001</v>
+        <v>3855.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5919</v>
+        <v>5925.8</v>
       </c>
       <c r="N13">
         <v>182</v>
@@ -7948,16 +7948,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4367.700000000001</v>
+        <v>3855.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5919</v>
+        <v>5925.8</v>
       </c>
       <c r="N14">
         <v>182</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1538.9</v>
+        <v>1454</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1360.3</v>
+        <v>1454</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -8678,16 +8678,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2129.8</v>
+        <v>23949</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1241.2</v>
+        <v>677</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -8722,16 +8722,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3702</v>
+        <v>24736</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1241.2</v>
+        <v>677</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2329</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -8766,16 +8766,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4869.299999999999</v>
+        <v>26235</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1241.2</v>
+        <v>677</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3573</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -8810,16 +8810,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>11533.5</v>
+        <v>27085</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1241.2</v>
+        <v>942</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3573</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>17176.5</v>
+        <v>27085</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1241.2</v>
+        <v>942</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3573</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -8898,16 +8898,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>336.6</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>17319.5</v>
+        <v>27471</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1241.2</v>
+        <v>942</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9045</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -8942,16 +8942,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>336.6</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>17319.5</v>
+        <v>27917</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1241.2</v>
+        <v>942</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9045</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -8986,16 +8986,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>336.6</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>19220.1</v>
+        <v>28127</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1241.2</v>
+        <v>942</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9045</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -9030,16 +9030,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>336.6</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>19409.1</v>
+        <v>28127</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1370.1</v>
+        <v>1058</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9054,13 +9054,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9045</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -9074,16 +9074,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>336.6</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>19790.1</v>
+        <v>28277</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1726.1</v>
+        <v>1351</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9098,13 +9098,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9045</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -9118,16 +9118,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>336.6</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>19790.1</v>
+        <v>28809</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1726.1</v>
+        <v>1351</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9142,13 +9142,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9519</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -9162,16 +9162,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>336.6</v>
+        <v>215</v>
       </c>
       <c r="E13">
-        <v>19790.1</v>
+        <v>28809</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1726.1</v>
+        <v>1351</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9186,13 +9186,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9519</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -9206,16 +9206,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>336.6</v>
+        <v>215</v>
       </c>
       <c r="E14">
-        <v>19350.1</v>
+        <v>30959</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2211.1</v>
+        <v>1804</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9230,13 +9230,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8919</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>415</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -9530,13 +9530,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -9574,13 +9574,13 @@
         <v>70</v>
       </c>
       <c r="E8">
-        <v>1180</v>
+        <v>1296</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9618,13 +9618,13 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>1756</v>
+        <v>1978</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -9662,13 +9662,13 @@
         <v>119</v>
       </c>
       <c r="E10">
-        <v>1756</v>
+        <v>1978</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9706,13 +9706,13 @@
         <v>351.9</v>
       </c>
       <c r="E11">
-        <v>1756</v>
+        <v>1978</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9750,13 +9750,13 @@
         <v>452.9</v>
       </c>
       <c r="E12">
-        <v>1756</v>
+        <v>1978</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9794,13 +9794,13 @@
         <v>452.9</v>
       </c>
       <c r="E13">
-        <v>1756</v>
+        <v>1978</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9838,13 +9838,13 @@
         <v>452.9</v>
       </c>
       <c r="E14">
-        <v>1756</v>
+        <v>1978</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9939,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1299</v>
+        <v>2272</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -9983,13 +9983,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>150</v>
+        <v>810</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2062.4</v>
+        <v>2272</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10004,10 +10004,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -10027,13 +10027,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>810</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2454.4</v>
+        <v>2272</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1150</v>
+        <v>810</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2752.1</v>
+        <v>2272</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10092,10 +10092,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1150</v>
+        <v>3205</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2752.1</v>
+        <v>2272</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -10136,10 +10136,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3813.7</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -10159,13 +10159,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1150</v>
+        <v>4855</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2752.1</v>
+        <v>2272</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -10180,10 +10180,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3813.7</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1150</v>
+        <v>5807</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2752.1</v>
+        <v>2272</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10224,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4670.7</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -10247,13 +10247,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1150</v>
+        <v>5807</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2752.1</v>
+        <v>2272</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4670.7</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -10291,13 +10291,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1150</v>
+        <v>5807</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2752.1</v>
+        <v>2272</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4670.7</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10335,13 +10335,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1150</v>
+        <v>5807</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2752.1</v>
+        <v>2272</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -10356,10 +10356,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4670.7</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -10379,13 +10379,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1150</v>
+        <v>5807</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2752.1</v>
+        <v>2492</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -10400,10 +10400,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4670.7</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -10423,13 +10423,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1150</v>
+        <v>5807</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3637.1</v>
+        <v>3352</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -10444,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4670.7</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -10467,13 +10467,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1150</v>
+        <v>5807</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3637.1</v>
+        <v>3352</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -10488,10 +10488,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4670.7</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1354.5</v>
+        <v>1298</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -10568,13 +10568,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1398</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -10612,13 +10612,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1398</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10633,10 +10633,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -10656,13 +10656,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -10700,13 +10700,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10721,10 +10721,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -10744,13 +10744,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -10765,10 +10765,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1000</v>
+        <v>1760</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -10788,13 +10788,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -10809,10 +10809,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>1760</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10853,10 +10853,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1000</v>
+        <v>1760</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -10876,13 +10876,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -10897,10 +10897,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1000</v>
+        <v>1760</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -10920,13 +10920,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>158</v>
+        <v>728</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10941,10 +10941,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1940</v>
+        <v>1760</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10964,13 +10964,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>158</v>
+        <v>728</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -10985,10 +10985,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1940</v>
+        <v>1760</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -11008,13 +11008,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>577.6</v>
+        <v>728</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11029,10 +11029,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1940</v>
+        <v>1760</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -11052,13 +11052,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>577.6</v>
+        <v>728</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -11073,10 +11073,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1940</v>
+        <v>1760</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -11096,13 +11096,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>220</v>
+        <v>1398</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>577.6</v>
+        <v>728</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1940</v>
+        <v>1760</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -11265,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -11350,10 +11350,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>696</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>696</v>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>696</v>
@@ -11570,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>696</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>696</v>
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>696</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>696</v>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>696</v>
@@ -11826,13 +11826,13 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>502.5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1270.1</v>
+        <v>397.932</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -11870,13 +11870,13 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>502.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1270.1</v>
+        <v>397.932</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -11914,13 +11914,13 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1387.2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1270.1</v>
+        <v>1128.932</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -11958,13 +11958,13 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2454.4</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1270.1</v>
+        <v>1128.932</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -11979,10 +11979,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>455.2</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>1450.3</v>
@@ -12002,13 +12002,13 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>5769.9</v>
+        <v>1912.73</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1270.1</v>
+        <v>1128.932</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12023,10 +12023,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>455.2</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1604.24</v>
@@ -12046,13 +12046,13 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>9852.799999999997</v>
+        <v>7598.719999999999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1270.1</v>
+        <v>1128.932</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -12067,10 +12067,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>4532</v>
+        <v>5071.34</v>
       </c>
       <c r="N7">
         <v>1604.24</v>
@@ -12090,13 +12090,13 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>9852.799999999997</v>
+        <v>7663.719999999999</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1270.1</v>
+        <v>1128.932</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12111,10 +12111,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>7572.4</v>
+        <v>7120.059999999999</v>
       </c>
       <c r="N8">
         <v>2543.78</v>
@@ -12134,13 +12134,13 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>9852.799999999997</v>
+        <v>7663.719999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1270.1</v>
+        <v>1209.432</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12155,10 +12155,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>7572.4</v>
+        <v>7120.059999999999</v>
       </c>
       <c r="N9">
         <v>2779.809999999999</v>
@@ -12178,13 +12178,13 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>10414.8</v>
+        <v>8783.309999999999</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1270.1</v>
+        <v>1270.302</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12199,10 +12199,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>7572.4</v>
+        <v>7120.059999999999</v>
       </c>
       <c r="N10">
         <v>3413.610999999999</v>
@@ -12222,13 +12222,13 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>10414.8</v>
+        <v>8783.309999999999</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>11149.7</v>
+        <v>9686.928</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12243,10 +12243,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>7572.4</v>
+        <v>7120.059999999999</v>
       </c>
       <c r="N11">
         <v>3540.421</v>
@@ -12266,13 +12266,13 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>10414.8</v>
+        <v>8783.309999999999</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>22551.60000000001</v>
+        <v>25193.72800000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12287,10 +12287,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>7572.4</v>
+        <v>7120.059999999999</v>
       </c>
       <c r="N12">
         <v>4356.880999999999</v>
@@ -12310,13 +12310,13 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>10175.5</v>
+        <v>8783.309999999999</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25940.90000000001</v>
+        <v>26159.14400000001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12334,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7117.2</v>
+        <v>7120.059999999999</v>
       </c>
       <c r="N13">
         <v>4666.670999999999</v>
@@ -12354,13 +12354,13 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>9672.999999999998</v>
+        <v>8783.309999999999</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25435.40000000001</v>
+        <v>26159.14400000001</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7117.2</v>
+        <v>7120.059999999999</v>
       </c>
       <c r="N14">
         <v>4666.670999999999</v>
@@ -12452,16 +12452,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -12479,10 +12479,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>638</v>
+        <v>9762</v>
       </c>
       <c r="N2">
-        <v>1243</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12496,16 +12496,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12523,10 +12523,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>638</v>
+        <v>9762</v>
       </c>
       <c r="N3">
-        <v>1243</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12540,16 +12540,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="E4">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -12567,10 +12567,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>638</v>
+        <v>9762</v>
       </c>
       <c r="N4">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -12584,16 +12584,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="E5">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -12611,10 +12611,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1503</v>
+        <v>9762</v>
       </c>
       <c r="N5">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12628,16 +12628,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="E6">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12655,10 +12655,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3365</v>
+        <v>9762</v>
       </c>
       <c r="N6">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -12672,16 +12672,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="E7">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -12699,10 +12699,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>9052</v>
+        <v>9762</v>
       </c>
       <c r="N7">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -12716,16 +12716,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="E8">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12743,10 +12743,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>9052</v>
+        <v>9762</v>
       </c>
       <c r="N8">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -12760,16 +12760,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="E9">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12787,10 +12787,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9052</v>
+        <v>9762</v>
       </c>
       <c r="N9">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -12804,16 +12804,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>106</v>
+        <v>487.7</v>
       </c>
       <c r="E10">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12831,10 +12831,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>9052</v>
+        <v>9762</v>
       </c>
       <c r="N10">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -12848,16 +12848,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>106</v>
+        <v>487.7</v>
       </c>
       <c r="E11">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12875,10 +12875,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>9052</v>
+        <v>9762</v>
       </c>
       <c r="N11">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -12892,16 +12892,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>106</v>
+        <v>487.7</v>
       </c>
       <c r="E12">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>698</v>
+        <v>1340</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12919,10 +12919,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9525</v>
+        <v>9762</v>
       </c>
       <c r="N12">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -12936,16 +12936,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>106</v>
+        <v>876.7</v>
       </c>
       <c r="E13">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>698</v>
+        <v>1340</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12963,10 +12963,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9525</v>
+        <v>9762</v>
       </c>
       <c r="N13">
-        <v>2173</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -12980,16 +12980,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>226</v>
+        <v>876.7</v>
       </c>
       <c r="E14">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>698</v>
+        <v>1340</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13007,10 +13007,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8414</v>
+        <v>9762</v>
       </c>
       <c r="N14">
-        <v>1503</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -13081,16 +13081,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>1583.7</v>
       </c>
       <c r="E2">
-        <v>4383</v>
+        <v>12296</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3462</v>
+        <v>29916.3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13108,10 +13108,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1340</v>
+        <v>8918</v>
       </c>
       <c r="N2">
-        <v>51</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13125,16 +13125,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>1583.7</v>
       </c>
       <c r="E3">
-        <v>4383</v>
+        <v>12296</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3462</v>
+        <v>29916.3</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13152,10 +13152,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2660</v>
+        <v>8918</v>
       </c>
       <c r="N3">
-        <v>51</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -13169,16 +13169,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>1583.7</v>
       </c>
       <c r="E4">
-        <v>11463</v>
+        <v>12296</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3462</v>
+        <v>29916.3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13196,10 +13196,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3220</v>
+        <v>8918</v>
       </c>
       <c r="N4">
-        <v>151</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -13213,16 +13213,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E5">
-        <v>18789</v>
+        <v>12296</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3462</v>
+        <v>29916.3</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -13240,10 +13240,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3220</v>
+        <v>8918</v>
       </c>
       <c r="N5">
-        <v>878</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -13257,16 +13257,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E6">
-        <v>18789</v>
+        <v>12296</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3606</v>
+        <v>29916.3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13284,10 +13284,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5940</v>
+        <v>8918</v>
       </c>
       <c r="N6">
-        <v>2228</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -13301,16 +13301,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E7">
-        <v>18789</v>
+        <v>12296</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3606</v>
+        <v>29916.3</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -13328,10 +13328,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5940</v>
+        <v>8918</v>
       </c>
       <c r="N7">
-        <v>4421</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -13345,16 +13345,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E8">
-        <v>20724</v>
+        <v>12296</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3606</v>
+        <v>29916.3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13372,10 +13372,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11318</v>
+        <v>8918</v>
       </c>
       <c r="N8">
-        <v>4421</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -13389,16 +13389,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E9">
-        <v>20724</v>
+        <v>12296</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>10235</v>
+        <v>29916.3</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -13416,10 +13416,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12638</v>
+        <v>8918</v>
       </c>
       <c r="N9">
-        <v>4421</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -13433,16 +13433,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E10">
-        <v>20724</v>
+        <v>12296</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>19449</v>
+        <v>29916.3</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -13460,10 +13460,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12638</v>
+        <v>8918</v>
       </c>
       <c r="N10">
-        <v>4421</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -13477,16 +13477,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E11">
-        <v>20724</v>
+        <v>12296</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26341</v>
+        <v>29916.3</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -13504,10 +13504,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>12638</v>
+        <v>8918</v>
       </c>
       <c r="N11">
-        <v>4421</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -13521,16 +13521,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E12">
-        <v>20724</v>
+        <v>12296</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30439</v>
+        <v>29916.3</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -13548,10 +13548,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12638</v>
+        <v>8918</v>
       </c>
       <c r="N12">
-        <v>4438</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -13565,16 +13565,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E13">
-        <v>20724</v>
+        <v>12296</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>35932</v>
+        <v>29916.3</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -13592,10 +13592,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>12078</v>
+        <v>8918</v>
       </c>
       <c r="N13">
-        <v>3088</v>
+        <v>372.4</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -13609,16 +13609,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2035</v>
+        <v>1583.7</v>
       </c>
       <c r="E14">
-        <v>15388</v>
+        <v>12296</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>36758</v>
+        <v>29916.3</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13636,10 +13636,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>10738</v>
+        <v>8918</v>
       </c>
       <c r="N14">
-        <v>1613</v>
+        <v>372.4</v>
       </c>
     </row>
   </sheetData>
@@ -13713,13 +13713,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13734,10 +13734,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -13757,13 +13757,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>410</v>
+        <v>635</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13778,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -13801,13 +13801,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>410</v>
+        <v>755</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13822,10 +13822,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2817</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -13845,13 +13845,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>410</v>
+        <v>1505</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -13866,10 +13866,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -13889,13 +13889,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>410</v>
+        <v>4015</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13910,10 +13910,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -13933,13 +13933,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>410</v>
+        <v>4015</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -13977,13 +13977,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>410</v>
+        <v>4015</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13998,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>2000</v>
@@ -14021,13 +14021,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>410</v>
+        <v>4015</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -14042,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>2000</v>
@@ -14065,13 +14065,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>4015</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>2000</v>
@@ -14109,13 +14109,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>410</v>
+        <v>4015</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -14130,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>2000</v>
@@ -14153,13 +14153,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>542</v>
+        <v>4189</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>2000</v>
@@ -14197,13 +14197,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>542</v>
+        <v>4859</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4879</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>2000</v>
@@ -14241,13 +14241,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>542</v>
+        <v>4859</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -14262,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4879</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>2000</v>
@@ -14348,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14392,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -14612,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14656,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -14700,7 +14700,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -14832,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -14876,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>112</v>
+        <v>581.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -14971,13 +14971,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>174</v>
+        <v>1576</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14992,10 +14992,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -15015,13 +15015,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>174</v>
+        <v>1576</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -15036,10 +15036,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -15059,13 +15059,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>174</v>
+        <v>2381</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -15080,10 +15080,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2780</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -15103,13 +15103,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>922</v>
+        <v>5206</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -15124,10 +15124,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3508</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -15147,13 +15147,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>922</v>
+        <v>6826</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -15168,10 +15168,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4276</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -15191,13 +15191,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>922</v>
+        <v>6898</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15212,10 +15212,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1880</v>
+        <v>2040</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -15235,13 +15235,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>922</v>
+        <v>6898</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15256,10 +15256,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1880</v>
+        <v>2040</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -15279,13 +15279,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>922</v>
+        <v>7075</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>847</v>
+        <v>370</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15300,10 +15300,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1880</v>
+        <v>2040</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -15323,13 +15323,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1071</v>
+        <v>7145</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>847</v>
+        <v>480</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15344,10 +15344,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1880</v>
+        <v>2040</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -15367,13 +15367,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1071</v>
+        <v>7209</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>847</v>
+        <v>480</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -15388,10 +15388,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6125</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>3936</v>
+        <v>4173</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -15411,13 +15411,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1071</v>
+        <v>7209</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>847</v>
+        <v>480</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -15432,10 +15432,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6125</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>3936</v>
+        <v>4173</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -15455,13 +15455,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1071</v>
+        <v>7613</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>847</v>
+        <v>1320</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -15476,10 +15476,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6125</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>3936</v>
+        <v>4173</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -15499,13 +15499,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1071</v>
+        <v>8363</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>847</v>
+        <v>1320</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -15520,10 +15520,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6722</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>3936</v>
+        <v>4173</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -15600,13 +15600,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1597</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>108.2</v>
+        <v>98</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -15644,13 +15644,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>787</v>
+        <v>1597</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>108.2</v>
+        <v>98</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -15688,13 +15688,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1051</v>
+        <v>1861</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>108.2</v>
+        <v>98</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -15715,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -15732,13 +15732,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1051</v>
+        <v>2648</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>108.2</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -15759,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -15776,13 +15776,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2057</v>
+        <v>3274</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>108.2</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -15820,13 +15820,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2773</v>
+        <v>3966</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>108.2</v>
+        <v>179</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -15864,13 +15864,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3023</v>
+        <v>4682</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>358.2</v>
+        <v>179</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -15908,13 +15908,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3772</v>
+        <v>5089</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>358.2</v>
+        <v>179</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -15952,13 +15952,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3772</v>
+        <v>5089</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>750.2</v>
+        <v>571</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15979,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -15996,13 +15996,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3772</v>
+        <v>5089</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>750.2</v>
+        <v>571</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -16023,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -16040,13 +16040,13 @@
         <v>88</v>
       </c>
       <c r="E12">
-        <v>3772</v>
+        <v>5089</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>750.2</v>
+        <v>571</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -16084,13 +16084,13 @@
         <v>88</v>
       </c>
       <c r="E13">
-        <v>3508</v>
+        <v>5089</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>750.2</v>
+        <v>571</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -16128,13 +16128,13 @@
         <v>88</v>
       </c>
       <c r="E14">
-        <v>2882</v>
+        <v>5089</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>750.2</v>
+        <v>571</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -16155,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>520</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>270</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>882</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -16520,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -16608,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -16652,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -16696,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2251</v>
+        <v>1841</v>
       </c>
     </row>
   </sheetData>
@@ -16855,16 +16855,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E2">
-        <v>766</v>
+        <v>1170</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>390</v>
+        <v>1924.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16882,10 +16882,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1600</v>
+        <v>2752</v>
       </c>
       <c r="N2">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16899,16 +16899,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E3">
-        <v>766</v>
+        <v>1170</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>390</v>
+        <v>1924.1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -16926,10 +16926,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1600</v>
+        <v>2752</v>
       </c>
       <c r="N3">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16943,16 +16943,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E4">
-        <v>766</v>
+        <v>1170</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>390</v>
+        <v>1924.1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -16970,10 +16970,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1600</v>
+        <v>2752</v>
       </c>
       <c r="N4">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16987,16 +16987,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E5">
-        <v>2504</v>
+        <v>1170</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>390</v>
+        <v>1924.1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17014,10 +17014,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1600</v>
+        <v>2752</v>
       </c>
       <c r="N5">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -17031,16 +17031,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E6">
-        <v>2744</v>
+        <v>1170</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>390</v>
+        <v>1924.1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -17058,10 +17058,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2976</v>
+        <v>2752</v>
       </c>
       <c r="N6">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -17075,16 +17075,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E7">
-        <v>2899</v>
+        <v>1340</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>744</v>
+        <v>1924.1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17102,10 +17102,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4352</v>
+        <v>2752</v>
       </c>
       <c r="N7">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -17119,16 +17119,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E8">
-        <v>2899</v>
+        <v>1340</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>744</v>
+        <v>1924.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,10 +17146,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4352</v>
+        <v>2752</v>
       </c>
       <c r="N8">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -17163,16 +17163,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E9">
-        <v>3464</v>
+        <v>1340</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1224</v>
+        <v>1924.1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17190,10 +17190,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4352</v>
+        <v>2752</v>
       </c>
       <c r="N9">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -17207,16 +17207,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E10">
-        <v>3464</v>
+        <v>1340</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1224</v>
+        <v>1924.1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -17234,10 +17234,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4352</v>
+        <v>2752</v>
       </c>
       <c r="N10">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -17251,16 +17251,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E11">
-        <v>3464</v>
+        <v>1340</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1224</v>
+        <v>1924.1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -17278,10 +17278,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4352</v>
+        <v>2752</v>
       </c>
       <c r="N11">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -17295,16 +17295,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E12">
-        <v>3464</v>
+        <v>1340</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1224</v>
+        <v>1924.1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -17322,10 +17322,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4352</v>
+        <v>2752</v>
       </c>
       <c r="N12">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -17339,16 +17339,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E13">
-        <v>2769</v>
+        <v>1340</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1224</v>
+        <v>1924.1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -17366,10 +17366,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4352</v>
+        <v>2752</v>
       </c>
       <c r="N13">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -17383,16 +17383,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>920</v>
+        <v>2180.44</v>
       </c>
       <c r="E14">
-        <v>2769</v>
+        <v>1340</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1224</v>
+        <v>1924.1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -17410,10 +17410,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4352</v>
+        <v>2752</v>
       </c>
       <c r="N14">
-        <v>759</v>
+        <v>1141.3</v>
       </c>
     </row>
   </sheetData>
@@ -17484,16 +17484,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E2">
-        <v>2020</v>
+        <v>3575</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>901</v>
+        <v>5007</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -17511,10 +17511,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>63130</v>
       </c>
       <c r="N2">
-        <v>6364</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -17528,16 +17528,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E3">
-        <v>2020</v>
+        <v>3575</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>901</v>
+        <v>5007</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -17555,10 +17555,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>63130</v>
       </c>
       <c r="N3">
-        <v>6364</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -17572,16 +17572,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E4">
-        <v>2270</v>
+        <v>3575</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1328</v>
+        <v>5007</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17599,10 +17599,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>63130</v>
       </c>
       <c r="N4">
-        <v>6364</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -17616,16 +17616,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E5">
-        <v>3040</v>
+        <v>3575</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1328</v>
+        <v>5007</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17643,10 +17643,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>880</v>
+        <v>63130</v>
       </c>
       <c r="N5">
-        <v>6364</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -17660,16 +17660,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E6">
-        <v>3040</v>
+        <v>3575</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1328</v>
+        <v>5007</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -17687,10 +17687,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11180</v>
+        <v>63130</v>
       </c>
       <c r="N6">
-        <v>6534</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -17704,16 +17704,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E7">
-        <v>4810</v>
+        <v>3575</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1741</v>
+        <v>5007</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17731,10 +17731,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>32920</v>
+        <v>63130</v>
       </c>
       <c r="N7">
-        <v>6534</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -17748,16 +17748,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E8">
-        <v>4810</v>
+        <v>3575</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1741</v>
+        <v>5007</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17775,10 +17775,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>50590</v>
+        <v>63130</v>
       </c>
       <c r="N8">
-        <v>6534</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -17792,16 +17792,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E9">
-        <v>4810</v>
+        <v>3575</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1741</v>
+        <v>5007</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17819,10 +17819,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>57140</v>
+        <v>63130</v>
       </c>
       <c r="N9">
-        <v>6534</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -17836,16 +17836,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E10">
-        <v>4810</v>
+        <v>3575</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1741</v>
+        <v>5007</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -17863,10 +17863,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>60140</v>
+        <v>63130</v>
       </c>
       <c r="N10">
-        <v>6668</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -17880,16 +17880,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E11">
-        <v>4810</v>
+        <v>3575</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2537</v>
+        <v>5007</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -17910,7 +17910,7 @@
         <v>63130</v>
       </c>
       <c r="N11">
-        <v>6668</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -17924,16 +17924,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E12">
-        <v>4810</v>
+        <v>3575</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4299</v>
+        <v>5007</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -17954,7 +17954,7 @@
         <v>63130</v>
       </c>
       <c r="N12">
-        <v>6668</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -17968,16 +17968,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E13">
-        <v>4810</v>
+        <v>3575</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6043</v>
+        <v>5007</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>63130</v>
       </c>
       <c r="N13">
-        <v>6668</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -18012,16 +18012,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>150</v>
+        <v>792.6000000000003</v>
       </c>
       <c r="E14">
-        <v>2930</v>
+        <v>3575</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6628</v>
+        <v>5007</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -18042,7 +18042,7 @@
         <v>63130</v>
       </c>
       <c r="N14">
-        <v>2325</v>
+        <v>4388</v>
       </c>
     </row>
   </sheetData>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -25,15 +25,15 @@
     <sheet name="LI" sheetId="16" r:id="rId16"/>
     <sheet name="LU" sheetId="17" r:id="rId17"/>
     <sheet name="MT" sheetId="18" r:id="rId18"/>
-    <sheet name="NT" sheetId="19" r:id="rId19"/>
+    <sheet name="NL" sheetId="19" r:id="rId19"/>
     <sheet name="NO" sheetId="20" r:id="rId20"/>
     <sheet name="PL" sheetId="21" r:id="rId21"/>
     <sheet name="PT" sheetId="22" r:id="rId22"/>
     <sheet name="RO" sheetId="23" r:id="rId23"/>
     <sheet name="SK" sheetId="24" r:id="rId24"/>
-    <sheet name="SO" sheetId="25" r:id="rId25"/>
+    <sheet name="SI" sheetId="25" r:id="rId25"/>
     <sheet name="ES" sheetId="26" r:id="rId26"/>
-    <sheet name="SW" sheetId="27" r:id="rId27"/>
+    <sheet name="SE" sheetId="27" r:id="rId27"/>
     <sheet name="UK" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -906,16 +906,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>395</v>
+        <v>842.7</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2067</v>
+        <v>3234.7</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -994,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2067</v>
+        <v>4066.7</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2067</v>
+        <v>4066.7</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>253</v>
       </c>
       <c r="E2">
-        <v>4989.5</v>
+        <v>7768.82</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11343.6</v>
+        <v>11980.6</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>327.5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="N2">
-        <v>710.8000000000001</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1174,37 +1174,37 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E3">
-        <v>5942</v>
+        <v>10496.32</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>11417.7</v>
+        <v>12029.7</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>327.5</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3104.5</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="N3">
-        <v>833.1</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1218,37 +1218,37 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E4">
-        <v>9600</v>
+        <v>16879.51</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>11656.9</v>
+        <v>12268.9</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>327.5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>986.1865</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4639.5</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="N4">
-        <v>833.1</v>
+        <v>2103.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1262,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="E5">
-        <v>13750</v>
+        <v>22491.07</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>12563.9</v>
+        <v>15487.6</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>822.9</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3264.6865</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9020.5</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="N5">
-        <v>1470.1</v>
+        <v>4973.9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1306,37 +1306,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="E6">
-        <v>22834.7</v>
+        <v>30475.17</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>13752.8</v>
+        <v>17217.2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>822.9</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4252.8665</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10614</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="N6">
-        <v>2308.6</v>
+        <v>6846.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1350,37 +1350,37 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="E7">
-        <v>29349.4</v>
+        <v>39159.97</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>13850.2</v>
+        <v>17375.6</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>934.9</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4424.366499999999</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12835.3</v>
       </c>
       <c r="M7">
-        <v>5400</v>
+        <v>10564</v>
       </c>
       <c r="N7">
-        <v>2537.4</v>
+        <v>7032.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1394,37 +1394,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>815.8</v>
+        <v>889</v>
       </c>
       <c r="E8">
-        <v>34657.1</v>
+        <v>45181.57</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>14179</v>
+        <v>17575.6</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1268.4</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4508.657499999999</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13946.4</v>
       </c>
       <c r="M8">
-        <v>11171</v>
+        <v>13306</v>
       </c>
       <c r="N8">
-        <v>2572.8</v>
+        <v>7038.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1438,37 +1438,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>815.8</v>
+        <v>920.3</v>
       </c>
       <c r="E9">
-        <v>37730.6</v>
+        <v>48296.07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>15492.41</v>
+        <v>18275.75999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4691.3575</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14105.7</v>
       </c>
       <c r="M9">
-        <v>11171</v>
+        <v>13306</v>
       </c>
       <c r="N9">
-        <v>2817.8</v>
+        <v>7312.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1482,37 +1482,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>943.6</v>
+        <v>1034.8</v>
       </c>
       <c r="E10">
-        <v>42123.5</v>
+        <v>53011.57</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>18949.01</v>
+        <v>19838.86</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1493</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4996.4775</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>19186.7</v>
       </c>
       <c r="M10">
-        <v>11171</v>
+        <v>13306</v>
       </c>
       <c r="N10">
-        <v>2924.3</v>
+        <v>7562.5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1526,37 +1526,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1394.9</v>
+        <v>1575.1934</v>
       </c>
       <c r="E11">
-        <v>42165.6</v>
+        <v>53308.67000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22301.55</v>
+        <v>22593.36</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1537.5</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5439.5875</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>20153.92</v>
       </c>
       <c r="M11">
-        <v>11171</v>
+        <v>13306</v>
       </c>
       <c r="N11">
-        <v>3004.3</v>
+        <v>8006.599999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1570,37 +1570,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1655.3</v>
+        <v>1781.1134</v>
       </c>
       <c r="E12">
-        <v>42277.9</v>
+        <v>53426.37</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23517.15</v>
+        <v>27697.96</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1967</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5596.1025</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>20248.72</v>
       </c>
       <c r="M12">
-        <v>11171</v>
+        <v>13306</v>
       </c>
       <c r="N12">
-        <v>3458.8</v>
+        <v>8537.1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1614,37 +1614,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1655.3</v>
+        <v>1796.2134</v>
       </c>
       <c r="E13">
-        <v>47772.9</v>
+        <v>64720.07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24430.25</v>
+        <v>29731.16</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2009.81</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6127.6025</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>23029.02</v>
       </c>
       <c r="M13">
-        <v>11171</v>
+        <v>13306</v>
       </c>
       <c r="N13">
-        <v>3608.099999999999</v>
+        <v>8753.1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1658,37 +1658,37 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1655.3</v>
+        <v>1796.2134</v>
       </c>
       <c r="E14">
-        <v>47772.9</v>
+        <v>65772.07000000001</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24430.25</v>
+        <v>30848.66</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2009.81</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7460.7635</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>23029.02</v>
       </c>
       <c r="M14">
-        <v>11171</v>
+        <v>13306</v>
       </c>
       <c r="N14">
-        <v>3608.099999999999</v>
+        <v>8765.6</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2462</v>
+        <v>3052</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2462</v>
+        <v>3052</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2462</v>
+        <v>3052</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2462</v>
+        <v>3052</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2462</v>
+        <v>3052</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2462</v>
+        <v>3052</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2462</v>
+        <v>3052</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2462</v>
+        <v>3052</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2596</v>
+        <v>3186</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3471</v>
+        <v>4061</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4324</v>
+        <v>4914</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5205</v>
+        <v>5795</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5205</v>
+        <v>5795</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>501</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3692.5</v>
+        <v>3870.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1145.6</v>
+        <v>1893.6</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M2">
         <v>1886.8</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>310</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M3">
         <v>1886.8</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>310</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M4">
         <v>1886.8</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>310</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M5">
         <v>1886.8</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>310</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M6">
         <v>1886.8</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>1194</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M7">
         <v>1886.8</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1194</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M8">
         <v>1886.8</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>1194</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M9">
         <v>1886.8</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>1194</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M10">
         <v>1886.8</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>1194</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M11">
         <v>1886.8</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>1194</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M12">
         <v>1886.8</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>1194</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M13">
         <v>1886.8</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>1194</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2955.3</v>
+        <v>3638.2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M14">
         <v>1886.8</v>
@@ -3646,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20335.65</v>
+        <v>26677.65</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>8406.299999999999</v>
+        <v>11215.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3690,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20335.65</v>
+        <v>26677.65</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8716.299999999999</v>
+        <v>11525.3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3734,16 +3734,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E4">
-        <v>1636</v>
+        <v>1779</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20335.65</v>
+        <v>26677.65</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8716.299999999999</v>
+        <v>11525.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3778,16 +3778,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E5">
-        <v>3252</v>
+        <v>3395</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20335.65</v>
+        <v>26677.65</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>9036.299999999999</v>
+        <v>11845.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E6">
-        <v>3252</v>
+        <v>3395</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20687.65</v>
+        <v>27029.65</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>9036.299999999999</v>
+        <v>11845.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E7">
-        <v>3252</v>
+        <v>3395</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20687.65</v>
+        <v>27029.65</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>9036.299999999999</v>
+        <v>11845.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E8">
-        <v>3402</v>
+        <v>3545</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20687.65</v>
+        <v>27029.65</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>9036.299999999999</v>
+        <v>11845.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E9">
-        <v>6682</v>
+        <v>6825</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22055.15</v>
+        <v>28397.15</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9213.299999999999</v>
+        <v>12022.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3998,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E10">
-        <v>7032</v>
+        <v>7175</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24638.15</v>
+        <v>30980.15</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9213.299999999999</v>
+        <v>12022.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4042,16 +4042,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E11">
-        <v>7032</v>
+        <v>7175</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29319.15</v>
+        <v>35661.14999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9213.299999999999</v>
+        <v>12022.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4086,16 +4086,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E12">
-        <v>9012</v>
+        <v>9155</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>36209.65</v>
+        <v>42551.65</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9213.299999999999</v>
+        <v>12022.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4130,16 +4130,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E13">
-        <v>9012</v>
+        <v>9155</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38570.65</v>
+        <v>44912.65</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9213.299999999999</v>
+        <v>12022.3</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4174,16 +4174,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E14">
-        <v>9012</v>
+        <v>9155</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>38570.65</v>
+        <v>44912.65</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9213.299999999999</v>
+        <v>12022.3</v>
       </c>
     </row>
   </sheetData>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2490</v>
+        <v>2850</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -6794,13 +6794,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>590</v>
+        <v>5617</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1989</v>
+        <v>4018</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -6838,13 +6838,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>590</v>
+        <v>5617</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1989</v>
+        <v>4018</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -6882,13 +6882,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>590</v>
+        <v>5617</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1989</v>
+        <v>4018</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -6926,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>590</v>
+        <v>5617</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1989</v>
+        <v>4018</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6970,13 +6970,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>590</v>
+        <v>5617</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1989</v>
+        <v>4018</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -7014,13 +7014,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>590</v>
+        <v>5617</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1989</v>
+        <v>4018</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7038,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -7058,13 +7058,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1630</v>
+        <v>6657</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1989</v>
+        <v>4018</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2315</v>
+        <v>7342</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2673</v>
+        <v>4702</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -7146,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2315</v>
+        <v>7342</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5252</v>
+        <v>7281</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2315</v>
+        <v>7342</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5252</v>
+        <v>7281</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -7234,13 +7234,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2315</v>
+        <v>7342</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>8001</v>
+        <v>10030</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -7278,13 +7278,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3915</v>
+        <v>8942</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>9312</v>
+        <v>11341</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -7322,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5015</v>
+        <v>10042</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>9312</v>
+        <v>11341</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>485</v>
+        <v>977</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>268</v>
+        <v>899</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7429,16 +7429,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1038.8</v>
+        <v>4232.2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6412</v>
       </c>
       <c r="N2">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>268</v>
+        <v>899</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7473,16 +7473,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1038.8</v>
+        <v>4232.2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7491,10 +7491,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6412</v>
       </c>
       <c r="N3">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>268</v>
+        <v>899</v>
       </c>
       <c r="E4">
         <v>470</v>
@@ -7517,16 +7517,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1038.8</v>
+        <v>4232.2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7535,10 +7535,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6412</v>
       </c>
       <c r="N4">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>268</v>
+        <v>899</v>
       </c>
       <c r="E5">
         <v>470</v>
@@ -7561,16 +7561,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1038.8</v>
+        <v>4232.2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -7579,10 +7579,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>962</v>
+        <v>7374</v>
       </c>
       <c r="N5">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>268</v>
+        <v>899</v>
       </c>
       <c r="E6">
         <v>470</v>
@@ -7605,16 +7605,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1038.8</v>
+        <v>4232.2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -7623,10 +7623,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>962</v>
+        <v>7374</v>
       </c>
       <c r="N6">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>268</v>
+        <v>899</v>
       </c>
       <c r="E7">
         <v>470</v>
@@ -7649,16 +7649,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1038.8</v>
+        <v>4232.2</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -7667,10 +7667,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5925.8</v>
+        <v>12337.8</v>
       </c>
       <c r="N7">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>268</v>
+        <v>899</v>
       </c>
       <c r="E8">
         <v>470</v>
@@ -7693,16 +7693,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1038.8</v>
+        <v>4232.2</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7711,10 +7711,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5925.8</v>
+        <v>12337.8</v>
       </c>
       <c r="N8">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>268</v>
+        <v>899</v>
       </c>
       <c r="E9">
         <v>470</v>
@@ -7737,16 +7737,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1489.8</v>
+        <v>4683.2</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7755,10 +7755,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5925.8</v>
+        <v>12337.8</v>
       </c>
       <c r="N9">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>268</v>
+        <v>899</v>
       </c>
       <c r="E10">
         <v>470</v>
@@ -7781,16 +7781,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2661.8</v>
+        <v>5855.2</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7799,10 +7799,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5925.8</v>
+        <v>12337.8</v>
       </c>
       <c r="N10">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>363</v>
+        <v>994</v>
       </c>
       <c r="E11">
         <v>470</v>
@@ -7825,16 +7825,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2661.8</v>
+        <v>5855.2</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5925.8</v>
+        <v>12337.8</v>
       </c>
       <c r="N11">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>363</v>
+        <v>994</v>
       </c>
       <c r="E12">
         <v>470</v>
@@ -7869,16 +7869,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3028.8</v>
+        <v>6222.2</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -7887,10 +7887,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5925.8</v>
+        <v>12337.8</v>
       </c>
       <c r="N12">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>363</v>
+        <v>994</v>
       </c>
       <c r="E13">
         <v>470</v>
@@ -7913,16 +7913,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3855.8</v>
+        <v>7049.2</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -7931,10 +7931,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5925.8</v>
+        <v>12337.8</v>
       </c>
       <c r="N13">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>363</v>
+        <v>994</v>
       </c>
       <c r="E14">
         <v>470</v>
@@ -7957,16 +7957,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3855.8</v>
+        <v>7049.2</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7975,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5925.8</v>
+        <v>12337.8</v>
       </c>
       <c r="N14">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1454</v>
+        <v>2992.9</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -8678,16 +8678,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E2">
-        <v>23949</v>
+        <v>25554.8</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>677</v>
+        <v>1918.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -8722,16 +8722,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E3">
-        <v>24736</v>
+        <v>26341.8</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>677</v>
+        <v>1918.2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -8766,16 +8766,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E4">
-        <v>26235</v>
+        <v>27840.8</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>677</v>
+        <v>1918.2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -8810,16 +8810,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E5">
-        <v>27085</v>
+        <v>28690.8</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>942</v>
+        <v>2183.2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E6">
-        <v>27085</v>
+        <v>28690.8</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>942</v>
+        <v>2183.2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -8898,16 +8898,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E7">
-        <v>27471</v>
+        <v>29076.8</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>942</v>
+        <v>2183.2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -8942,16 +8942,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E8">
-        <v>27917</v>
+        <v>29522.8</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>942</v>
+        <v>2183.2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -8986,16 +8986,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E9">
-        <v>28127</v>
+        <v>29732.8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>942</v>
+        <v>2183.2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -9030,16 +9030,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E10">
-        <v>28127</v>
+        <v>29732.8</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1058</v>
+        <v>2299.2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -9074,16 +9074,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="E11">
-        <v>28277</v>
+        <v>29882.8</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1351</v>
+        <v>2592.2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -9118,16 +9118,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>121.6</v>
       </c>
       <c r="E12">
-        <v>28809</v>
+        <v>30414.8</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1351</v>
+        <v>2592.2</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -9162,16 +9162,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>215</v>
+        <v>326.6</v>
       </c>
       <c r="E13">
-        <v>28809</v>
+        <v>30414.8</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1351</v>
+        <v>2592.2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -9206,16 +9206,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>215</v>
+        <v>326.6</v>
       </c>
       <c r="E14">
-        <v>30959</v>
+        <v>32564.8</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1804</v>
+        <v>3045.2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1827</v>
+        <v>3653</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1827</v>
+        <v>3653</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1827</v>
+        <v>3653</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1827</v>
+        <v>3653</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1827</v>
+        <v>3653</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1827</v>
+        <v>3653</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1827</v>
+        <v>3653</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1827</v>
+        <v>3653</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -9668,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1827</v>
+        <v>3653</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3003</v>
+        <v>4829</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>452.9</v>
+        <v>452.9000000000001</v>
       </c>
       <c r="E12">
         <v>1978</v>
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3829</v>
+        <v>5655</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>452.9</v>
+        <v>452.9000000000001</v>
       </c>
       <c r="E13">
         <v>1978</v>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3829</v>
+        <v>5655</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>452.9</v>
+        <v>452.9000000000001</v>
       </c>
       <c r="E14">
         <v>1978</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3829</v>
+        <v>5655</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M2">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10004,10 +10004,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M3">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M4">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10092,10 +10092,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M5">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -10136,10 +10136,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M6">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -10180,10 +10180,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M7">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10224,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M8">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M9">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M10">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2272</v>
+        <v>3283</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -10356,10 +10356,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M11">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -10385,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2492</v>
+        <v>3503</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -10400,10 +10400,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M12">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3352</v>
+        <v>4363</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -10444,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M13">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3352</v>
+        <v>4363</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -10488,10 +10488,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>659.7</v>
       </c>
       <c r="M14">
-        <v>1298</v>
+        <v>2652.5</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1760</v>
+        <v>2770</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1760</v>
+        <v>2770</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1760</v>
+        <v>2770</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1760</v>
+        <v>3710</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1398</v>
+        <v>1618</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1760</v>
+        <v>3710</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1398</v>
+        <v>1618</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1760</v>
+        <v>3710</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1398</v>
+        <v>1618</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1760</v>
+        <v>3710</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -11096,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1398</v>
+        <v>1618</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1760</v>
+        <v>3710</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -11209,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -11218,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="M2">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -11262,10 +11262,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="M3">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="M4">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -11341,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -11350,10 +11350,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="M5">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="M6">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -11438,10 +11438,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="M7">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -11482,10 +11482,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="M8">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -11526,10 +11526,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="M9">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -11570,10 +11570,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="M10">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11614,10 +11614,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="M11">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -11658,10 +11658,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="M12">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -11702,10 +11702,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1618</v>
       </c>
       <c r="M13">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -11746,10 +11746,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1618</v>
       </c>
       <c r="M14">
-        <v>696</v>
+        <v>1392</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -11826,13 +11826,13 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>595.5</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>397.932</v>
+        <v>1668.032</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -11870,13 +11870,13 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>595.5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>397.932</v>
+        <v>1668.032</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -11914,13 +11914,13 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>595.5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1128.932</v>
+        <v>2399.032</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -11958,13 +11958,13 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>595.5</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1128.932</v>
+        <v>2399.032</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -12002,13 +12002,13 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1912.73</v>
+        <v>2508.23</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1128.932</v>
+        <v>2399.032</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -12046,13 +12046,13 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>7598.719999999999</v>
+        <v>8194.220000000001</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1128.932</v>
+        <v>2399.032</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M7">
         <v>5071.34</v>
@@ -12090,13 +12090,13 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>7663.719999999999</v>
+        <v>8259.220000000001</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1128.932</v>
+        <v>2399.032</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M8">
         <v>7120.059999999999</v>
@@ -12134,13 +12134,13 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>7663.719999999999</v>
+        <v>8343.220000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1209.432</v>
+        <v>2479.532</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12155,13 +12155,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M9">
         <v>7120.059999999999</v>
       </c>
       <c r="N9">
-        <v>2779.809999999999</v>
+        <v>2779.81</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -12178,13 +12178,13 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>8783.309999999999</v>
+        <v>9554.157000000001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1270.302</v>
+        <v>2540.402</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12199,13 +12199,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M10">
         <v>7120.059999999999</v>
       </c>
       <c r="N10">
-        <v>3413.610999999999</v>
+        <v>3413.611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -12222,13 +12222,13 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>8783.309999999999</v>
+        <v>15788.087</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>9686.928</v>
+        <v>10957.028</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12243,13 +12243,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M11">
         <v>7120.059999999999</v>
       </c>
       <c r="N11">
-        <v>3540.421</v>
+        <v>3540.420999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -12266,13 +12266,13 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>8783.309999999999</v>
+        <v>26607.543</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25193.72800000001</v>
+        <v>26463.828</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M12">
         <v>7120.059999999999</v>
@@ -12310,13 +12310,13 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>8783.309999999999</v>
+        <v>27041.173</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26159.14400000001</v>
+        <v>27429.244</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M13">
         <v>7120.059999999999</v>
@@ -12354,13 +12354,13 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>8783.309999999999</v>
+        <v>27041.173</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26159.14400000001</v>
+        <v>27429.244</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>142.3</v>
       </c>
       <c r="M14">
         <v>7120.059999999999</v>
@@ -12452,16 +12452,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>701</v>
+        <v>1409</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -12479,10 +12479,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N2">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12496,16 +12496,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>701</v>
+        <v>1409</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12523,10 +12523,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N3">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12540,16 +12540,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>701</v>
+        <v>1409</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -12567,10 +12567,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N4">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -12584,16 +12584,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>701</v>
+        <v>1409</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -12611,10 +12611,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N5">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12628,16 +12628,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="E6">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1340</v>
+        <v>2048</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12655,10 +12655,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N6">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -12672,16 +12672,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1340</v>
+        <v>2048</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -12699,10 +12699,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N7">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -12716,16 +12716,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="E8">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1340</v>
+        <v>2048</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12743,10 +12743,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N8">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -12760,16 +12760,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1340</v>
+        <v>2048</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12787,10 +12787,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N9">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -12804,16 +12804,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>487.7</v>
+        <v>593.7</v>
       </c>
       <c r="E10">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1340</v>
+        <v>2048</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12831,10 +12831,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N10">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -12848,16 +12848,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>487.7</v>
+        <v>593.7</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1340</v>
+        <v>2048</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12875,10 +12875,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N11">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -12892,16 +12892,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>487.7</v>
+        <v>593.7</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1340</v>
+        <v>2048</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12919,10 +12919,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N12">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -12936,16 +12936,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>876.7</v>
+        <v>982.7</v>
       </c>
       <c r="E13">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1340</v>
+        <v>2048</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12963,10 +12963,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N13">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -12980,16 +12980,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>876.7</v>
+        <v>982.7</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1340</v>
+        <v>2048</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13007,10 +13007,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>9762</v>
+        <v>19932</v>
       </c>
       <c r="N14">
-        <v>840</v>
+        <v>3842</v>
       </c>
     </row>
   </sheetData>
@@ -13081,16 +13081,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E2">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13108,10 +13108,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>8918</v>
+        <v>10258</v>
       </c>
       <c r="N2">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13125,16 +13125,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E3">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13152,10 +13152,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>8918</v>
+        <v>10258</v>
       </c>
       <c r="N3">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -13169,16 +13169,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E4">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13196,10 +13196,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8918</v>
+        <v>10258</v>
       </c>
       <c r="N4">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -13213,16 +13213,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E5">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -13240,10 +13240,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8918</v>
+        <v>10258</v>
       </c>
       <c r="N5">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -13257,16 +13257,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E6">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13284,10 +13284,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8918</v>
+        <v>12339</v>
       </c>
       <c r="N6">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -13301,16 +13301,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E7">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -13328,10 +13328,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8918</v>
+        <v>15845</v>
       </c>
       <c r="N7">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -13345,16 +13345,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E8">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13372,10 +13372,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>8918</v>
+        <v>18349</v>
       </c>
       <c r="N8">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -13389,16 +13389,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E9">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -13416,10 +13416,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>8918</v>
+        <v>19572</v>
       </c>
       <c r="N9">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -13433,16 +13433,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E10">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -13460,10 +13460,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8918</v>
+        <v>19572</v>
       </c>
       <c r="N10">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -13477,16 +13477,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E11">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -13504,10 +13504,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8918</v>
+        <v>19572</v>
       </c>
       <c r="N11">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -13521,16 +13521,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E12">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -13548,10 +13548,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8918</v>
+        <v>19572</v>
       </c>
       <c r="N12">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -13565,16 +13565,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E13">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -13592,10 +13592,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8918</v>
+        <v>19572</v>
       </c>
       <c r="N13">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -13609,16 +13609,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1583.7</v>
+        <v>1683.7</v>
       </c>
       <c r="E14">
-        <v>12296</v>
+        <v>16316</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29916.3</v>
+        <v>31003.3</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13636,10 +13636,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8918</v>
+        <v>19572</v>
       </c>
       <c r="N14">
-        <v>372.4</v>
+        <v>624.4</v>
       </c>
     </row>
   </sheetData>
@@ -13713,13 +13713,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>395</v>
+        <v>805</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M2">
         <v>2000</v>
@@ -13757,13 +13757,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>635</v>
+        <v>1045</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M3">
         <v>2000</v>
@@ -13801,13 +13801,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>755</v>
+        <v>1165</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M4">
         <v>2000</v>
@@ -13845,13 +13845,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1505</v>
+        <v>1915</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M5">
         <v>2000</v>
@@ -13889,13 +13889,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4015</v>
+        <v>4425</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M6">
         <v>2000</v>
@@ -13933,13 +13933,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4015</v>
+        <v>4425</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M7">
         <v>2000</v>
@@ -13977,13 +13977,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4015</v>
+        <v>4425</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13998,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M8">
         <v>2000</v>
@@ -14021,13 +14021,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4015</v>
+        <v>4425</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -14042,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M9">
         <v>2000</v>
@@ -14065,13 +14065,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4015</v>
+        <v>4425</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M10">
         <v>2000</v>
@@ -14109,13 +14109,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4015</v>
+        <v>4425</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -14130,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M11">
         <v>2000</v>
@@ -14153,13 +14153,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4189</v>
+        <v>4599</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M12">
         <v>2000</v>
@@ -14197,13 +14197,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4859</v>
+        <v>5269</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M13">
         <v>2000</v>
@@ -14241,13 +14241,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4859</v>
+        <v>5269</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -14262,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M14">
         <v>2000</v>
@@ -14348,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14392,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="N5">
         <v>740</v>
@@ -14524,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="N6">
         <v>740</v>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -14586,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="N7">
         <v>740</v>
@@ -14612,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="N8">
         <v>740</v>
@@ -14656,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -14674,7 +14674,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="N9">
         <v>740</v>
@@ -14700,7 +14700,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -14718,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="N10">
         <v>740</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -14762,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="N11">
         <v>740</v>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="N12">
         <v>740</v>
@@ -14832,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -14850,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="N13">
         <v>740</v>
@@ -14876,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>581.8</v>
+        <v>693.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -14894,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="N14">
         <v>740</v>
@@ -14971,13 +14971,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1576</v>
+        <v>1750</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M2">
         <v>2040</v>
@@ -15015,13 +15015,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1576</v>
+        <v>1750</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M3">
         <v>2040</v>
@@ -15059,13 +15059,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2381</v>
+        <v>2555</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -15080,7 +15080,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M4">
         <v>2040</v>
@@ -15103,13 +15103,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5206</v>
+        <v>5380</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -15124,7 +15124,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M5">
         <v>2040</v>
@@ -15147,13 +15147,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6826</v>
+        <v>7000</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -15168,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M6">
         <v>2040</v>
@@ -15191,13 +15191,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6898</v>
+        <v>7072</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M7">
         <v>2040</v>
@@ -15235,13 +15235,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6898</v>
+        <v>7072</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15256,7 +15256,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M8">
         <v>2040</v>
@@ -15279,13 +15279,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7075</v>
+        <v>7249</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>370</v>
+        <v>1217</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15300,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M9">
         <v>2040</v>
@@ -15323,13 +15323,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7145</v>
+        <v>7319</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>480</v>
+        <v>1327</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15344,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M10">
         <v>2040</v>
@@ -15367,13 +15367,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7209</v>
+        <v>7383</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>480</v>
+        <v>1327</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -15388,7 +15388,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M11">
         <v>4173</v>
@@ -15411,13 +15411,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7209</v>
+        <v>7383</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>480</v>
+        <v>1327</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -15432,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M12">
         <v>4173</v>
@@ -15455,13 +15455,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7613</v>
+        <v>7787</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1320</v>
+        <v>2167</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M13">
         <v>4173</v>
@@ -15499,13 +15499,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8363</v>
+        <v>8537</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1320</v>
+        <v>2167</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="M14">
         <v>4173</v>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>98</v>
+        <v>206.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -15650,7 +15650,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>206.2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -15694,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>98</v>
+        <v>206.2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -15738,7 +15738,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>98</v>
+        <v>206.2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -15776,13 +15776,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3274</v>
+        <v>3299</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>98</v>
+        <v>206.2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -15820,13 +15820,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3966</v>
+        <v>4366</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>179</v>
+        <v>287.2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15864,13 +15864,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4682</v>
+        <v>5097</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>179</v>
+        <v>287.2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15908,13 +15908,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5089</v>
+        <v>5914</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>179</v>
+        <v>287.2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15952,13 +15952,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5089</v>
+        <v>6329</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>571</v>
+        <v>679.2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15996,13 +15996,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5089</v>
+        <v>6329</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>571</v>
+        <v>679.2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -16040,13 +16040,13 @@
         <v>88</v>
       </c>
       <c r="E12">
-        <v>5089</v>
+        <v>6329</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>571</v>
+        <v>679.2</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -16084,13 +16084,13 @@
         <v>88</v>
       </c>
       <c r="E13">
-        <v>5089</v>
+        <v>6329</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>571</v>
+        <v>679.2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -16128,13 +16128,13 @@
         <v>88</v>
       </c>
       <c r="E14">
-        <v>5089</v>
+        <v>6329</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>571</v>
+        <v>679.2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16279,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16323,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -16411,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -16455,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -16499,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16520,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -16608,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -16652,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -16675,7 +16675,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -16696,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -16719,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -16763,7 +16763,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1841</v>
+        <v>2111</v>
       </c>
     </row>
   </sheetData>
@@ -16855,16 +16855,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E2">
-        <v>1170</v>
+        <v>3184</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16882,10 +16882,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N2">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16899,16 +16899,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E3">
-        <v>1170</v>
+        <v>3184</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -16926,10 +16926,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N3">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16943,16 +16943,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E4">
-        <v>1170</v>
+        <v>3184</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -16970,10 +16970,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N4">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16987,16 +16987,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E5">
-        <v>1170</v>
+        <v>3184</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17014,10 +17014,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N5">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -17031,16 +17031,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E6">
-        <v>1170</v>
+        <v>3184</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -17058,10 +17058,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N6">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -17075,16 +17075,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E7">
-        <v>1340</v>
+        <v>3354</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17102,10 +17102,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N7">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -17119,16 +17119,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E8">
-        <v>1340</v>
+        <v>3354</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,10 +17146,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N8">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -17163,16 +17163,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E9">
-        <v>1340</v>
+        <v>3354</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17190,10 +17190,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N9">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -17207,16 +17207,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E10">
-        <v>1340</v>
+        <v>3354</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -17234,10 +17234,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N10">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -17251,16 +17251,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E11">
-        <v>1340</v>
+        <v>3354</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -17278,10 +17278,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N11">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -17295,16 +17295,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E12">
-        <v>1340</v>
+        <v>3354</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -17322,10 +17322,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N12">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -17339,16 +17339,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E13">
-        <v>1340</v>
+        <v>3354</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -17366,10 +17366,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N13">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -17383,16 +17383,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2180.44</v>
+        <v>3100.440000000001</v>
       </c>
       <c r="E14">
-        <v>1340</v>
+        <v>3354</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1924.1</v>
+        <v>2474.1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -17410,10 +17410,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2752</v>
+        <v>7146</v>
       </c>
       <c r="N14">
-        <v>1141.3</v>
+        <v>1900.3</v>
       </c>
     </row>
   </sheetData>
@@ -17484,16 +17484,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E2">
-        <v>3575</v>
+        <v>6060</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -17511,10 +17511,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N2">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -17528,16 +17528,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E3">
-        <v>3575</v>
+        <v>6060</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -17555,10 +17555,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N3">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -17572,16 +17572,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E4">
-        <v>3575</v>
+        <v>6060</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17599,10 +17599,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N4">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -17616,16 +17616,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E5">
-        <v>3575</v>
+        <v>6060</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17643,10 +17643,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N5">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -17660,16 +17660,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E6">
-        <v>3575</v>
+        <v>6060</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -17687,10 +17687,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N6">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -17704,16 +17704,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E7">
-        <v>3575</v>
+        <v>7250</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17731,10 +17731,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N7">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -17748,16 +17748,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E8">
-        <v>3575</v>
+        <v>7250</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17775,10 +17775,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N8">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -17792,16 +17792,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E9">
-        <v>3575</v>
+        <v>7250</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17819,10 +17819,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N9">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -17836,16 +17836,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E10">
-        <v>3575</v>
+        <v>7250</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -17863,10 +17863,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N10">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -17880,16 +17880,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E11">
-        <v>3575</v>
+        <v>7250</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -17907,10 +17907,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N11">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -17924,16 +17924,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E12">
-        <v>3575</v>
+        <v>7250</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -17951,10 +17951,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N12">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -17968,16 +17968,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E13">
-        <v>3575</v>
+        <v>7250</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -17995,10 +17995,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N13">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -18012,16 +18012,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>792.6000000000003</v>
+        <v>942.6000000000005</v>
       </c>
       <c r="E14">
-        <v>3575</v>
+        <v>7250</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5007</v>
+        <v>5495</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -18039,10 +18039,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>63130</v>
+        <v>126260</v>
       </c>
       <c r="N14">
-        <v>4388</v>
+        <v>9212</v>
       </c>
     </row>
   </sheetData>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>303</v>
+        <v>0.5542</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>150</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>520</v>
+        <v>0.4707999999999999</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>520</v>
+        <v>1.24</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.715</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -768,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>396</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>712</v>
+        <v>1.598</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>759</v>
+        <v>0.04700000000000015</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -906,16 +906,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>842.7</v>
+        <v>0.4786999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>800</v>
+        <v>0.395</v>
       </c>
       <c r="J11">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3234.7</v>
+        <v>1.925</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -994,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4066.7</v>
+        <v>1.67</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4066.7</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1130,37 +1130,37 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7768.82</v>
+        <v>2.83132</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11980.6</v>
+        <v>1.176</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>327.5</v>
+        <v>0.3275</v>
       </c>
       <c r="J2">
-        <v>771</v>
+        <v>1.105</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1538</v>
+        <v>1.664</v>
       </c>
       <c r="M2">
-        <v>2550</v>
+        <v>1.275</v>
       </c>
       <c r="N2">
-        <v>1364</v>
+        <v>0.7292000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1174,37 +1174,37 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>10496.32</v>
+        <v>3.45</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>12029.7</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>327.5</v>
+        <v>0.02499999999999997</v>
       </c>
       <c r="J3">
-        <v>880</v>
+        <v>0.109</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>3104.5</v>
+        <v>6.7425</v>
       </c>
       <c r="M3">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1863</v>
+        <v>0.5126999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1218,37 +1218,37 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>16879.51</v>
+        <v>6.416189999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>12268.9</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>327.5</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>986.1865</v>
+        <v>0.1061865</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4639.5</v>
+        <v>1.535</v>
       </c>
       <c r="M4">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2103.5</v>
+        <v>0.2405000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1262,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>313</v>
+        <v>0.052</v>
       </c>
       <c r="E5">
-        <v>22491.07</v>
+        <v>1.681560000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>15487.6</v>
+        <v>10.8207</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>822.9</v>
+        <v>0.4954</v>
       </c>
       <c r="J5">
-        <v>3264.6865</v>
+        <v>2.2785</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9020.5</v>
+        <v>8.593000000000002</v>
       </c>
       <c r="M5">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>4973.9</v>
+        <v>3.701400000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1306,37 +1306,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>30475.17</v>
+        <v>4.750599999999997</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>17217.2</v>
+        <v>4.065700000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>822.9</v>
+        <v>0.3210000000000001</v>
       </c>
       <c r="J6">
-        <v>4252.8665</v>
+        <v>0.9881799999999994</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10614</v>
+        <v>4.063499999999998</v>
       </c>
       <c r="M6">
-        <v>2550</v>
+        <v>1.402</v>
       </c>
       <c r="N6">
-        <v>6846.3</v>
+        <v>1.330899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1350,37 +1350,37 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>39159.97</v>
+        <v>15.3441</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>17375.6</v>
+        <v>0.125</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>934.9</v>
+        <v>0.1120000000000001</v>
       </c>
       <c r="J7">
-        <v>4424.366499999999</v>
+        <v>0.2335000000000003</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12835.3</v>
+        <v>5.571300000000001</v>
       </c>
       <c r="M7">
-        <v>10564</v>
+        <v>6.58</v>
       </c>
       <c r="N7">
-        <v>7032.7</v>
+        <v>0.09359999999999946</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1394,37 +1394,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>889</v>
+        <v>0.0132</v>
       </c>
       <c r="E8">
-        <v>45181.57</v>
+        <v>6.719900000000003</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>17575.6</v>
+        <v>0.3109999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1268.4</v>
+        <v>0.3334999999999999</v>
       </c>
       <c r="J8">
-        <v>4508.657499999999</v>
+        <v>0.2111910000000004</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13946.4</v>
+        <v>1.1111</v>
       </c>
       <c r="M8">
-        <v>13306</v>
+        <v>10.942</v>
       </c>
       <c r="N8">
-        <v>7038.7</v>
+        <v>0.04140000000000121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1438,37 +1438,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>920.3</v>
+        <v>0.03129999999999999</v>
       </c>
       <c r="E9">
-        <v>48296.07</v>
+        <v>2.9694</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>18275.75999999999</v>
+        <v>1.752009999999995</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1334</v>
+        <v>0.07580000000000031</v>
       </c>
       <c r="J9">
-        <v>4691.3575</v>
+        <v>0.510978999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14105.7</v>
+        <v>1.0593</v>
       </c>
       <c r="M9">
-        <v>13306</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>7312.3</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1482,37 +1482,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1034.8</v>
+        <v>0.03749999999999999</v>
       </c>
       <c r="E10">
-        <v>53011.57</v>
+        <v>0.5953999999999979</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>19838.86</v>
+        <v>5.829400000000007</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1493</v>
+        <v>0.1824999999999997</v>
       </c>
       <c r="J10">
-        <v>4996.4775</v>
+        <v>0.617020000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19186.7</v>
+        <v>8.372999999999998</v>
       </c>
       <c r="M10">
-        <v>13306</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>7562.5</v>
+        <v>0.3567</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1526,37 +1526,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1575.1934</v>
+        <v>0.5754933999999999</v>
       </c>
       <c r="E11">
-        <v>53308.67000000001</v>
+        <v>0.2549999999999955</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22593.36</v>
+        <v>3.745918999999997</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1537.5</v>
+        <v>0.07520000000000038</v>
       </c>
       <c r="J11">
-        <v>5439.5875</v>
+        <v>0.5482499999999995</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20153.92</v>
+        <v>0.9672199999999975</v>
       </c>
       <c r="M11">
-        <v>13306</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>8006.599999999999</v>
+        <v>0.3641000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1570,37 +1570,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1781.1134</v>
+        <v>0.17175</v>
       </c>
       <c r="E12">
-        <v>53426.37</v>
+        <v>0.3736000000000104</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27697.96</v>
+        <v>5.311000000000003</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1967</v>
+        <v>0.4294999999999993</v>
       </c>
       <c r="J12">
-        <v>5596.1025</v>
+        <v>0.1690149999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20248.72</v>
+        <v>0.09480000000000643</v>
       </c>
       <c r="M12">
-        <v>13306</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>8537.1</v>
+        <v>0.4079999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1614,37 +1614,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1796.2134</v>
+        <v>0.01510000000000011</v>
       </c>
       <c r="E13">
-        <v>64720.07</v>
+        <v>10.37669999999999</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29731.16</v>
+        <v>3.165799999999997</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2009.81</v>
+        <v>0.1779700000000002</v>
       </c>
       <c r="J13">
-        <v>6127.6025</v>
+        <v>0.6781499999999996</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23029.02</v>
+        <v>2.780300000000004</v>
       </c>
       <c r="M13">
-        <v>13306</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>8753.1</v>
+        <v>0.1632999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1658,37 +1658,37 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1796.2134</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>65772.07000000001</v>
+        <v>1.052</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30848.66</v>
+        <v>1.743500000000004</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2009.81</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7460.7635</v>
+        <v>1.333160999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23029.02</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>13306</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>8765.6</v>
+        <v>0.01250000000000107</v>
       </c>
     </row>
   </sheetData>
@@ -1762,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3052</v>
+        <v>0.417</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2470</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2470</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2003,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.674</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4665</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5459999999999998</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2070,13 +2070,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4665</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2091,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5110000000000001</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4665</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3186</v>
+        <v>0.55</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3420000000000001</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2158,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4995</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4061</v>
+        <v>1.023</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2179,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2889999999999997</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4995</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4914</v>
+        <v>1.544</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2246,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4995</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5795</v>
+        <v>0.8650000000000002</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2267,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.8450000000000002</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4995</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5795</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3870.5</v>
+        <v>0.178</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1893.6</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3870.5</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3870.5</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1893.6</v>
+        <v>0.6519999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3870.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3870.5</v>
+        <v>1.08</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3870.5</v>
+        <v>0.1080000000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2652,16 +2652,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3870.5</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2696,16 +2696,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3870.5</v>
+        <v>0.4629999999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3870.5</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2784,16 +2784,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3870.5</v>
+        <v>1.253</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2828,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3870.5</v>
+        <v>1.055</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2872,16 +2872,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3870.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3870.5</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3017,16 +3017,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>0.028</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3638.2</v>
+        <v>0.6078000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>93</v>
+        <v>0.962</v>
       </c>
       <c r="M2">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3061,16 +3061,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0.106</v>
       </c>
       <c r="E3">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3638.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>93</v>
+        <v>0.22</v>
       </c>
       <c r="M3">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3105,16 +3105,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3638.2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3129,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3149,16 +3149,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3638.2</v>
+        <v>0.8409999999999995</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3173,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3638.2</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3217,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3638.2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3261,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3281,16 +3281,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3638.2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3638.2</v>
+        <v>0.02729999999999988</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3349,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3369,16 +3369,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3638.2</v>
+        <v>0.4019999999999997</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3413,16 +3413,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3638.2</v>
+        <v>0.306</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3437,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>170</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3457,16 +3457,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3638.2</v>
+        <v>0.04700000000000015</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3501,16 +3501,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3638.2</v>
+        <v>0.427</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3525,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3638.2</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3569,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1886.8</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3646,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>571</v>
+        <v>0.571</v>
       </c>
       <c r="E2">
-        <v>143</v>
+        <v>0.143</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26677.65</v>
+        <v>6.809</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>28</v>
+        <v>0.028</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11215.3</v>
+        <v>2.755</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3690,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>143</v>
+        <v>0.3150000000000001</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26677.65</v>
+        <v>0.7530000000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11525.3</v>
+        <v>0.3029999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3734,16 +3734,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1779</v>
+        <v>1.292</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26677.65</v>
+        <v>1.079</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11525.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3778,16 +3778,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3395</v>
+        <v>0.593</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26677.65</v>
+        <v>1.488</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11845.3</v>
+        <v>0.9459999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3395</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27029.65</v>
+        <v>0.2240000000000002</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11845.3</v>
+        <v>0.3520000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3395</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27029.65</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>162</v>
+        <v>0.114</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11845.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3545</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27029.65</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>218</v>
+        <v>0.114</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11845.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>6825</v>
+        <v>2.954</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28397.15</v>
+        <v>0.1219999999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>309</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12022.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3998,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>7175</v>
+        <v>0.5200000000000005</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30980.15</v>
+        <v>3.618</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>548</v>
+        <v>0.205</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12022.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4042,16 +4042,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>7175</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>35661.14999999999</v>
+        <v>12.428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>848</v>
+        <v>0.3089999999999999</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12022.3</v>
+        <v>0.05700000000000038</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4086,16 +4086,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>9155</v>
+        <v>1.845</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>42551.65</v>
+        <v>12.002</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>885</v>
+        <v>0.01700000000000002</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12022.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4130,16 +4130,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>9155</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44912.65</v>
+        <v>2.007999999999996</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12022.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4174,16 +4174,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>9155</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44912.65</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12022.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1001</v>
+        <v>0.5839999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2850</v>
+        <v>1.405</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2850</v>
+        <v>0.1099999999999999</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -6794,13 +6794,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5617</v>
+        <v>2.632</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4018</v>
+        <v>1.607</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -6838,13 +6838,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5617</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4018</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -6882,13 +6882,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5617</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4018</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -6926,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5617</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4018</v>
+        <v>0.869</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6970,13 +6970,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5617</v>
+        <v>0.6429999999999998</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4018</v>
+        <v>0.5739999999999998</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -7014,13 +7014,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5617</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4018</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7038,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -7058,13 +7058,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6657</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4018</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7342</v>
+        <v>1.09</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4702</v>
+        <v>1.763</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -7146,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7342</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>7281</v>
+        <v>1.604</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -7190,13 +7190,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7342</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>7281</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -7234,13 +7234,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7342</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>10030</v>
+        <v>1.848000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -7278,13 +7278,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8942</v>
+        <v>3.381</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>11341</v>
+        <v>2.671999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -7322,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10042</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>11341</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>899</v>
+        <v>0.363</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7429,16 +7429,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4232.2</v>
+        <v>1.0652</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>340</v>
+        <v>0.34</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6412</v>
+        <v>0.481</v>
       </c>
       <c r="N2">
-        <v>515</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7473,16 +7473,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4232.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7491,10 +7491,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>6412</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -7508,25 +7508,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4232.2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7535,10 +7535,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6412</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -7552,25 +7552,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4232.2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -7579,10 +7579,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7374</v>
+        <v>1.347</v>
       </c>
       <c r="N5">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -7596,25 +7596,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4232.2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -7623,10 +7623,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7374</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7640,25 +7640,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4232.2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -7667,10 +7667,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12337.8</v>
+        <v>4.090999999999999</v>
       </c>
       <c r="N7">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -7684,25 +7684,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4232.2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7711,10 +7711,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12337.8</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -7728,25 +7728,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4683.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7755,10 +7755,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12337.8</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -7772,25 +7772,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5855.2</v>
+        <v>0.8452999999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7799,10 +7799,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12337.8</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -7816,25 +7816,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5855.2</v>
+        <v>0.7264000000000002</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>12337.8</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -7860,25 +7860,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6222.2</v>
+        <v>0.9059999999999997</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -7887,10 +7887,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12337.8</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -7904,25 +7904,25 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>7049.2</v>
+        <v>0.8248000000000011</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -7931,10 +7931,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>12337.8</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -7948,25 +7948,25 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>7049.2</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7975,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>12337.8</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2992.9</v>
+        <v>1.3635</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2992.9</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -8678,16 +8678,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>111.6</v>
+        <v>0.1116</v>
       </c>
       <c r="E2">
-        <v>25554.8</v>
+        <v>2.1298</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1918.2</v>
+        <v>1.2412</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>241</v>
+        <v>0.241</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -8722,16 +8722,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>26341.8</v>
+        <v>1.4622</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1918.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>241</v>
+        <v>1.488</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -8766,16 +8766,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>27840.8</v>
+        <v>1.1673</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1918.2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>241</v>
+        <v>1.244</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -8810,16 +8810,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>28690.8</v>
+        <v>6.664200000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2183.2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>28690.8</v>
+        <v>5.643000000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2183.2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -8898,16 +8898,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>111.6</v>
+        <v>0.225</v>
       </c>
       <c r="E7">
-        <v>29076.8</v>
+        <v>0.1430000000000007</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2183.2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>241</v>
+        <v>5.472</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -8942,16 +8942,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>29522.8</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2183.2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -8986,16 +8986,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>29732.8</v>
+        <v>1.900600000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2183.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -9030,16 +9030,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>29732.8</v>
+        <v>0.1890000000000001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2299.2</v>
+        <v>0.1289</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9054,13 +9054,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -9074,16 +9074,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>29882.8</v>
+        <v>0.3810000000000002</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2592.2</v>
+        <v>0.3560000000000001</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9098,13 +9098,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -9118,16 +9118,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>121.6</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>30414.8</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2592.2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9142,13 +9142,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>241</v>
+        <v>0.4740000000000002</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -9162,16 +9162,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>326.6</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>30414.8</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2592.2</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9186,13 +9186,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -9206,16 +9206,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>326.6</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>32564.8</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3045.2</v>
+        <v>0.4850000000000001</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9230,13 +9230,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>655</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3653</v>
+        <v>1.826</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -9571,16 +9571,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9615,16 +9615,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1978</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -9659,16 +9659,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1978</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9680,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -9703,16 +9703,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>351.9</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1978</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4829</v>
+        <v>1.176</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -9747,16 +9747,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>452.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1978</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5655</v>
+        <v>0.8260000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -9791,16 +9791,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>452.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1978</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5655</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -9835,16 +9835,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>452.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1978</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5655</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -9939,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3283</v>
+        <v>1.299</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>659.7</v>
+        <v>0.6597000000000001</v>
       </c>
       <c r="M2">
-        <v>2652.5</v>
+        <v>1.3545</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -9983,13 +9983,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3283</v>
+        <v>0.7634000000000003</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10004,10 +10004,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -10027,13 +10027,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3283</v>
+        <v>0.3919999999999999</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -10071,13 +10071,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>810</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3283</v>
+        <v>0.2977000000000003</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10092,10 +10092,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3205</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -10136,10 +10136,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>659.7</v>
+        <v>3.154</v>
       </c>
       <c r="M6">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -10159,13 +10159,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4855</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -10180,10 +10180,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5807</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10224,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>659.7</v>
+        <v>0.8570000000000002</v>
       </c>
       <c r="M8">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -10247,13 +10247,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5807</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -10291,13 +10291,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5807</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10335,13 +10335,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5807</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -10356,10 +10356,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -10379,13 +10379,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5807</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3503</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -10400,10 +10400,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -10423,13 +10423,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5807</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4363</v>
+        <v>0.8849999999999993</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -10444,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -10467,13 +10467,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5807</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4363</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -10488,10 +10488,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>2652.5</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -10568,13 +10568,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="M2">
-        <v>1760</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -10612,13 +10612,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1760</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -10656,13 +10656,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1760</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -10700,13 +10700,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1760</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -10744,13 +10744,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1760</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -10788,13 +10788,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2770</v>
+        <v>1.01</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2770</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -10876,13 +10876,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2770</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -10920,13 +10920,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3710</v>
+        <v>1.88</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10964,13 +10964,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3710</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -11008,13 +11008,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>728</v>
+        <v>0.4196</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3710</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -11052,13 +11052,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3710</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -11096,13 +11096,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3710</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -11197,19 +11197,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>297</v>
+        <v>0.297</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>53</v>
+        <v>0.053</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -11218,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>884</v>
+        <v>0.345</v>
       </c>
       <c r="M2">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -11241,19 +11241,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -11262,10 +11262,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -11285,19 +11285,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>968</v>
+        <v>0.343</v>
       </c>
       <c r="M4">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -11329,19 +11329,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>122</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -11350,10 +11350,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>968</v>
+        <v>1.092</v>
       </c>
       <c r="M5">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -11373,19 +11373,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>968</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -11417,19 +11417,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -11438,10 +11438,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1018</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="M7">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -11461,19 +11461,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -11482,10 +11482,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -11505,19 +11505,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -11526,10 +11526,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -11549,19 +11549,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>350</v>
+        <v>0.228</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -11570,10 +11570,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -11593,19 +11593,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11614,10 +11614,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -11637,19 +11637,19 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -11658,10 +11658,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -11681,19 +11681,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -11702,10 +11702,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1618</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="M13">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -11725,19 +11725,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -11746,10 +11746,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -11823,16 +11823,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>595.5</v>
+        <v>0.093</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1668.032</v>
+        <v>0.7645999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11847,13 +11847,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -11867,16 +11867,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>595.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1668.032</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11891,13 +11891,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -11911,16 +11911,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>595.5</v>
+        <v>0.6454000000000001</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2399.032</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11935,13 +11935,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>553.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -11955,16 +11955,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>595.5</v>
+        <v>1.0672</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2399.032</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -11979,13 +11979,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1450.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -11999,16 +11999,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2508.23</v>
+        <v>3.315499999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2399.032</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12023,13 +12023,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1604.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -12043,16 +12043,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>8194.220000000001</v>
+        <v>4.0829</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2399.032</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -12067,13 +12067,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>5071.34</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1604.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -12087,16 +12087,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>8259.220000000001</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2399.032</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12111,13 +12111,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>7120.059999999999</v>
+        <v>3.040399999999999</v>
       </c>
       <c r="N8">
-        <v>2543.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -12131,16 +12131,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>8343.220000000001</v>
+        <v>0.08399999999999963</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2479.532</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12155,13 +12155,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>7120.059999999999</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2779.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -12175,16 +12175,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>9554.157000000001</v>
+        <v>0.6533470000000001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2540.402</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12199,13 +12199,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>7120.059999999999</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3413.611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -12219,16 +12219,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>15788.087</v>
+        <v>6.233930000000003</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>10957.028</v>
+        <v>9.879599999999998</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12243,13 +12243,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>7120.059999999999</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3540.420999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -12263,16 +12263,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>26607.543</v>
+        <v>10.819456</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26463.828</v>
+        <v>11.4019</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12287,13 +12287,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>7120.059999999999</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>4356.880999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -12307,16 +12307,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>27041.173</v>
+        <v>0.4336300000000008</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27429.244</v>
+        <v>3.389300000000002</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12331,13 +12331,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>7120.059999999999</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>4666.670999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -12351,16 +12351,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>27041.173</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27429.244</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -12375,13 +12375,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>7120.059999999999</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4666.670999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12452,16 +12452,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>535</v>
+        <v>0.106</v>
       </c>
       <c r="E2">
-        <v>260</v>
+        <v>0.13</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1409</v>
+        <v>0.26</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -12479,10 +12479,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19932</v>
+        <v>2.511</v>
       </c>
       <c r="N2">
-        <v>3842</v>
+        <v>2.239</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12496,16 +12496,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12523,10 +12523,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19932</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12540,16 +12540,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -12567,10 +12567,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19932</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3842</v>
+        <v>0.2600000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -12584,16 +12584,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -12611,10 +12611,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19932</v>
+        <v>0.8649999999999998</v>
       </c>
       <c r="N5">
-        <v>3842</v>
+        <v>0.6699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12628,16 +12628,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12655,10 +12655,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19932</v>
+        <v>1.862000000000001</v>
       </c>
       <c r="N6">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -12672,16 +12672,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -12699,10 +12699,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19932</v>
+        <v>5.687</v>
       </c>
       <c r="N7">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -12716,16 +12716,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12743,10 +12743,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19932</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -12760,16 +12760,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12787,10 +12787,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19932</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -12804,16 +12804,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>593.7</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12831,10 +12831,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19932</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -12848,16 +12848,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>593.7</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12875,10 +12875,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19932</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -12892,16 +12892,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>593.7</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2048</v>
+        <v>0.698</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12919,10 +12919,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19932</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -12936,16 +12936,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>982.7</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12963,10 +12963,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19932</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -12980,16 +12980,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>982.7</v>
+        <v>0.12</v>
       </c>
       <c r="E14">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13007,10 +13007,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19932</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3842</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13081,16 +13081,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1683.7</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>16316</v>
+        <v>4.383</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>31003.3</v>
+        <v>3.378</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13108,10 +13108,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10258</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>624.4</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13125,16 +13125,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>31003.3</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13152,10 +13152,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10258</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>624.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -13169,16 +13169,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>16316</v>
+        <v>5.12</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31003.3</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13196,10 +13196,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10258</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>624.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -13213,16 +13213,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1683.7</v>
+        <v>1.935</v>
       </c>
       <c r="E5">
-        <v>16316</v>
+        <v>3.949999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31003.3</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -13240,10 +13240,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10258</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>624.4</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -13257,16 +13257,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31003.3</v>
+        <v>0.1439999999999997</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13284,10 +13284,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12339</v>
+        <v>4.801</v>
       </c>
       <c r="N6">
-        <v>624.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -13301,16 +13301,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31003.3</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -13328,10 +13328,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15845</v>
+        <v>3.506</v>
       </c>
       <c r="N7">
-        <v>624.4</v>
+        <v>0.7180000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -13345,16 +13345,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>16316</v>
+        <v>1.935</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>31003.3</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13372,10 +13372,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18349</v>
+        <v>7.882</v>
       </c>
       <c r="N8">
-        <v>624.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -13389,16 +13389,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>31003.3</v>
+        <v>6.629</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -13416,10 +13416,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19572</v>
+        <v>2.542999999999999</v>
       </c>
       <c r="N9">
-        <v>624.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -13433,16 +13433,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>31003.3</v>
+        <v>9.213999999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -13460,10 +13460,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19572</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>624.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -13477,16 +13477,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>31003.3</v>
+        <v>6.892000000000003</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -13504,10 +13504,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19572</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>624.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -13521,16 +13521,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31003.3</v>
+        <v>4.097999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -13548,10 +13548,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19572</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>624.4</v>
+        <v>0.0169999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -13565,16 +13565,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>31003.3</v>
+        <v>5.492999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -13592,10 +13592,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19572</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>624.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -13609,16 +13609,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1683.7</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>31003.3</v>
+        <v>0.9100000000000037</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13636,10 +13636,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19572</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>624.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13713,13 +13713,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>805</v>
+        <v>0.41</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>362</v>
+        <v>0.362</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13734,10 +13734,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>886</v>
+        <v>1.213</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -13757,13 +13757,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13778,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -13801,13 +13801,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13822,10 +13822,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>886</v>
+        <v>1.604</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -13845,13 +13845,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1915</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -13866,10 +13866,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>886</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -13889,13 +13889,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4425</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13910,10 +13910,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -13933,13 +13933,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4425</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -13977,13 +13977,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4425</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13998,10 +13998,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -14021,13 +14021,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4425</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -14042,10 +14042,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -14065,13 +14065,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4425</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -14086,10 +14086,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -14109,13 +14109,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4425</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -14130,10 +14130,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -14153,13 +14153,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4599</v>
+        <v>0.1320000000000001</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -14174,10 +14174,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -14197,13 +14197,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5269</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -14218,10 +14218,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>886</v>
+        <v>1.371999999999999</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -14241,13 +14241,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5269</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -14262,10 +14262,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -14342,13 +14342,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>693.8</v>
+        <v>0.112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -14386,13 +14386,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -14430,13 +14430,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -14457,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -14474,13 +14474,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -14498,10 +14498,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -14518,13 +14518,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -14542,10 +14542,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1425</v>
+        <v>1.035</v>
       </c>
       <c r="N6">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -14562,13 +14562,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -14586,10 +14586,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -14606,13 +14606,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14630,10 +14630,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -14650,13 +14650,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -14674,10 +14674,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -14694,13 +14694,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -14718,10 +14718,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -14738,13 +14738,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -14762,10 +14762,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -14782,13 +14782,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -14806,10 +14806,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -14826,13 +14826,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -14850,10 +14850,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -14870,13 +14870,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>693.8</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -14894,10 +14894,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14971,13 +14971,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1750</v>
+        <v>0.174</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>847</v>
+        <v>0.847</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14992,10 +14992,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2531</v>
+        <v>1.85</v>
       </c>
       <c r="M2">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -15015,13 +15015,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -15036,10 +15036,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2531</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -15059,13 +15059,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2555</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -15080,10 +15080,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2531</v>
+        <v>0.9299999999999997</v>
       </c>
       <c r="M4">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -15103,13 +15103,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5380</v>
+        <v>0.748</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -15124,10 +15124,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2531</v>
+        <v>0.7280000000000002</v>
       </c>
       <c r="M5">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -15147,13 +15147,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -15168,10 +15168,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2531</v>
+        <v>0.7679999999999998</v>
       </c>
       <c r="M6">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -15191,13 +15191,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7072</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15212,10 +15212,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2531</v>
+        <v>1.474</v>
       </c>
       <c r="M7">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -15235,13 +15235,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7072</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15256,10 +15256,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2531</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -15279,13 +15279,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7249</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15300,10 +15300,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2531</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -15323,13 +15323,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7319</v>
+        <v>0.1489999999999999</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15344,10 +15344,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2531</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -15367,13 +15367,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7383</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -15388,10 +15388,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2531</v>
+        <v>0.375</v>
       </c>
       <c r="M11">
-        <v>4173</v>
+        <v>2.056</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -15411,13 +15411,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7383</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -15432,10 +15432,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2531</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4173</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -15455,13 +15455,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7787</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2167</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -15476,10 +15476,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2531</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>4173</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -15499,13 +15499,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8537</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2167</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -15520,10 +15520,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2531</v>
+        <v>0.5970000000000004</v>
       </c>
       <c r="M14">
-        <v>4173</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -15600,13 +15600,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1597</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>206.2</v>
+        <v>0.1082</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -15618,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -15644,13 +15644,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1597</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>206.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -15662,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -15688,13 +15688,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1861</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>206.2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -15715,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -15732,13 +15732,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2648</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>206.2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -15750,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -15759,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -15776,13 +15776,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3299</v>
+        <v>0.4049999999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>206.2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -15820,13 +15820,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4366</v>
+        <v>1.091</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>287.2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -15864,13 +15864,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5097</v>
+        <v>0.2650000000000001</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>287.2</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15882,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -15908,13 +15908,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5914</v>
+        <v>1.159</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>287.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15926,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -15952,13 +15952,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6329</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>679.2</v>
+        <v>0.3920000000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15970,7 +15970,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -15979,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -15996,13 +15996,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6329</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>679.2</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -16023,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -16037,16 +16037,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>6329</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>679.2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -16058,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -16081,16 +16081,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>6329</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>679.2</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -16125,16 +16125,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>6329</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>679.2</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -16146,7 +16146,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -16155,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>846</v>
+        <v>0.423</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2111</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16279,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2111</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16323,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2111</v>
+        <v>1.369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -16411,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -16455,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -16499,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16520,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -16608,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -16652,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -16675,7 +16675,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -16696,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -16719,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -16763,7 +16763,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2111</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16855,16 +16855,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3100.440000000001</v>
+        <v>0.92</v>
       </c>
       <c r="E2">
-        <v>3184</v>
+        <v>1.399</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2474.1</v>
+        <v>0.39</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16882,10 +16882,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7146</v>
+        <v>1.6</v>
       </c>
       <c r="N2">
-        <v>1900.3</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16899,16 +16899,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3184</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -16926,10 +16926,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16943,16 +16943,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3184</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -16970,10 +16970,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16987,16 +16987,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3184</v>
+        <v>1.043</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17014,10 +17014,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -17031,16 +17031,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3184</v>
+        <v>0.2399999999999998</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -17058,10 +17058,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7146</v>
+        <v>1.376</v>
       </c>
       <c r="N6">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -17075,16 +17075,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3354</v>
+        <v>0.1550000000000002</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2474.1</v>
+        <v>0.354</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17102,10 +17102,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>7146</v>
+        <v>1.376</v>
       </c>
       <c r="N7">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -17119,16 +17119,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3354</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,10 +17146,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -17163,16 +17163,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3354</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2474.1</v>
+        <v>0.48</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17190,10 +17190,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -17207,16 +17207,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3354</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -17234,10 +17234,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -17251,16 +17251,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3354</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -17278,10 +17278,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -17295,16 +17295,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3354</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -17322,10 +17322,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -17339,16 +17339,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3354</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -17366,10 +17366,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -17383,16 +17383,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3100.440000000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3354</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2474.1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -17410,10 +17410,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7146</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1900.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17484,16 +17484,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>942.6000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="E2">
-        <v>6060</v>
+        <v>1.16</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5495</v>
+        <v>0.901</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -17505,16 +17505,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>126260</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9212</v>
+        <v>2.021</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -17528,16 +17528,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6060</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5495</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -17549,16 +17549,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>126260</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -17572,16 +17572,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6060</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5495</v>
+        <v>0.427</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17593,16 +17593,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>126260</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -17616,16 +17616,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6060</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5495</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17637,16 +17637,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>126260</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -17660,16 +17660,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6060</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5495</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -17681,16 +17681,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>126260</v>
+        <v>10.3</v>
       </c>
       <c r="N6">
-        <v>9212</v>
+        <v>0.1699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -17704,16 +17704,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>7250</v>
+        <v>2.96</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5495</v>
+        <v>0.413</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17725,16 +17725,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>126260</v>
+        <v>21.74</v>
       </c>
       <c r="N7">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -17748,16 +17748,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5495</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17769,16 +17769,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>126260</v>
+        <v>17.67</v>
       </c>
       <c r="N8">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -17792,16 +17792,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5495</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17813,16 +17813,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>126260</v>
+        <v>6.549999999999997</v>
       </c>
       <c r="N9">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -17836,16 +17836,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5495</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -17857,16 +17857,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>126260</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>9212</v>
+        <v>0.1340000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -17880,16 +17880,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5495</v>
+        <v>0.7959999999999998</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -17901,16 +17901,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>126260</v>
+        <v>2.990000000000002</v>
       </c>
       <c r="N11">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -17924,16 +17924,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5495</v>
+        <v>1.762</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -17945,16 +17945,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>126260</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -17968,16 +17968,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5495</v>
+        <v>1.744</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -17989,16 +17989,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>126260</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -18012,16 +18012,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>942.6000000000005</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5495</v>
+        <v>0.585</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -18033,16 +18033,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>126260</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>9212</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -1157,7 +1157,7 @@
         <v>1.664</v>
       </c>
       <c r="M2">
-        <v>1.275</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0.7292000000000001</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.701400000000001</v>
+        <v>3.7014</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.065700000000001</v>
+        <v>4.0657</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0.3210000000000001</v>
       </c>
       <c r="J6">
-        <v>0.9881799999999994</v>
+        <v>0.9881800000000003</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>4.063499999999998</v>
       </c>
       <c r="M6">
-        <v>1.402</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.330899999999999</v>
+        <v>1.3309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1377,10 +1377,10 @@
         <v>5.571300000000001</v>
       </c>
       <c r="M7">
-        <v>6.58</v>
+        <v>2.648</v>
       </c>
       <c r="N7">
-        <v>0.09359999999999946</v>
+        <v>0.09360000000000035</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1412,7 +1412,7 @@
         <v>0.3334999999999999</v>
       </c>
       <c r="J8">
-        <v>0.2111910000000004</v>
+        <v>0.2111909999999995</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>1.1111</v>
       </c>
       <c r="M8">
-        <v>10.942</v>
+        <v>5.476</v>
       </c>
       <c r="N8">
-        <v>0.04140000000000121</v>
+        <v>0.04140000000000033</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1447,16 +1447,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.752009999999995</v>
+        <v>1.752009999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.07580000000000031</v>
+        <v>0.07580000000000009</v>
       </c>
       <c r="J9">
-        <v>0.510978999999999</v>
+        <v>0.5109789999999998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1485,22 +1485,22 @@
         <v>0.03749999999999999</v>
       </c>
       <c r="E10">
-        <v>0.5953999999999979</v>
+        <v>0.595400000000005</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.829400000000007</v>
+        <v>5.829400000000003</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1824999999999997</v>
+        <v>0.1824999999999999</v>
       </c>
       <c r="J10">
-        <v>0.617020000000001</v>
+        <v>0.6170200000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5754933999999999</v>
+        <v>0.5754934</v>
       </c>
       <c r="E11">
         <v>0.2549999999999955</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.07520000000000038</v>
+        <v>0.07520000000000016</v>
       </c>
       <c r="J11">
         <v>0.5482499999999995</v>
@@ -1573,7 +1573,7 @@
         <v>0.17175</v>
       </c>
       <c r="E12">
-        <v>0.3736000000000104</v>
+        <v>0.3736000000000033</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4294999999999993</v>
+        <v>0.4295</v>
       </c>
       <c r="J12">
-        <v>0.1690149999999999</v>
+        <v>0.1690150000000008</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4079999999999995</v>
+        <v>0.4080000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01510000000000011</v>
+        <v>0.0151</v>
       </c>
       <c r="E13">
         <v>10.37669999999999</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1779700000000002</v>
+        <v>0.1779699999999997</v>
       </c>
       <c r="J13">
         <v>0.6781499999999996</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.1632999999999996</v>
+        <v>0.1632999999999978</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.333160999999999</v>
+        <v>1.333161</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6078000000000001</v>
+        <v>0.6078</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8409999999999995</v>
+        <v>0.8409999999999999</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8640000000000001</v>
+        <v>0.8640000000000003</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8248000000000011</v>
+        <v>0.8248000000000002</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.664200000000001</v>
+        <v>6.6642</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8901,7 +8901,7 @@
         <v>0.225</v>
       </c>
       <c r="E7">
-        <v>0.1430000000000007</v>
+        <v>0.1429999999999971</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1289</v>
+        <v>0.1288999999999998</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2977000000000003</v>
+        <v>0.2976999999999999</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8849999999999993</v>
+        <v>0.8849999999999998</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7645999999999999</v>
+        <v>0.7646000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6454000000000001</v>
+        <v>0.6454</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.315499999999999</v>
+        <v>3.3155</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12222,13 +12222,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.233930000000003</v>
+        <v>6.233930000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>9.879599999999998</v>
+        <v>9.879600000000002</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.511</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>2.239</v>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8649999999999998</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0.6699999999999999</v>
@@ -12655,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.862000000000001</v>
+        <v>1.862</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -12699,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.687</v>
+        <v>5.686999999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.801</v>
+        <v>2.72</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -13328,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.506</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0.7180000000000001</v>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7.882</v>
+        <v>5.377999999999999</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.542999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.035</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\work\Ifo\match_and_merge\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F46090-AFEE-468E-BD81-DF4A871618E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AT" sheetId="1" r:id="rId1"/>
@@ -36,7 +42,18 @@
     <sheet name="SE" sheetId="27" r:id="rId27"/>
     <sheet name="UK" sheetId="28" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +169,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +255,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +307,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -510,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5542</v>
+        <v>0.4012</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -534,7 +595,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -578,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -598,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4707999999999999</v>
+        <v>0.4708</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -622,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -666,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -710,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -724,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.715</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -754,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -798,7 +859,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -818,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.598</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -842,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -862,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.04700000000000015</v>
+        <v>4.7000000000000153E-2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -886,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -906,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4786999999999999</v>
+        <v>0.47869999999999951</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -930,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -974,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -994,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.67</v>
+        <v>1.670000000000001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1018,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -1068,14 +1129,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1133,37 +1196,37 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.83132</v>
+        <v>1.52932</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.176</v>
+        <v>1.0471999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3275</v>
+        <v>0.215</v>
       </c>
       <c r="J2">
-        <v>1.105</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.664</v>
+        <v>1.5509999999999999</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7292000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.41520000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1177,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.45</v>
+        <v>2.007000000000001</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5.8599999999999763E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02499999999999997</v>
+        <v>2.4999999999999991E-2</v>
       </c>
       <c r="J3">
         <v>0.109</v>
@@ -1198,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.7425</v>
+        <v>6.7424999999999997</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5126999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.32650000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1221,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.416189999999999</v>
+        <v>2.4161899999999998</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.1900000000000261E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1236,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1061865</v>
+        <v>9.4848800000000066E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.535</v>
+        <v>1.5349999999999999</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2405000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.2301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -1262,40 +1325,40 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E5">
-        <v>1.681560000000001</v>
+        <v>1.15056</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>10.8207</v>
+        <v>3.6840000000000002</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4954</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="J5">
-        <v>2.2785</v>
+        <v>1.9443999999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.593000000000002</v>
+        <v>2.8940000000000001</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.7014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>2.1848999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -1309,37 +1372,37 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.750599999999997</v>
+        <v>1.6716000000000011</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.0657</v>
+        <v>1.4517</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3210000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="J6">
-        <v>0.9881800000000003</v>
+        <v>0.90217999999999998</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.063499999999998</v>
+        <v>5.9499999999999893E-2</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.3309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.87089999999999979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1353,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.3441</v>
+        <v>9.1931000000000012</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.125</v>
+        <v>0.15840000000000029</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1368,22 +1431,22 @@
         <v>0.1120000000000001</v>
       </c>
       <c r="J7">
-        <v>0.2335000000000003</v>
+        <v>0.23349999999999979</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.571300000000001</v>
+        <v>0.71329999999999849</v>
       </c>
       <c r="M7">
-        <v>2.648</v>
+        <v>2.6480000000000001</v>
       </c>
       <c r="N7">
-        <v>0.09360000000000035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.15940000000000071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -1394,40 +1457,40 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0132</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6.719900000000003</v>
+        <v>3.0778999999999961</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3109999999999999</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3334999999999999</v>
+        <v>7.3999999999999955E-2</v>
       </c>
       <c r="J8">
-        <v>0.2111909999999995</v>
+        <v>0.1356100000000002</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.1111</v>
+        <v>0.64610000000000056</v>
       </c>
       <c r="M8">
         <v>5.476</v>
       </c>
       <c r="N8">
-        <v>0.04140000000000033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>4.1399999999999437E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1438,40 +1501,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03129999999999999</v>
+        <v>3.1299999999999988E-2</v>
       </c>
       <c r="E9">
-        <v>2.9694</v>
+        <v>2.0204000000000022</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.752009999999999</v>
+        <v>0.9992100000000006</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.07580000000000009</v>
+        <v>5.1000000000001036E-3</v>
       </c>
       <c r="J9">
-        <v>0.5109789999999998</v>
+        <v>0.36777899999999958</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.0593</v>
+        <v>0.1593000000000018</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.2144000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -1482,40 +1545,40 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03749999999999999</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="E10">
-        <v>0.595400000000005</v>
+        <v>0.25940000000000302</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.829400000000003</v>
+        <v>4.2391000000000014</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1824999999999999</v>
+        <v>0.1040999999999999</v>
       </c>
       <c r="J10">
-        <v>0.6170200000000001</v>
+        <v>0.59121999999999986</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.372999999999998</v>
+        <v>5.6629999999999976</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>5.2200000000000017E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -1526,40 +1589,40 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5754934</v>
+        <v>0.69139340000000005</v>
       </c>
       <c r="E11">
-        <v>0.2549999999999955</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.745918999999997</v>
+        <v>1.7531589999999979</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.07520000000000016</v>
+        <v>4.4499999999999977E-2</v>
       </c>
       <c r="J11">
-        <v>0.5482499999999995</v>
+        <v>0.43824999999999997</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9672199999999975</v>
+        <v>0.96721999999999753</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3641000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.36410000000000048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1570,40 +1633,40 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.17175</v>
+        <v>0.30574999999999991</v>
       </c>
       <c r="E12">
-        <v>0.3736000000000033</v>
+        <v>5.0599999999995759E-2</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.311000000000003</v>
+        <v>2.9870999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4295</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="J12">
-        <v>0.1690150000000008</v>
+        <v>0.1565150000000006</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.09480000000000643</v>
+        <v>9.4800000000002882E-2</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4080000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.31099999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -1614,40 +1677,40 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0151</v>
+        <v>1.5100000000000341E-2</v>
       </c>
       <c r="E13">
-        <v>10.37669999999999</v>
+        <v>8.5577000000000005</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.165799999999997</v>
+        <v>2.482800000000001</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1779699999999997</v>
+        <v>0.15895999999999999</v>
       </c>
       <c r="J13">
-        <v>0.6781499999999996</v>
+        <v>0.4084500000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.780300000000004</v>
+        <v>1.7203000000000019</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.1632999999999978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.1632999999999987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -1661,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.052</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.743500000000004</v>
+        <v>1.567500000000003</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1676,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.333161</v>
+        <v>1.2944610000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1688,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.01250000000000107</v>
+        <v>1.2500000000000179E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1697,14 +1760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1768,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.417</v>
+        <v>1.5880000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1789,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1836,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1880,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -1924,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -1968,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2003,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.674</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2012,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -2047,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5459999999999998</v>
+        <v>0.54599999999999982</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2056,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -2091,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5110000000000001</v>
+        <v>0.51100000000000012</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2100,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -2120,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.55</v>
+        <v>0.68399999999999972</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2135,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3420000000000001</v>
+        <v>0.34200000000000008</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2144,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -2164,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.023</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2188,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2232,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -2252,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8650000000000002</v>
+        <v>1.302</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2276,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -2326,14 +2389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +2440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -2388,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2397,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2418,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.1896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -2465,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -2506,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6519999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.65199999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -2553,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -2597,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2641,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -2685,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -2705,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4629999999999999</v>
+        <v>0.46299999999999991</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2729,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -2773,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -2793,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.253</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2817,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2837,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.055</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2861,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -2905,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -2955,14 +3018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3006,7 +3069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -3017,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3026,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6078</v>
+        <v>0.65360000000000007</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3041,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3050,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -3094,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -3138,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -3158,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8409999999999999</v>
+        <v>0.84099999999999986</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3182,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -3202,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8640000000000003</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3226,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -3270,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -3314,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -3334,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.02729999999999988</v>
+        <v>2.729999999999988E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3358,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -3378,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4019999999999997</v>
+        <v>0.40200000000000008</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3402,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -3422,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3446,7 +3509,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3466,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.04700000000000015</v>
+        <v>4.7000000000000153E-2</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3490,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -3510,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3534,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -3584,14 +3647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3635,7 +3698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -3646,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.571</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="E2">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6.809</v>
+        <v>12.554399999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3667,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3676,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>9.8230000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -3693,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3150000000000001</v>
+        <v>0.31500000000000011</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7530000000000001</v>
+        <v>0.75300000000000011</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3720,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.3029999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.61299999999999955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -3743,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.079</v>
+        <v>1.0790000000000011</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3767,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -3781,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.593</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3808,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9459999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -3831,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2240000000000002</v>
+        <v>0.57600000000000229</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3852,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3520000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.35200000000000031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -3875,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4000000000000004</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3899,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -3931,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.114</v>
+        <v>0.17</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3943,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -3957,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.954</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1219999999999999</v>
+        <v>0.37199999999999989</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3975,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.07200000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3987,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -4001,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5200000000000005</v>
+        <v>0.52000000000000046</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.618</v>
+        <v>4.4280000000000008</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4019,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.205</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4031,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -4051,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>12.428</v>
+        <v>15.379</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4063,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3089999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4072,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.05700000000000038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>5.7000000000000377E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -4095,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>12.002</v>
+        <v>13.608000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4107,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.01700000000000002</v>
+        <v>5.4000000000000048E-2</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4119,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -4139,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.007999999999996</v>
+        <v>4.3689999999999998</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4163,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -4213,14 +4276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4264,7 +4327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -4308,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -4352,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -4396,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -4440,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -4484,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4528,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -4572,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -4616,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -4660,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -4704,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -4724,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5839999999999999</v>
+        <v>0.58399999999999985</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4748,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -4792,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -4842,14 +4905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +4956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -4913,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.405</v>
+        <v>3.5350000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4937,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -4981,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -5025,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -5069,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -5113,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -5157,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5201,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -5245,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -5289,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -5333,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -5377,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -5421,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -5471,14 +5534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5522,7 +5585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -5542,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5566,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -5610,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -5654,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -5698,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -5742,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -5786,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5830,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -5874,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -5918,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -5962,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -6006,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -6050,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -6100,14 +6163,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6151,7 +6214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -6195,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -6239,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6283,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -6327,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -6371,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -6415,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6459,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6503,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6547,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -6591,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -6635,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -6679,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -6729,14 +6792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6780,7 +6843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -6794,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.632</v>
+        <v>3.363</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.607</v>
+        <v>2.4860000000000002</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6824,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -6868,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6912,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -6932,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.869</v>
+        <v>0.86899999999999977</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6956,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -6970,13 +7033,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6429999999999998</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5739999999999998</v>
+        <v>0.57399999999999984</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7000,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -7044,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -7088,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7102,13 +7165,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.763</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7132,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -7152,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.604</v>
+        <v>4.1829999999999998</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7176,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -7196,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8399999999999999</v>
+        <v>0.83999999999999986</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7220,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7264,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -7278,13 +7341,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.381</v>
+        <v>1.58</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.671999999999999</v>
+        <v>3.9829999999999992</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7308,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -7358,14 +7421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7409,7 +7472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -7420,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.363</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7429,13 +7492,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.0652</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="J2">
         <v>0.01</v>
@@ -7447,13 +7510,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.481</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="N2">
-        <v>0.333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.49640000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -7497,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7541,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -7585,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -7629,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -7667,13 +7730,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.090999999999999</v>
+        <v>4.0909999999999993</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -7717,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7761,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -7781,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.8452999999999999</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7805,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -7825,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7264000000000002</v>
+        <v>0.3763999999999994</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7849,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7869,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.9059999999999997</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7893,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -7913,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8248000000000002</v>
+        <v>1.2298</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7937,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -7987,14 +8050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8038,7 +8101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -8058,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.3635</v>
+        <v>2.2974999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8082,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8126,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8170,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -8214,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -8258,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -8302,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -8346,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -8390,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -8434,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -8478,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -8522,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -8566,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -8616,14 +8679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8667,7 +8730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -8681,13 +8744,13 @@
         <v>0.1116</v>
       </c>
       <c r="E2">
-        <v>2.1298</v>
+        <v>2.1297999999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.2412</v>
+        <v>1.4112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8702,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -8711,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8725,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.4622</v>
+        <v>1.4621999999999999</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -8755,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8799,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -8813,13 +8876,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.6642</v>
+        <v>6.6642000000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>7.6999999999999957E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8843,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -8857,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.643000000000001</v>
+        <v>5.6430000000000007</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8887,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -8898,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E7">
         <v>0.1429999999999971</v>
@@ -8922,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.472</v>
+        <v>5.4720000000000004</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -8931,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -8975,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -9019,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -9033,13 +9096,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1890000000000001</v>
+        <v>0.18900000000000011</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1288999999999998</v>
+        <v>0.12889999999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9063,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -9077,13 +9140,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3810000000000002</v>
+        <v>0.38100000000000023</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3560000000000001</v>
+        <v>0.41799999999999993</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9107,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -9118,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.0000000000000011E-2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9151,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -9195,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -9215,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4850000000000001</v>
+        <v>0.48499999999999988</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9236,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.0149999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9245,14 +9308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9296,7 +9359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -9316,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.826</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9340,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -9384,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -9428,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -9472,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -9516,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -9560,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -9604,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -9615,10 +9678,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
-        <v>0.5760000000000001</v>
+        <v>0.57600000000000007</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9648,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -9659,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.8999999999999989E-2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -9692,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -9703,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2329</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -9712,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.176</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9736,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -9747,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9756,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8260000000000001</v>
+        <v>1.6519999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9768,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -9780,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -9824,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -9874,14 +9937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9925,7 +9988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -9945,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.299</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9960,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6597000000000001</v>
+        <v>0.65970000000000006</v>
       </c>
       <c r="M2">
         <v>1.3545</v>
@@ -9969,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -10013,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10057,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -10071,13 +10134,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2976999999999999</v>
+        <v>0.29769999999999991</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10101,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -10136,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.154</v>
+        <v>3.1539999999999999</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -10145,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -10189,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -10224,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8570000000000002</v>
+        <v>0.85700000000000021</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -10233,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -10277,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -10321,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -10365,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -10385,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.21999999999999981</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -10409,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -10429,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8849999999999998</v>
+        <v>1.745000000000001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -10453,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -10503,14 +10566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10554,7 +10617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -10574,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -10598,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -10642,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10686,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -10730,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -10774,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -10818,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -10862,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -10906,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -10926,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10944,13 +11007,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -10994,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -11014,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4196</v>
+        <v>0.41959999999999997</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11038,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -11082,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -11132,14 +11195,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11183,7 +11246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -11203,13 +11266,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.297</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -11218,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -11227,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -11271,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -11306,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.343</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -11315,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -11341,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -11350,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.092</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -11359,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -11403,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -11438,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05000000000000004</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -11447,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -11491,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -11535,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -11561,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.228</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -11579,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -11623,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -11667,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -11702,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -11711,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -11761,14 +11824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11812,7 +11875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -11823,16 +11886,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E2">
-        <v>0.093</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7646000000000001</v>
+        <v>1.1625319999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11853,10 +11916,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -11900,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -11914,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6454</v>
+        <v>0.64539999999999997</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11941,10 +12004,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.53727999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -11958,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.0672</v>
+        <v>1.0671999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11985,10 +12048,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.89701999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -12002,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.3155</v>
+        <v>3.3155000000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12029,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.15394000000000019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -12046,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.0829</v>
+        <v>4.0829000000000004</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12076,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -12114,13 +12177,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.040399999999999</v>
+        <v>3.0403999999999991</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.93954000000000026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -12134,13 +12197,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08399999999999963</v>
+        <v>8.3999999999999631E-2</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>8.0500000000000016E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12161,10 +12224,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.23602999999999949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -12178,13 +12241,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6533470000000001</v>
+        <v>0.65334700000000012</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6.086999999999998E-2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12205,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.63380100000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -12222,13 +12285,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.233930000000001</v>
+        <v>6.2339300000000009</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>9.879600000000002</v>
+        <v>13.189496</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12249,10 +12312,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.12681000000000031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -12266,13 +12329,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.819456</v>
+        <v>10.819456000000001</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>11.4019</v>
+        <v>20.519559999999998</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12293,10 +12356,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.81646000000000019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -12310,13 +12373,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4336300000000008</v>
+        <v>0.43363000000000079</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.389300000000002</v>
+        <v>4.3330500000000072</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12337,10 +12400,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.30978999999999962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -12390,14 +12453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12441,7 +12504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -12452,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.106</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="E2">
         <v>0.13</v>
@@ -12461,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.26</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -12482,10 +12545,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -12529,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -12540,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.9999999999999959E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -12570,10 +12633,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2600000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -12614,10 +12677,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6699999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -12637,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12655,13 +12718,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.862</v>
+        <v>1.8620000000000001</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -12699,13 +12762,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.686999999999999</v>
+        <v>5.6869999999999994</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -12749,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -12793,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -12804,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3.8700000000000012E-2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -12837,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -12881,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -12901,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.698</v>
+        <v>0.25</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12925,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -12969,7 +13032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -13019,14 +13082,14 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13070,7 +13133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -13081,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>1.6837</v>
       </c>
       <c r="E2">
         <v>4.383</v>
@@ -13090,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.378</v>
+        <v>6.2063000000000006</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13111,10 +13174,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.4234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -13158,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -13199,10 +13262,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -13213,10 +13276,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.935</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="E5">
-        <v>3.949999999999999</v>
+        <v>3.9499999999999988</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13243,10 +13306,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.7270000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -13266,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1439999999999997</v>
+        <v>0.14399999999999921</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13290,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -13331,10 +13394,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7180000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -13348,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.935</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13372,13 +13435,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.377999999999999</v>
+        <v>5.3779999999999992</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -13398,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>6.629</v>
+        <v>6.6289999999999987</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -13422,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -13442,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>9.213999999999999</v>
+        <v>9.2140000000000022</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -13466,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -13486,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>6.892000000000003</v>
+        <v>6.8919999999999986</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -13510,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -13530,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.097999999999999</v>
+        <v>4.0980000000000034</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -13551,10 +13614,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.0169999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.6999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -13574,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.492999999999999</v>
+        <v>5.4930000000000021</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -13598,7 +13661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -13618,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9100000000000037</v>
+        <v>0.90999999999999659</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13648,14 +13711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13699,7 +13762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -13719,7 +13782,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13734,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.213</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -13743,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -13787,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -13822,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.604</v>
+        <v>1.6040000000000001</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -13831,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -13866,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -13875,7 +13938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -13919,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -13963,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -14007,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -14051,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -14095,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -14139,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -14153,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1320000000000001</v>
+        <v>0.13200000000000009</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -14183,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -14227,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -14277,14 +14340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14328,7 +14391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -14348,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.112</v>
+        <v>0.36580000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14369,10 +14432,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -14416,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -14460,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -14504,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -14548,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -14592,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -14636,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -14680,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -14724,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -14768,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -14812,7 +14875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -14856,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -14906,14 +14969,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14957,7 +15020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -14971,13 +15034,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.847</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -15001,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -15045,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -15080,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9299999999999997</v>
+        <v>0.92999999999999972</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -15089,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -15133,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -15168,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7679999999999998</v>
+        <v>0.76799999999999979</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -15177,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -15221,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -15265,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -15285,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.37000000000000011</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15309,7 +15372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -15323,13 +15386,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1489999999999999</v>
+        <v>0.14899999999999991</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1099999999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15353,7 +15416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -15397,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -15441,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -15485,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -15520,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5970000000000004</v>
+        <v>0.59700000000000042</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -15535,14 +15598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15586,7 +15649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -15606,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1082</v>
+        <v>0.20619999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -15618,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -15627,10 +15690,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -15674,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -15718,7 +15781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -15759,10 +15822,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.51999999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -15776,7 +15839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4049999999999999</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15806,7 +15869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -15820,13 +15883,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.091</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15850,7 +15913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -15864,13 +15927,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2650000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15894,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -15938,7 +16001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -15952,13 +16015,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3920000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15982,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -16026,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -16070,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -16114,7 +16177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -16164,14 +16227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16215,7 +16278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -16235,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16259,7 +16322,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -16300,10 +16363,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -16347,7 +16410,7 @@
         <v>1.369</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -16391,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -16435,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -16479,7 +16542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -16523,7 +16586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -16567,7 +16630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -16611,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -16655,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -16699,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -16743,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -16793,14 +16856,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16844,7 +16907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -16855,16 +16918,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.92</v>
+        <v>2.8794400000000002</v>
       </c>
       <c r="E2">
-        <v>1.399</v>
+        <v>1.6040000000000001</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.39</v>
+        <v>1.4944</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16885,10 +16948,10 @@
         <v>1.6</v>
       </c>
       <c r="N2">
-        <v>0.759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.6818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -16932,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -16976,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -16990,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.043</v>
+        <v>0.44999999999999968</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17020,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -17034,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2399999999999998</v>
+        <v>0.24000000000000021</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17058,13 +17121,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.376</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -17078,13 +17141,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1550000000000002</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.354</v>
+        <v>0.35399999999999993</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17102,13 +17165,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.376</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -17152,7 +17215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -17166,13 +17229,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5649999999999999</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.48</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17196,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -17240,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -17284,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -17328,7 +17391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -17372,7 +17435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -17422,14 +17485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17473,7 +17536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -17484,16 +17547,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.15</v>
+        <v>0.94259999999999999</v>
       </c>
       <c r="E2">
-        <v>1.16</v>
+        <v>1.74</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.901</v>
+        <v>3.5089999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -17505,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -17514,10 +17577,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>6.4089999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -17561,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -17581,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17605,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -17649,7 +17712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -17693,7 +17756,7 @@
         <v>0.1699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -17707,13 +17770,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.96</v>
+        <v>2.38</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.413</v>
+        <v>0.41300000000000031</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17737,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -17775,13 +17838,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.67</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -17819,13 +17882,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.549999999999997</v>
+        <v>6.5499999999999972</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -17866,10 +17929,10 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <v>0.1340000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.13400000000000031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -17889,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7959999999999998</v>
+        <v>0.79599999999999937</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -17913,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -17957,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -18001,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -18021,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.585</v>
+        <v>0.58500000000000085</v>
       </c>
       <c r="H14">
         <v>0</v>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamd\work\Ifo\match_and_merge\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F46090-AFEE-468E-BD81-DF4A871618E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="AT" sheetId="1" r:id="rId1"/>
@@ -42,18 +36,7 @@
     <sheet name="SE" sheetId="27" r:id="rId27"/>
     <sheet name="UK" sheetId="28" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -105,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,14 +152,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,27 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,24 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,14 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -595,7 +534,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -639,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -683,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -727,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -771,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -785,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.71499999999999997</v>
+        <v>0.715</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -815,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -859,7 +798,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -879,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.5980000000000001</v>
+        <v>1.598</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -903,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -923,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.7000000000000153E-2</v>
+        <v>0.04700000000000015</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -947,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -967,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.47869999999999951</v>
+        <v>0.4786999999999995</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.39500000000000002</v>
+        <v>0.395</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -991,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1035,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -1079,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -1129,16 +1068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1202,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.0471999999999999</v>
+        <v>1.0472</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1211,22 +1148,22 @@
         <v>0.215</v>
       </c>
       <c r="J2">
-        <v>0.48270000000000002</v>
+        <v>0.4827</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.5509999999999999</v>
+        <v>1.551</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.41520000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.4152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1246,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5.8599999999999763E-2</v>
+        <v>0.05859999999999976</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.4999999999999991E-2</v>
+        <v>0.02499999999999999</v>
       </c>
       <c r="J3">
         <v>0.109</v>
@@ -1261,16 +1198,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.7424999999999997</v>
+        <v>6.7425</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.32650000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.3265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1284,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.4161899999999998</v>
+        <v>2.416189999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.1900000000000261E-2</v>
+        <v>0.03189999999999982</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1299,13 +1236,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.4848800000000066E-2</v>
+        <v>0.09484880000000007</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.5349999999999999</v>
+        <v>1.535</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1314,7 +1251,7 @@
         <v>0.2301</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -1325,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="E5">
         <v>1.15056</v>
@@ -1334,31 +1271,31 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.6840000000000002</v>
+        <v>3.684</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.25700000000000001</v>
+        <v>0.257</v>
       </c>
       <c r="J5">
-        <v>1.9443999999999999</v>
+        <v>1.9444</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.8940000000000001</v>
+        <v>2.894</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.1848999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.1849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -1372,37 +1309,37 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.6716000000000011</v>
+        <v>1.671600000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.4517</v>
+        <v>1.451700000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.32100000000000001</v>
+        <v>0.321</v>
       </c>
       <c r="J6">
-        <v>0.90217999999999998</v>
+        <v>0.90218</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.9499999999999893E-2</v>
+        <v>0.05949999999999989</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.87089999999999979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.8709000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1416,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.1931000000000012</v>
+        <v>9.193099999999998</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.15840000000000029</v>
+        <v>0.1583999999999994</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1431,22 +1368,22 @@
         <v>0.1120000000000001</v>
       </c>
       <c r="J7">
-        <v>0.23349999999999979</v>
+        <v>0.2334999999999998</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.71329999999999849</v>
+        <v>0.7132999999999985</v>
       </c>
       <c r="M7">
-        <v>2.6480000000000001</v>
+        <v>2.648</v>
       </c>
       <c r="N7">
-        <v>0.15940000000000071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.1594000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -1460,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.0778999999999961</v>
+        <v>3.077900000000007</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1472,25 +1409,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.3999999999999955E-2</v>
+        <v>0.07399999999999995</v>
       </c>
       <c r="J8">
-        <v>0.1356100000000002</v>
+        <v>0.1356099999999998</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.64610000000000056</v>
+        <v>0.6461000000000006</v>
       </c>
       <c r="M8">
         <v>5.476</v>
       </c>
       <c r="N8">
-        <v>4.1399999999999437E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.04140000000000033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1501,40 +1438,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.1299999999999988E-2</v>
+        <v>0.03129999999999999</v>
       </c>
       <c r="E9">
-        <v>2.0204000000000022</v>
+        <v>2.020400000000006</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9992100000000006</v>
+        <v>0.9992099999999997</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.1000000000001036E-3</v>
+        <v>0.005100000000000104</v>
       </c>
       <c r="J9">
-        <v>0.36777899999999958</v>
+        <v>0.3677790000000001</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1593000000000018</v>
+        <v>0.1593</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.2144000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.2143999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -1545,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.6400000000000005E-2</v>
+        <v>0.08640000000000003</v>
       </c>
       <c r="E10">
-        <v>0.25940000000000302</v>
+        <v>0.259400000000003</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.2391000000000014</v>
+        <v>4.239100000000003</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1563,22 +1500,22 @@
         <v>0.1040999999999999</v>
       </c>
       <c r="J10">
-        <v>0.59121999999999986</v>
+        <v>0.591219999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.6629999999999976</v>
+        <v>5.662999999999997</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.2200000000000017E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.05220000000000091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -1589,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.69139340000000005</v>
+        <v>0.6913933999999999</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1598,31 +1535,31 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.7531589999999979</v>
+        <v>1.753159</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.4499999999999977E-2</v>
+        <v>0.04449999999999998</v>
       </c>
       <c r="J11">
-        <v>0.43824999999999997</v>
+        <v>0.4382500000000009</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.96721999999999753</v>
+        <v>0.9672200000000011</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.36410000000000048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.3640999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1633,22 +1570,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.30574999999999991</v>
+        <v>0.3057499999999999</v>
       </c>
       <c r="E12">
-        <v>5.0599999999995759E-2</v>
+        <v>0.05059999999999576</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.9870999999999999</v>
+        <v>2.987100000000003</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.40000000000000008</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="J12">
         <v>0.1565150000000006</v>
@@ -1657,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.4800000000002882E-2</v>
+        <v>0.09479999999999933</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.31099999999999989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.3110000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -1677,31 +1614,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.5100000000000341E-2</v>
+        <v>0.01510000000000011</v>
       </c>
       <c r="E13">
-        <v>8.5577000000000005</v>
+        <v>8.557699999999997</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.482800000000001</v>
+        <v>2.482799999999994</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.15895999999999999</v>
+        <v>0.1589599999999998</v>
       </c>
       <c r="J13">
-        <v>0.4084500000000002</v>
+        <v>0.4084499999999984</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.7203000000000019</v>
+        <v>1.720300000000002</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1710,7 +1647,7 @@
         <v>0.1632999999999987</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -1739,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.2944610000000001</v>
+        <v>1.294461000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1751,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.2500000000000179E-2</v>
+        <v>0.01250000000000018</v>
       </c>
     </row>
   </sheetData>
@@ -1760,14 +1697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1831,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.5880000000000001</v>
+        <v>1.588</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1855,7 +1792,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1899,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1943,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -1987,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -2031,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2066,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.6739999999999999</v>
+        <v>1.674</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2075,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -2110,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.54599999999999982</v>
+        <v>0.5459999999999998</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2119,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -2154,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.51100000000000012</v>
+        <v>0.5110000000000001</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2163,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -2183,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.68399999999999972</v>
+        <v>0.6839999999999997</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2198,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.34200000000000008</v>
+        <v>0.3420000000000001</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2207,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -2227,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.0229999999999999</v>
+        <v>1.023</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2251,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2295,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -2339,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -2389,14 +2326,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2440,7 +2377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -2451,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.13700000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2460,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.17799999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2484,7 +2421,7 @@
         <v>1.1896</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -2528,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -2569,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.65199999999999991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.6519999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -2616,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -2660,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2704,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -2748,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -2768,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.46299999999999991</v>
+        <v>0.4629999999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2792,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -2836,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -2856,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.2529999999999999</v>
+        <v>1.253</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2880,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2900,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.0549999999999999</v>
+        <v>1.055</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2924,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -2968,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -3018,14 +2955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -3080,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3089,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.65360000000000007</v>
+        <v>0.6536000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3104,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.96199999999999997</v>
+        <v>0.962</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3113,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -3157,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -3201,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -3221,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.84099999999999986</v>
+        <v>0.8409999999999996</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3245,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -3265,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8640000000000001</v>
+        <v>0.8640000000000003</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3289,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -3333,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -3377,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -3397,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.729999999999988E-2</v>
+        <v>0.02729999999999944</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3421,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -3441,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.40200000000000008</v>
+        <v>0.4020000000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3465,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -3485,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.30599999999999999</v>
+        <v>0.306</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3509,7 +3446,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3529,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.7000000000000153E-2</v>
+        <v>0.0470000000000006</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3553,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -3573,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.42699999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3597,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -3647,14 +3584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +3635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -3709,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.57099999999999995</v>
+        <v>0.571</v>
       </c>
       <c r="E2">
-        <v>0.14299999999999999</v>
+        <v>0.143</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>12.554399999999999</v>
+        <v>12.5544</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3730,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3739,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>9.8230000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>9.823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -3756,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.31500000000000011</v>
+        <v>0.3150000000000001</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.75300000000000011</v>
+        <v>0.7530000000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3783,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.61299999999999955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.6129999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -3806,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.0790000000000011</v>
+        <v>1.079000000000001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3830,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -3844,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.59299999999999997</v>
+        <v>0.593</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3874,7 +3811,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -3894,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.57600000000000229</v>
+        <v>0.5760000000000023</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3915,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.35200000000000031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.3520000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -3938,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.39999999999999858</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3962,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -4006,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -4020,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.9540000000000002</v>
+        <v>2.954</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.37199999999999989</v>
+        <v>0.3719999999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4050,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -4064,13 +4001,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.52000000000000046</v>
+        <v>0.5200000000000005</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.4280000000000008</v>
+        <v>4.428000000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4082,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4094,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -4126,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.57299999999999995</v>
+        <v>0.573</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4135,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.7000000000000377E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.05700000000000038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -4158,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>13.608000000000001</v>
+        <v>13.608</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4170,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.4000000000000048E-2</v>
+        <v>0.05400000000000005</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4182,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -4202,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.3689999999999998</v>
+        <v>4.369</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4226,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -4276,14 +4213,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4327,7 +4264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -4371,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -4415,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -4459,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -4503,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -4547,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -4591,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -4635,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -4679,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -4723,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -4767,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -4787,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.58399999999999985</v>
+        <v>0.5839999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4811,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -4855,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -4905,14 +4842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4956,7 +4893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -4976,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.5350000000000001</v>
+        <v>3.535</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5000,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -5044,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -5088,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -5132,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -5176,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -5220,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5264,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -5308,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -5352,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -5396,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -5440,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -5484,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -5534,14 +5471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5585,7 +5522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -5605,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.38500000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5629,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -5673,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -5717,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -5761,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -5805,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -5849,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5893,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -5937,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -5981,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -6025,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -6069,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -6113,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -6163,14 +6100,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6214,7 +6151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -6258,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -6302,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6346,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -6390,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -6434,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -6478,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6522,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6566,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6610,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -6654,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -6698,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -6742,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -6792,14 +6729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6843,7 +6780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -6863,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.4860000000000002</v>
+        <v>2.486</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6887,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -6931,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6975,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -6995,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.86899999999999977</v>
+        <v>0.8689999999999998</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7019,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -7039,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.57399999999999984</v>
+        <v>0.5739999999999998</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7063,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -7107,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -7151,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7171,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.7629999999999999</v>
+        <v>1.763</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7195,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -7215,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.1829999999999998</v>
+        <v>4.183</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7239,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -7259,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.83999999999999986</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7283,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7327,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -7347,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.9829999999999992</v>
+        <v>3.982999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7371,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -7421,14 +7358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7472,7 +7409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -7483,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.36299999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7492,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.0230000000000001</v>
+        <v>3.023</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.27600000000000002</v>
+        <v>0.276</v>
       </c>
       <c r="J2">
         <v>0.01</v>
@@ -7510,13 +7447,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.48099999999999998</v>
+        <v>0.481</v>
       </c>
       <c r="N2">
-        <v>0.49640000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.4964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -7560,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7604,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -7648,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -7692,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -7730,13 +7667,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.0909999999999993</v>
+        <v>4.090999999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -7780,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7824,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -7844,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.1719999999999999</v>
+        <v>1.172</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7868,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -7912,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7932,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.36699999999999999</v>
+        <v>0.367</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7956,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -8000,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -8050,14 +7987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8101,7 +8038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -8121,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.2974999999999999</v>
+        <v>2.2975</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8145,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8189,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8233,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -8277,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -8321,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -8365,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -8409,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -8453,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -8497,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -8541,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -8585,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -8629,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -8679,14 +8616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8730,7 +8667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -8744,7 +8681,7 @@
         <v>0.1116</v>
       </c>
       <c r="E2">
-        <v>2.1297999999999999</v>
+        <v>2.1298</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -8765,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.24099999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -8774,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8788,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.4621999999999999</v>
+        <v>1.4622</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -8818,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8862,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -8876,13 +8813,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.6642000000000001</v>
+        <v>6.664200000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>7.6999999999999957E-2</v>
+        <v>0.07699999999999996</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8906,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -8920,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.6430000000000007</v>
+        <v>5.643000000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8950,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -8961,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.22500000000000001</v>
+        <v>0.225</v>
       </c>
       <c r="E7">
         <v>0.1429999999999971</v>
@@ -8985,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.4720000000000004</v>
+        <v>5.472</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -8994,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -9038,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -9052,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.900600000000001</v>
+        <v>1.900600000000008</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9082,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -9096,13 +9033,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.18900000000000011</v>
+        <v>0.1890000000000001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.12889999999999999</v>
+        <v>0.1289000000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9126,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -9140,13 +9077,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.38100000000000023</v>
+        <v>0.3810000000000002</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.41799999999999993</v>
+        <v>0.4179999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9170,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -9181,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.0000000000000011E-2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9214,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -9258,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -9278,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.48499999999999988</v>
+        <v>0.4849999999999999</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9299,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.0149999999999999</v>
+        <v>1.015</v>
       </c>
     </row>
   </sheetData>
@@ -9308,14 +9245,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9359,7 +9296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -9379,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.8260000000000001</v>
+        <v>1.826</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9403,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -9447,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -9491,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -9535,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -9579,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -9623,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -9667,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -9681,7 +9618,7 @@
         <v>0.03</v>
       </c>
       <c r="E9">
-        <v>0.57600000000000007</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9711,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -9722,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.8999999999999989E-2</v>
+        <v>0.01899999999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -9755,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -9775,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.1759999999999999</v>
+        <v>1.176</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9799,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -9810,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.10100000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9819,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.6519999999999999</v>
+        <v>1.652</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9831,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -9843,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -9887,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -9937,14 +9874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9988,7 +9925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -10008,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.2989999999999999</v>
+        <v>1.299</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -10023,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.65970000000000006</v>
+        <v>0.6597000000000001</v>
       </c>
       <c r="M2">
         <v>1.3545</v>
@@ -10032,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -10076,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10120,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -10134,13 +10071,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.99999999999999989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.29769999999999991</v>
+        <v>0.2977000000000003</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10164,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -10199,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.1539999999999999</v>
+        <v>3.154</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -10208,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -10252,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -10287,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.85700000000000021</v>
+        <v>0.8570000000000002</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -10296,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -10340,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -10384,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -10428,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -10448,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.21999999999999981</v>
+        <v>0.2199999999999998</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -10472,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -10492,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.745000000000001</v>
+        <v>1.745</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -10516,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -10566,14 +10503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10617,7 +10554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -10637,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.29799999999999999</v>
+        <v>0.298</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -10661,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -10705,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10749,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -10793,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -10837,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -10881,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -10925,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -10969,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -11007,13 +10944,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -11057,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -11077,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.41959999999999997</v>
+        <v>0.4196</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11101,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -11145,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -11195,14 +11132,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11246,7 +11183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -11272,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -11290,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -11334,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -11378,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -11422,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -11466,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -11501,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.9999999999999989E-2</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -11510,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -11554,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -11598,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -11642,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -11686,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -11730,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -11765,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -11774,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -11824,14 +11761,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11875,7 +11812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -11889,13 +11826,13 @@
         <v>0.02</v>
       </c>
       <c r="E2">
-        <v>9.2999999999999999E-2</v>
+        <v>0.093</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.1625319999999999</v>
+        <v>1.162532</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11916,10 +11853,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -11963,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -11977,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.64539999999999997</v>
+        <v>0.6454000000000001</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -12004,10 +11941,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.53727999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.53728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -12021,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.0671999999999999</v>
+        <v>1.0672</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12048,10 +11985,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.89701999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.8970199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -12065,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.3155000000000001</v>
+        <v>3.315499999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12092,10 +12029,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.15394000000000019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.1539400000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -12109,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.0829000000000004</v>
+        <v>4.082900000000001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12139,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -12177,13 +12114,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.0403999999999991</v>
+        <v>3.0404</v>
       </c>
       <c r="N8">
-        <v>0.93954000000000026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.9395399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -12197,13 +12134,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.3999999999999631E-2</v>
+        <v>0.08399999999999963</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>8.0500000000000016E-2</v>
+        <v>0.08050000000000002</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12224,10 +12161,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.23602999999999949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.2360299999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -12241,13 +12178,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.65334700000000012</v>
+        <v>0.6533470000000001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>6.086999999999998E-2</v>
+        <v>0.0608700000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12268,10 +12205,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.63380100000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.6338010000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -12285,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.2339300000000009</v>
+        <v>6.233930000000004</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12312,10 +12249,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.12681000000000031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.1268100000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -12329,13 +12266,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.819456000000001</v>
+        <v>10.819456</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>20.519559999999998</v>
+        <v>20.51955999999998</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12356,10 +12293,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.81646000000000019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.8164599999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -12373,13 +12310,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.43363000000000079</v>
+        <v>0.4336300000000008</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.3330500000000072</v>
+        <v>4.333050000000007</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12400,10 +12337,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.30978999999999962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.3097899999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -12453,14 +12390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12504,7 +12441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -12515,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.40500000000000003</v>
+        <v>0.405</v>
       </c>
       <c r="E2">
         <v>0.13</v>
@@ -12524,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -12548,7 +12485,7 @@
         <v>1.569</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -12592,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -12603,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.9999999999999959E-2</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -12636,7 +12573,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -12680,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -12700,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.63900000000000001</v>
+        <v>0.639</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12718,13 +12655,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.8620000000000001</v>
+        <v>1.862</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -12762,13 +12699,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.6869999999999994</v>
+        <v>5.686999999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -12812,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -12856,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -12867,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.8700000000000012E-2</v>
+        <v>0.03870000000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -12900,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -12944,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -12988,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -13032,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -13082,14 +13019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13133,7 +13070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -13153,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6.2063000000000006</v>
+        <v>6.206300000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13177,7 +13114,7 @@
         <v>0.4234</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -13221,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -13262,10 +13199,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.09999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -13276,10 +13213,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.9350000000000001</v>
+        <v>1.934999999999998</v>
       </c>
       <c r="E5">
-        <v>3.9499999999999988</v>
+        <v>3.949999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13309,7 +13246,7 @@
         <v>0.7270000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -13329,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.14399999999999921</v>
+        <v>0.1439999999999992</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13353,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -13394,10 +13331,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.71799999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -13411,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.9350000000000001</v>
+        <v>1.935</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13435,13 +13372,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.3779999999999992</v>
+        <v>5.377999999999999</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -13461,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>6.6289999999999987</v>
+        <v>6.628999999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -13485,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -13505,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>9.2140000000000022</v>
+        <v>9.214000000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -13529,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -13549,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>6.8919999999999986</v>
+        <v>6.891999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -13573,7 +13510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -13593,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.0980000000000034</v>
+        <v>4.098000000000003</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -13614,10 +13551,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.6999999999999901E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.0169999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -13637,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.4930000000000021</v>
+        <v>5.493000000000002</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -13661,7 +13598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -13681,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.90999999999999659</v>
+        <v>0.9099999999999966</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13711,14 +13648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13762,7 +13699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -13782,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.36199999999999999</v>
+        <v>0.362</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13797,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.2130000000000001</v>
+        <v>1.213</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -13806,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -13850,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -13885,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.6040000000000001</v>
+        <v>1.604</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -13894,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -13929,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -13938,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -13982,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -14026,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -14070,7 +14007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -14114,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -14158,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -14202,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -14216,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.13200000000000009</v>
+        <v>0.1320000000000001</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -14246,7 +14183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -14290,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -14340,14 +14277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14391,7 +14328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -14411,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.36580000000000001</v>
+        <v>0.3658</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14435,7 +14372,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -14479,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -14523,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -14567,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -14611,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -14655,7 +14592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -14699,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -14743,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -14787,7 +14724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -14831,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -14875,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -14919,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -14969,14 +14906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15020,7 +14957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -15034,13 +14971,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.17399999999999999</v>
+        <v>0.174</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.84699999999999998</v>
+        <v>0.847</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -15064,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -15108,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -15143,7 +15080,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.92999999999999972</v>
+        <v>0.9299999999999997</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -15152,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -15196,7 +15133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -15231,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.76799999999999979</v>
+        <v>0.7679999999999998</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -15240,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -15284,7 +15221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -15328,7 +15265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -15348,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.37000000000000011</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15372,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -15386,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.14899999999999991</v>
+        <v>0.1489999999999999</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15416,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -15460,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -15504,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -15548,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -15583,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.59700000000000042</v>
+        <v>0.5970000000000004</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -15598,14 +15535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15649,7 +15586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -15669,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.20619999999999999</v>
+        <v>0.2062</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -15681,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -15690,10 +15627,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.66400000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -15737,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -15781,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -15822,10 +15759,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.51999999999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.5199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -15869,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -15889,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>8.1000000000000016E-2</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15913,7 +15850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -15927,7 +15864,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.26500000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -15957,7 +15894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -16001,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -16015,13 +15952,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -16045,7 +15982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -16089,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -16133,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -16177,7 +16114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -16227,14 +16164,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16278,7 +16215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -16298,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.42299999999999999</v>
+        <v>0.423</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16322,7 +16259,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -16363,10 +16300,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.61199999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -16410,7 +16347,7 @@
         <v>1.369</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -16454,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -16498,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -16542,7 +16479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -16586,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -16630,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -16674,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -16718,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -16762,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -16806,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -16856,14 +16793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16907,7 +16844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -16918,10 +16855,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.8794400000000002</v>
+        <v>2.87944</v>
       </c>
       <c r="E2">
-        <v>1.6040000000000001</v>
+        <v>1.604</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16951,7 +16888,7 @@
         <v>1.6818</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -16995,7 +16932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -17039,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -17053,7 +16990,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.44999999999999968</v>
+        <v>0.4499999999999997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17083,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -17097,7 +17034,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.24000000000000021</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17121,13 +17058,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.3759999999999999</v>
+        <v>1.376</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -17147,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.35399999999999993</v>
+        <v>0.3540000000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17165,13 +17102,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.3759999999999999</v>
+        <v>1.376</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -17215,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -17235,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4800000000000002</v>
+        <v>0.4799999999999998</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17259,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -17303,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -17347,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -17391,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -17435,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -17485,14 +17422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17536,7 +17473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -17547,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.94259999999999999</v>
+        <v>0.9426000000000001</v>
       </c>
       <c r="E2">
         <v>1.74</v>
@@ -17556,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.5089999999999999</v>
+        <v>3.509</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -17568,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.4999999999999997E-3</v>
+        <v>0.0045</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -17577,10 +17514,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.4089999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>6.409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -17624,7 +17561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -17644,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.42699999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17668,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -17712,7 +17649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -17756,7 +17693,7 @@
         <v>0.1699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -17776,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.41300000000000031</v>
+        <v>0.4130000000000003</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17800,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -17838,13 +17775,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.670000000000002</v>
+        <v>17.67</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -17882,13 +17819,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.5499999999999972</v>
+        <v>6.549999999999997</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -17929,10 +17866,10 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <v>0.13400000000000031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.1340000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -17952,7 +17889,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.79599999999999937</v>
+        <v>0.7959999999999994</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -17976,7 +17913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -18020,7 +17957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -18064,7 +18001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -18084,7 +18021,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.58500000000000085</v>
+        <v>0.5850000000000009</v>
       </c>
       <c r="H14">
         <v>0</v>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4786999999999995</v>
+        <v>0.08369999999999989</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.925</v>
+        <v>0.8650000000000002</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.670000000000001</v>
+        <v>1.67</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.52932</v>
+        <v>1.40032</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.0472</v>
+        <v>0.916</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0.215</v>
       </c>
       <c r="J2">
-        <v>0.4827</v>
+        <v>0.4705</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.551</v>
+        <v>1.293</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.007000000000001</v>
+        <v>1.855</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.05859999999999976</v>
+        <v>0.05859999999999999</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.7425</v>
+        <v>4.0345</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.416189999999999</v>
+        <v>2.092189999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.03189999999999982</v>
+        <v>0.02900000000000003</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1236,13 +1236,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09484880000000007</v>
+        <v>0.06584880000000004</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.535</v>
+        <v>1.214</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.684</v>
+        <v>0.9159999999999999</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1280,19 +1280,19 @@
         <v>0.257</v>
       </c>
       <c r="J5">
-        <v>1.9444</v>
+        <v>1.4794</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.894</v>
+        <v>2.231000000000001</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.1849</v>
+        <v>1.9509</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.451700000000001</v>
+        <v>1.4517</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0.321</v>
       </c>
       <c r="J6">
-        <v>0.90218</v>
+        <v>0.9021800000000004</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8709000000000002</v>
+        <v>0.8708999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.193099999999998</v>
+        <v>8.402099999999997</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1583999999999994</v>
+        <v>0.1583999999999999</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>2.648</v>
       </c>
       <c r="N7">
-        <v>0.1594000000000007</v>
+        <v>0.1593999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9992099999999997</v>
+        <v>0.9992100000000002</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0.005100000000000104</v>
       </c>
       <c r="J9">
-        <v>0.3677790000000001</v>
+        <v>0.3677790000000005</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.2143999999999995</v>
+        <v>0.2144000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1485,13 +1485,13 @@
         <v>0.08640000000000003</v>
       </c>
       <c r="E10">
-        <v>0.259400000000003</v>
+        <v>0.07490000000000308</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.239100000000003</v>
+        <v>3.728400000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0.1040999999999999</v>
       </c>
       <c r="J10">
-        <v>0.591219999999999</v>
+        <v>0.5912199999999994</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.662999999999997</v>
+        <v>2.148999999999999</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.05220000000000091</v>
+        <v>0.05220000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1535,28 +1535,28 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.753159</v>
+        <v>1.633159000000001</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.04449999999999998</v>
+        <v>0.07520000000000016</v>
       </c>
       <c r="J11">
-        <v>0.4382500000000009</v>
+        <v>0.4308099999999984</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9672200000000011</v>
+        <v>0.9672199999999993</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3640999999999996</v>
+        <v>0.3641000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1573,19 +1573,19 @@
         <v>0.3057499999999999</v>
       </c>
       <c r="E12">
-        <v>0.05059999999999576</v>
+        <v>0.05059999999999931</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.987100000000003</v>
+        <v>2.9871</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="J12">
         <v>0.1565150000000006</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3110000000000008</v>
+        <v>0.3109999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1617,34 +1617,34 @@
         <v>0.01510000000000011</v>
       </c>
       <c r="E13">
-        <v>8.557699999999997</v>
+        <v>5.393999999999995</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.482799999999994</v>
+        <v>2.370500000000003</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1589599999999998</v>
+        <v>0.15896</v>
       </c>
       <c r="J13">
-        <v>0.4084499999999984</v>
+        <v>0.4084500000000011</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.720300000000002</v>
+        <v>1.720299999999998</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.1632999999999987</v>
+        <v>0.2408000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.294461000000001</v>
+        <v>1.294461</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.302</v>
+        <v>0.8649999999999993</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>12.5544</v>
+        <v>9.1084</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>9.823</v>
+        <v>9.750999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6129999999999995</v>
+        <v>0.6130000000000013</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5760000000000023</v>
+        <v>0.5760000000000005</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3520000000000003</v>
+        <v>0.3519999999999985</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.424</v>
+        <v>0.366</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.379</v>
+        <v>13.859</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.573</v>
+        <v>0.5559999999999999</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>13.608</v>
+        <v>12.802</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.369</v>
+        <v>2.911999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.535</v>
+        <v>1.735</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.183</v>
+        <v>4.068999999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8399999999999999</v>
+        <v>0.8400000000000016</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.848000000000001</v>
+        <v>1.847999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.172</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3763999999999994</v>
+        <v>0.3763999999999998</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.2975</v>
+        <v>1.6135</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.015</v>
+        <v>0.415</v>
       </c>
     </row>
   </sheetData>
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.298</v>
+        <v>0.08</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4196</v>
+        <v>0.4196000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.315499999999999</v>
+        <v>2.964599999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.082900000000001</v>
+        <v>3.166700000000001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12222,13 +12222,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.233930000000004</v>
+        <v>5.860840000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>13.189496</v>
+        <v>12.73272</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12266,13 +12266,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.819456</v>
+        <v>10.387596</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>20.51955999999998</v>
+        <v>18.86647999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12310,13 +12310,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4336300000000008</v>
+        <v>0.4336299999999973</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.333050000000007</v>
+        <v>3.478879999999997</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6.206300000000001</v>
+        <v>5.1963</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1439999999999992</v>
+        <v>0.1440000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>9.214000000000002</v>
+        <v>9.214</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.098000000000003</v>
+        <v>4.097999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -13618,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9099999999999966</v>
+        <v>0.9100000000000037</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -15759,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.159</v>
+        <v>0.7869999999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4944</v>
+        <v>1.1447</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4799999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17514,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.409</v>
+        <v>5.985</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -17866,7 +17866,7 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <v>0.1340000000000003</v>
+        <v>0.1339999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:14">

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -17,8 +17,8 @@
     <sheet name="FI" sheetId="8" r:id="rId8"/>
     <sheet name="FR" sheetId="9" r:id="rId9"/>
     <sheet name="DE" sheetId="10" r:id="rId10"/>
-    <sheet name="HL" sheetId="11" r:id="rId11"/>
-    <sheet name="IR" sheetId="12" r:id="rId12"/>
+    <sheet name="EL" sheetId="11" r:id="rId11"/>
+    <sheet name="IE" sheetId="12" r:id="rId12"/>
     <sheet name="HU" sheetId="13" r:id="rId13"/>
     <sheet name="IT" sheetId="14" r:id="rId14"/>
     <sheet name="LV" sheetId="15" r:id="rId15"/>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4786999999999995</v>
+        <v>0.08369999999999989</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.925</v>
+        <v>0.4649999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.670000000000001</v>
+        <v>0.8319999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.416189999999999</v>
+        <v>3.056189999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.03189999999999982</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.671600000000001</v>
+        <v>2.428600000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.451700000000001</v>
+        <v>1.571700000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.193099999999998</v>
+        <v>8.380099999999997</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7132999999999985</v>
+        <v>0.3613</v>
       </c>
       <c r="M7">
         <v>2.648</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6461000000000006</v>
+        <v>0.6460999999999988</v>
       </c>
       <c r="M8">
         <v>5.476</v>
@@ -1441,13 +1441,13 @@
         <v>0.03129999999999999</v>
       </c>
       <c r="E9">
-        <v>2.020400000000006</v>
+        <v>1.687400000000004</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9992099999999997</v>
+        <v>0.9992099999999988</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0.005100000000000104</v>
       </c>
       <c r="J9">
-        <v>0.3677790000000001</v>
+        <v>0.3774790000000006</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1485,22 +1485,22 @@
         <v>0.08640000000000003</v>
       </c>
       <c r="E10">
-        <v>0.259400000000003</v>
+        <v>0.2593999999999994</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.239100000000003</v>
+        <v>4.118400000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1040999999999999</v>
+        <v>0.1108</v>
       </c>
       <c r="J10">
-        <v>0.591219999999999</v>
+        <v>0.5912199999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1535,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.753159</v>
+        <v>1.753159000000002</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.04449999999999998</v>
+        <v>0.07519999999999971</v>
       </c>
       <c r="J11">
-        <v>0.4382500000000009</v>
+        <v>0.4382499999999983</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3057499999999999</v>
+        <v>0.26985</v>
       </c>
       <c r="E12">
-        <v>0.05059999999999576</v>
+        <v>0.05059999999999931</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.987100000000003</v>
+        <v>2.987100000000002</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1614,25 +1614,25 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01510000000000011</v>
+        <v>0.01509999999999989</v>
       </c>
       <c r="E13">
-        <v>8.557699999999997</v>
+        <v>7.831700000000001</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.482799999999994</v>
+        <v>2.482799999999997</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1589599999999998</v>
+        <v>0.15896</v>
       </c>
       <c r="J13">
-        <v>0.4084499999999984</v>
+        <v>0.4084500000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.567500000000003</v>
+        <v>1.567499999999999</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.294461000000001</v>
+        <v>1.294461</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.302</v>
+        <v>0.8649999999999993</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.114</v>
+        <v>0.134</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.109</v>
+        <v>0.08900000000000002</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.428000000000001</v>
+        <v>3.798000000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.424</v>
+        <v>0.352</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.573</v>
+        <v>0.4480000000000001</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>13.608</v>
+        <v>12.002</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.05400000000000005</v>
+        <v>0.05399999999999983</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.369</v>
+        <v>3.568999999999996</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.982999999999999</v>
+        <v>2.671999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.172</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3763999999999994</v>
+        <v>0.3763999999999998</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.2298</v>
+        <v>0.8247999999999998</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.652</v>
+        <v>0.8260000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.745</v>
+        <v>0.8850000000000002</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>13.189496</v>
+        <v>11.978166</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>20.51955999999998</v>
+        <v>18.88164</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12316,7 +12316,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.333050000000007</v>
+        <v>4.333049999999993</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.159</v>
+        <v>0.7869999999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.38</v>
+        <v>1.785</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -13,7 +13,7 @@
     <sheet name="CH" sheetId="4" r:id="rId4"/>
     <sheet name="CZ" sheetId="5" r:id="rId5"/>
     <sheet name="DK" sheetId="6" r:id="rId6"/>
-    <sheet name="ET" sheetId="7" r:id="rId7"/>
+    <sheet name="EE" sheetId="7" r:id="rId7"/>
     <sheet name="FI" sheetId="8" r:id="rId8"/>
     <sheet name="FR" sheetId="9" r:id="rId9"/>
     <sheet name="DE" sheetId="10" r:id="rId10"/>
@@ -22,26 +22,25 @@
     <sheet name="HU" sheetId="13" r:id="rId13"/>
     <sheet name="IT" sheetId="14" r:id="rId14"/>
     <sheet name="LV" sheetId="15" r:id="rId15"/>
-    <sheet name="LI" sheetId="16" r:id="rId16"/>
+    <sheet name="LT" sheetId="16" r:id="rId16"/>
     <sheet name="LU" sheetId="17" r:id="rId17"/>
-    <sheet name="MT" sheetId="18" r:id="rId18"/>
-    <sheet name="NL" sheetId="19" r:id="rId19"/>
-    <sheet name="NO" sheetId="20" r:id="rId20"/>
-    <sheet name="PL" sheetId="21" r:id="rId21"/>
-    <sheet name="PT" sheetId="22" r:id="rId22"/>
-    <sheet name="RO" sheetId="23" r:id="rId23"/>
-    <sheet name="SK" sheetId="24" r:id="rId24"/>
-    <sheet name="SI" sheetId="25" r:id="rId25"/>
-    <sheet name="ES" sheetId="26" r:id="rId26"/>
-    <sheet name="SE" sheetId="27" r:id="rId27"/>
-    <sheet name="UK" sheetId="28" r:id="rId28"/>
+    <sheet name="NL" sheetId="18" r:id="rId18"/>
+    <sheet name="NO" sheetId="19" r:id="rId19"/>
+    <sheet name="PL" sheetId="20" r:id="rId20"/>
+    <sheet name="PT" sheetId="21" r:id="rId21"/>
+    <sheet name="RO" sheetId="22" r:id="rId22"/>
+    <sheet name="SK" sheetId="23" r:id="rId23"/>
+    <sheet name="SI" sheetId="24" r:id="rId24"/>
+    <sheet name="ES" sheetId="25" r:id="rId25"/>
+    <sheet name="SE" sheetId="26" r:id="rId26"/>
+    <sheet name="UK" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -510,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4012</v>
+        <v>0.2911450105734993</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -531,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.15</v>
+        <v>0.07613636363636363</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -598,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4708</v>
+        <v>0.3416527192871473</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -642,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.24</v>
+        <v>0.89984998282936</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -724,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.715</v>
+        <v>0.1922295081967213</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -768,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2</v>
+        <v>0.05377049180327868</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -795,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.246</v>
+        <v>0.1248636363636364</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -818,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.598</v>
+        <v>1.159645381097836</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -862,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.04700000000000015</v>
+        <v>0.03410721709111295</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -906,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.08369999999999989</v>
+        <v>0.06073987384098171</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.395</v>
+        <v>0.2866457606593525</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -950,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4649999999999999</v>
+        <v>0.3374437435610099</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -994,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8319999999999999</v>
+        <v>0.6037703110596995</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1133,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.52932</v>
+        <v>1.091761329511611</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1154,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.551</v>
+        <v>1.45909117701958</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1177,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.007000000000001</v>
+        <v>1.432770766307774</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1198,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.7425</v>
+        <v>6.342954391395561</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1221,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.056189999999999</v>
+        <v>2.181773636413628</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1242,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.535</v>
+        <v>1.444039301563543</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1265,7 +1264,7 @@
         <v>0.052</v>
       </c>
       <c r="E5">
-        <v>1.15056</v>
+        <v>0.8213695729362592</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1286,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.894</v>
+        <v>2.722507973110679</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1309,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.428600000000001</v>
+        <v>1.733745432513732</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05949999999999989</v>
+        <v>0.05597416185213721</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1353,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.380099999999997</v>
+        <v>5.982442600266949</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1374,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3613</v>
+        <v>0.3398901626416338</v>
       </c>
       <c r="M7">
-        <v>2.648</v>
+        <v>2.644740521910389</v>
       </c>
       <c r="N7">
         <v>0.1594000000000007</v>
@@ -1397,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.077900000000007</v>
+        <v>2.19727211839497</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1418,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6460999999999988</v>
+        <v>0.60781354575909</v>
       </c>
       <c r="M8">
-        <v>5.476</v>
+        <v>5.469259478089612</v>
       </c>
       <c r="N8">
         <v>0.04140000000000033</v>
@@ -1441,7 +1440,7 @@
         <v>0.03129999999999999</v>
       </c>
       <c r="E9">
-        <v>1.687400000000004</v>
+        <v>1.20461255160326</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1462,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1593</v>
+        <v>0.1498602350091676</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1485,7 +1484,7 @@
         <v>0.08640000000000003</v>
       </c>
       <c r="E10">
-        <v>0.2593999999999994</v>
+        <v>0.185182230583077</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1506,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.662999999999997</v>
+        <v>5.327423169221067</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1550,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9672200000000011</v>
+        <v>0.9099046861617532</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1573,7 +1572,7 @@
         <v>0.26985</v>
       </c>
       <c r="E12">
-        <v>0.05059999999999931</v>
+        <v>0.03612267103894985</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1594,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.09479999999999933</v>
+        <v>0.08918236207701816</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1617,7 +1616,7 @@
         <v>0.01509999999999989</v>
       </c>
       <c r="E13">
-        <v>7.831700000000001</v>
+        <v>5.590947090429791</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1638,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.720300000000002</v>
+        <v>1.618358834188772</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1768,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.588</v>
+        <v>1.364722300140253</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2003,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.674</v>
+        <v>1.337767530306632</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2047,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5459999999999998</v>
+        <v>0.436332778702163</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2091,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5110000000000001</v>
+        <v>0.4083627287853578</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2120,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6839999999999997</v>
+        <v>0.5878274894810657</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2135,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3420000000000001</v>
+        <v>0.2733073449013549</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2164,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.023</v>
+        <v>0.879163043478261</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2179,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2889999999999997</v>
+        <v>0.230952697884478</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2208,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.544</v>
+        <v>1.326908835904629</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2252,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8649999999999993</v>
+        <v>0.7433783309957919</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2267,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8450000000000002</v>
+        <v>0.6752769194200144</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3041,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.962</v>
+        <v>0.8195719120135363</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3085,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.22</v>
+        <v>0.1874280879864636</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -3649,13 +3648,13 @@
         <v>0.571</v>
       </c>
       <c r="E2">
-        <v>0.143</v>
+        <v>0.1421601409553641</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>12.5544</v>
+        <v>10.27220785678001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3667,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.028</v>
+        <v>0.01938804780876494</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3676,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>9.823</v>
+        <v>2.341590372388737</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3693,13 +3692,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3150000000000001</v>
+        <v>0.3131499608457322</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7530000000000001</v>
+        <v>0.6161164624478551</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3720,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6129999999999995</v>
+        <v>0.1461259185864089</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3737,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.292</v>
+        <v>1.284411902897416</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.079000000000001</v>
+        <v>0.8828547981158511</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3781,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.593</v>
+        <v>0.5895172278778387</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.488</v>
+        <v>1.217505041331219</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3808,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.266</v>
+        <v>0.3017869705226653</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3831,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5760000000000023</v>
+        <v>0.4712922740636997</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3852,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3520000000000003</v>
+        <v>0.08390917347865584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3875,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3999999999999986</v>
+        <v>0.3272863014331223</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3887,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.134</v>
+        <v>0.09278565737051794</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3931,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.15</v>
+        <v>0.1038645418326693</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3957,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.954</v>
+        <v>2.936650743931088</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3719999999999999</v>
+        <v>0.3043762603328047</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3975,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.08900000000000002</v>
+        <v>0.06162629482071715</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4001,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5200000000000005</v>
+        <v>0.5169459671104155</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.798000000000002</v>
+        <v>3.107583432107509</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4019,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.352</v>
+        <v>0.2437354581673307</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4051,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.379</v>
+        <v>12.58334007435001</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4063,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4480000000000001</v>
+        <v>0.3102087649402391</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4072,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.05700000000000038</v>
+        <v>0.01358756502353242</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4089,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.845</v>
+        <v>1.834164056382145</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>12.002</v>
+        <v>9.820225474500873</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4107,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.05399999999999983</v>
+        <v>0.03739123505976084</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4139,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.568999999999996</v>
+        <v>2.920212024537041</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4913,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.535</v>
+        <v>1.716584362139918</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5089,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1099999999999999</v>
+        <v>0.05341563786008224</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5542,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.385</v>
+        <v>0.081</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6165,13 +6164,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.171819947400365</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.486</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6303,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.8689999999999998</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6347,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.5739999999999998</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6479,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.763</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -6523,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4.183</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -6567,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -6611,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.848000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -6649,13 +6648,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.490180052599636</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.671999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -6794,13 +6793,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.363</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.486</v>
+        <v>0.642</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6932,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8689999999999998</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6976,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5739999999999998</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7108,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.763</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7152,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.183</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7196,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7240,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.848000000000001</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7278,13 +7277,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.671999999999999</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7450,7 +7449,7 @@
         <v>0.481</v>
       </c>
       <c r="N2">
-        <v>0.4964</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -8049,16 +8048,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1116</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.1298</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.2975</v>
+        <v>1.4112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8073,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2074399596367306</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -8096,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.4622</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -8117,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.280791120080726</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -8140,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.1673</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -8161,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.070768920282543</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -8184,13 +8183,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6.664200000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.07699999999999996</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8228,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.643000000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8269,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1429999999999971</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8293,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.710006054490414</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -8360,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.900600000000008</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8404,13 +8403,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1890000000000001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1289000000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -8448,13 +8447,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.3810000000000002</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.4179999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -8489,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8513,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4079939455095864</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -8533,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -8586,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.4849999999999999</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -8607,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.359</v>
       </c>
     </row>
   </sheetData>
@@ -8678,16 +8677,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1116</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.1298</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4112</v>
+        <v>1.826</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8702,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.241</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -8725,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.4622</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -8746,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.488</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -8769,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.1673</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -8790,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.244</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -8813,13 +8812,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.664200000000001</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.07699999999999996</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8857,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.643000000000001</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8898,10 +8897,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1429999999999971</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8922,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.472</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -8986,10 +8985,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
-        <v>1.900600000000008</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9030,16 +9029,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01899999999999999</v>
       </c>
       <c r="E10">
-        <v>0.1890000000000001</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1289000000000002</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9074,16 +9073,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2329</v>
       </c>
       <c r="E11">
-        <v>0.3810000000000002</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4179999999999999</v>
+        <v>1.176</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9118,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01000000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9127,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.8260000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9139,10 +9138,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="L12">
-        <v>0.4740000000000002</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -9162,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -9215,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4849999999999999</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9236,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9316,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.826</v>
+        <v>0.897859531772575</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9331,10 +9330,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4337548333226284</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -9360,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.5276566332218507</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9404,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2709476031215161</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9442,13 +9441,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.2057681159420292</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9507,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.073764960284326</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -9595,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5634802063930462</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -9615,10 +9614,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5760000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9659,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -9703,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2329</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -9712,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.176</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9747,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9756,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8260000000000001</v>
+        <v>0.1520624303232997</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9768,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -9800,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.6117056856187292</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9945,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.299</v>
+        <v>0.298</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9960,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6597000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="M2">
-        <v>1.3545</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -9989,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7634000000000003</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10033,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10071,13 +10070,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2977000000000003</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10136,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.154</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -10224,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8570000000000002</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -10297,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10315,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10385,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2199999999999998</v>
+        <v>0.4196</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -10429,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8850000000000002</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -10574,13 +10573,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -10589,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -10809,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -10926,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10944,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -11014,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4196</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11073,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -11194,22 +11193,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03124145615252358</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.9559728670694533</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -11224,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.002825140233798355</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -11285,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.2168089871057927</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11312,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09486820905094874</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -11329,7 +11328,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.3585041075911092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11356,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1583879557826125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -11373,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.113774708319268</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11400,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.02718138047443245</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -11417,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.371567111022995</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11438,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -11485,10 +11484,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.0404</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1658957659539316</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -11505,13 +11504,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.02821808942808569</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.06619672903549409</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -11532,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.04167611558646402</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -11549,13 +11548,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.2194786199234713</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.05005459498621786</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -11576,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1119110440826019</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -11593,13 +11592,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.094161836052704</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>9.849880857691524</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -11620,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.02239100206549814</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -11637,13 +11636,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.634575916324279</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>15.52674294193474</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11664,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1441633747054377</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -11681,13 +11680,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1456691680797723</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3.563152009282573</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -11702,13 +11701,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05470001206427444</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -11823,16 +11822,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>0.405</v>
       </c>
       <c r="E2">
-        <v>0.093</v>
+        <v>0.13</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.162532</v>
+        <v>0.708</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11853,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.016</v>
+        <v>1.569</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -11911,10 +11910,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="E4">
-        <v>0.6454000000000001</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11941,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.53728</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -11958,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.0672</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11985,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8970199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12002,13 +12001,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.315499999999999</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.639</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12026,10 +12025,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.862</v>
       </c>
       <c r="N6">
-        <v>0.1539400000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -12046,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.082900000000001</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12070,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.686999999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -12114,10 +12113,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.0404</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9395399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -12134,13 +12133,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08399999999999963</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.08050000000000002</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12161,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.2360299999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -12175,16 +12174,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03870000000000001</v>
       </c>
       <c r="E10">
-        <v>0.6533470000000001</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0608700000000002</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12205,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6338010000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -12222,13 +12221,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.233930000000004</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>11.978166</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12249,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1268100000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -12266,13 +12265,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.819456</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>18.88164</v>
+        <v>0.25</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12293,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8164599999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -12310,13 +12309,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4336300000000008</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.333049999999993</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12337,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3097899999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -12351,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -12452,16 +12451,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.405</v>
+        <v>1.6837</v>
       </c>
       <c r="E2">
-        <v>0.13</v>
+        <v>2.077567065245646</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.708</v>
+        <v>6.206300000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -12482,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.569</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12540,10 +12539,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.426909279958409</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -12570,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.26</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -12584,10 +12583,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.934999999999998</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.872322589030413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12614,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7270000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12637,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.639</v>
+        <v>0.1439999999999992</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12655,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.862</v>
+        <v>2.370830324909747</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -12699,10 +12698,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.686999999999999</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -12719,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9172010657655317</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12743,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.687619664472287</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -12769,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6.628999999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12787,636 +12786,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
-        <v>2020</v>
-      </c>
-      <c r="B10">
-        <v>2000</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0.03870000000000001</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
-        <v>2020</v>
-      </c>
-      <c r="B11">
-        <v>2005</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>2010</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.25</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-      <c r="B13">
-        <v>2015</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
-        <v>2020</v>
-      </c>
-      <c r="B14">
-        <v>2020</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.12</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2">
-        <v>1960</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1.6837</v>
-      </c>
-      <c r="E2">
-        <v>4.383</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>6.206300000000001</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.4234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>2020</v>
-      </c>
-      <c r="B3">
-        <v>1965</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>2020</v>
-      </c>
-      <c r="B4">
-        <v>1970</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5.12</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.09999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>2020</v>
-      </c>
-      <c r="B5">
-        <v>1975</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1.934999999999998</v>
-      </c>
-      <c r="E5">
-        <v>3.949999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0.7270000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6">
-        <v>1980</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.1439999999999992</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>2.72</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>2020</v>
-      </c>
-      <c r="B7">
-        <v>1985</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0.718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>2020</v>
-      </c>
-      <c r="B8">
-        <v>1990</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1.935</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>5.377999999999999</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>2020</v>
-      </c>
-      <c r="B9">
-        <v>1995</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>6.628999999999999</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1.32</v>
+        <v>1.150550010617966</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -13713,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.41</v>
+        <v>0.2692988929889298</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -13734,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.213</v>
+        <v>1.024051444968231</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -13822,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.604</v>
+        <v>1.354145521623284</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -13866,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6899999999999999</v>
+        <v>0.5825189588030334</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -14153,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1320000000000001</v>
+        <v>0.08670110701107013</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -14218,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.371999999999999</v>
+        <v>1.158284074605451</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -14977,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.847</v>
+        <v>0.7825335342878673</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -15285,7 +14655,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3700000000000001</v>
+        <v>0.3418387339864357</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -15329,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1099999999999999</v>
+        <v>0.1016277317256969</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -15627,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.664</v>
+        <v>0.5658581081081081</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -15759,7 +15129,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5199999999999999</v>
+        <v>0.4431418918918918</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -16235,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.423</v>
+        <v>0.133</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16256,7 +15626,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.27</v>
+        <v>0.0009595735228787207</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16300,7 +15670,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.612</v>
+        <v>0.0021750333185251</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16344,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.369</v>
+        <v>0.004865393158596179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16855,16 +16225,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.87944</v>
+        <v>1.86</v>
       </c>
       <c r="E2">
-        <v>1.604</v>
+        <v>1.512402789886661</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4944</v>
+        <v>1.18671431025597</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16882,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.6</v>
+        <v>1.027205882352941</v>
       </c>
       <c r="N2">
         <v>1.6818</v>
@@ -16990,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4499999999999997</v>
+        <v>0.4243025283347861</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17034,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2400000000000002</v>
+        <v>0.2262946817785529</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17058,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.376</v>
+        <v>0.8833970588235293</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -17084,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3540000000000001</v>
+        <v>0.2811140697474662</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17102,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.376</v>
+        <v>0.8833970588235296</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -17172,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4799999999999998</v>
+        <v>0.381171619996564</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17487,7 +16857,7 @@
         <v>0.9426000000000001</v>
       </c>
       <c r="E2">
-        <v>1.74</v>
+        <v>1.469497872340426</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -17514,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.409</v>
+        <v>3.765394905407419</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -17690,7 +17060,7 @@
         <v>10.3</v>
       </c>
       <c r="N6">
-        <v>0.1699999999999999</v>
+        <v>0.09987784894979886</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -17707,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.785</v>
+        <v>1.507502127659574</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -17866,7 +17236,7 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <v>0.1340000000000003</v>
+        <v>0.07872724564278286</v>
       </c>
     </row>
     <row r="11" spans="1:14">

--- a/grouped.xlsx
+++ b/grouped.xlsx
@@ -12,35 +12,36 @@
     <sheet name="BG" sheetId="3" r:id="rId3"/>
     <sheet name="CH" sheetId="4" r:id="rId4"/>
     <sheet name="CZ" sheetId="5" r:id="rId5"/>
-    <sheet name="DK" sheetId="6" r:id="rId6"/>
-    <sheet name="EE" sheetId="7" r:id="rId7"/>
-    <sheet name="FI" sheetId="8" r:id="rId8"/>
-    <sheet name="FR" sheetId="9" r:id="rId9"/>
-    <sheet name="DE" sheetId="10" r:id="rId10"/>
-    <sheet name="EL" sheetId="11" r:id="rId11"/>
-    <sheet name="IE" sheetId="12" r:id="rId12"/>
-    <sheet name="HU" sheetId="13" r:id="rId13"/>
-    <sheet name="IT" sheetId="14" r:id="rId14"/>
-    <sheet name="LV" sheetId="15" r:id="rId15"/>
-    <sheet name="LT" sheetId="16" r:id="rId16"/>
-    <sheet name="LU" sheetId="17" r:id="rId17"/>
-    <sheet name="NL" sheetId="18" r:id="rId18"/>
-    <sheet name="NO" sheetId="19" r:id="rId19"/>
-    <sheet name="PL" sheetId="20" r:id="rId20"/>
-    <sheet name="PT" sheetId="21" r:id="rId21"/>
-    <sheet name="RO" sheetId="22" r:id="rId22"/>
-    <sheet name="SK" sheetId="23" r:id="rId23"/>
-    <sheet name="SI" sheetId="24" r:id="rId24"/>
-    <sheet name="ES" sheetId="25" r:id="rId25"/>
-    <sheet name="SE" sheetId="26" r:id="rId26"/>
-    <sheet name="UK" sheetId="27" r:id="rId27"/>
+    <sheet name="DE" sheetId="6" r:id="rId6"/>
+    <sheet name="DK" sheetId="7" r:id="rId7"/>
+    <sheet name="EE" sheetId="8" r:id="rId8"/>
+    <sheet name="EL" sheetId="9" r:id="rId9"/>
+    <sheet name="ES" sheetId="10" r:id="rId10"/>
+    <sheet name="FI" sheetId="11" r:id="rId11"/>
+    <sheet name="FR" sheetId="12" r:id="rId12"/>
+    <sheet name="HR" sheetId="13" r:id="rId13"/>
+    <sheet name="HU" sheetId="14" r:id="rId14"/>
+    <sheet name="IE" sheetId="15" r:id="rId15"/>
+    <sheet name="IT" sheetId="16" r:id="rId16"/>
+    <sheet name="LT" sheetId="17" r:id="rId17"/>
+    <sheet name="LU" sheetId="18" r:id="rId18"/>
+    <sheet name="LV" sheetId="19" r:id="rId19"/>
+    <sheet name="NL" sheetId="20" r:id="rId20"/>
+    <sheet name="NO" sheetId="21" r:id="rId21"/>
+    <sheet name="PL" sheetId="22" r:id="rId22"/>
+    <sheet name="PT" sheetId="23" r:id="rId23"/>
+    <sheet name="RO" sheetId="24" r:id="rId24"/>
+    <sheet name="SE" sheetId="25" r:id="rId25"/>
+    <sheet name="SI" sheetId="26" r:id="rId26"/>
+    <sheet name="SK" sheetId="27" r:id="rId27"/>
+    <sheet name="UK" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -1129,37 +1130,37 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E2">
-        <v>1.091761329511611</v>
+        <v>0.03124145615252358</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.0472</v>
+        <v>0.9559728670694533</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.215</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4827</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.45909117701958</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4152</v>
+        <v>0.002825140233798355</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1176,34 +1177,34 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.432770766307774</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.05859999999999976</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02499999999999999</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.342954391395561</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.3265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1220,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.181773636413628</v>
+        <v>0.2168089871057927</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002900000000000125</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1235,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09484880000000007</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.444039301563543</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2301</v>
+        <v>0.09486820905094874</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1261,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8213695729362592</v>
+        <v>0.3585041075911092</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.684</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.257</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.9444</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.722507973110679</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.1849</v>
+        <v>0.1583879557826125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1308,34 +1309,34 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.733745432513732</v>
+        <v>1.113774708319268</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.571700000000001</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.321</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.90218</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05597416185213721</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8709000000000002</v>
+        <v>0.02718138047443245</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1352,34 +1353,34 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.982442600266949</v>
+        <v>1.371567111022995</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1583999999999994</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1120000000000001</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2334999999999998</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3398901626416338</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.644740521910389</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.1594000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1396,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2.19727211839497</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1408,22 +1409,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07399999999999995</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1356099999999998</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.60781354575909</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>5.469259478089612</v>
+        <v>3.0404</v>
       </c>
       <c r="N8">
-        <v>0.04140000000000033</v>
+        <v>0.1658957659539316</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1437,37 +1438,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03129999999999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.20461255160326</v>
+        <v>0.02821808942808569</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9992099999999988</v>
+        <v>0.06619672903549409</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.005100000000000104</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3774790000000006</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1498602350091676</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.2143999999999995</v>
+        <v>0.04167611558646402</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1481,37 +1482,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08640000000000003</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.185182230583077</v>
+        <v>0.2194786199234713</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.118400000000002</v>
+        <v>0.05005459498621786</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1108</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5912199999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.327423169221067</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.05220000000000091</v>
+        <v>0.1119110440826019</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1525,37 +1526,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6913933999999999</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.094161836052704</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.753159000000002</v>
+        <v>9.849880857691524</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.07519999999999971</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4382499999999983</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9099046861617532</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3640999999999996</v>
+        <v>0.02239100206549814</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1569,37 +1570,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.26985</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03612267103894985</v>
+        <v>3.634575916324279</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.987100000000002</v>
+        <v>15.52674294193474</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1565150000000006</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08918236207701816</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3110000000000008</v>
+        <v>0.1441633747054377</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1613,37 +1614,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01509999999999989</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>5.590947090429791</v>
+        <v>0.1456691680797723</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.482799999999997</v>
+        <v>3.563152009282573</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.15896</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4084500000000002</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.618358834188772</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.1632999999999987</v>
+        <v>0.05470001206427444</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1666,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.567499999999999</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1675,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.294461</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1687,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.01250000000000018</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1758,16 +1759,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.512402789886661</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.364722300140253</v>
+        <v>1.18671431025597</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1785,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.027205882352941</v>
       </c>
       <c r="N2">
-        <v>0.501</v>
+        <v>1.6818</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1893,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.4243025283347861</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1937,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.2262946817785529</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1961,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8833970588235293</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1987,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.2811140697474662</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2002,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.337767530306632</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8833970588235296</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2046,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.436332778702163</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2075,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.381171619996564</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2090,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4083627287853578</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2119,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5878274894810657</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2134,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2733073449013549</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2163,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.879163043478261</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2178,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.230952697884478</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.326908835904629</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2251,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7433783309957919</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2266,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6752769194200144</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2387,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.137</v>
+        <v>0.9426000000000001</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.469497872340426</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.178</v>
+        <v>3.509</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2408,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2417,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.1896</v>
+        <v>3.765394905407419</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2484,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.427</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2505,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6519999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2572,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2590,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09987784894979886</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2610,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.507502127659574</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1080000000000001</v>
+        <v>0.4130000000000003</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2634,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>21.74</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2678,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>17.67</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2704,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4629999999999999</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2722,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.549999999999997</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2766,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.07872724564278286</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2792,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.253</v>
+        <v>0.7959999999999994</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2810,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.990000000000002</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2836,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.055</v>
+        <v>1.762</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2880,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.744</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2924,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5850000000000009</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3016,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3025,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6536000000000001</v>
+        <v>0.3658</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3040,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8195719120135363</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3060,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3084,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1874280879864636</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -3157,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8409999999999996</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3201,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8640000000000003</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3333,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.02729999999999944</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3377,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4020000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3421,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3442,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3465,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0470000000000006</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3509,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.427</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3645,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.571</v>
+        <v>0.028</v>
       </c>
       <c r="E2">
-        <v>0.1421601409553641</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>10.27220785678001</v>
+        <v>0.6536000000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3666,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01938804780876494</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8195719120135363</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.341590372388737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3689,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="E3">
-        <v>0.3131499608457322</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6161164624478551</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3713,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1874280879864636</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1461259185864089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3736,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.284411902897416</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8828547981158511</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3780,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5895172278778387</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.217505041331219</v>
+        <v>0.8409999999999996</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3807,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3017869705226653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3830,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4712922740636997</v>
+        <v>0.8640000000000003</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3851,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.08390917347865584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3874,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3272863014331223</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3886,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.09278565737051794</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3930,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1038645418326693</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3956,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.936650743931088</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3043762603328047</v>
+        <v>0.02729999999999944</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3974,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.06162629482071715</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4000,13 +4001,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5169459671104155</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.107583432107509</v>
+        <v>0.4020000000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4018,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2437354581673307</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4050,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>12.58334007435001</v>
+        <v>0.306</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4062,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3102087649402391</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4071,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.01358756502353242</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4088,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.834164056382145</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>9.820225474500873</v>
+        <v>0.0470000000000006</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4106,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.03739123505976084</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4138,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.920212024537041</v>
+        <v>0.427</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4274,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4283,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4304,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.1896</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4392,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.6519999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4459,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4503,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.1080000000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4591,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.4629999999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4679,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.253</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4723,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5839999999999999</v>
+        <v>1.055</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4903,16 +4904,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1421601409553641</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.716584362139918</v>
+        <v>10.27220785678001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4924,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01938804780876494</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4933,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.341590372388737</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4950,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.3131499608457322</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.6161164624478551</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4977,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1461259185864089</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4994,13 +4995,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.284411902897416</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.8828547981158511</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5038,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5895172278778387</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.217505041331219</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5065,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3017869705226653</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5088,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.05341563786008224</v>
+        <v>0.4712922740636997</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5109,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08390917347865584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5132,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.3272863014331223</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5144,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.09278565737051794</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5188,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1038645418326693</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -5214,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.936650743931088</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.3043762603328047</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5232,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.06162629482071715</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5258,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5169459671104155</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3.107583432107509</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -5276,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2437354581673307</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5308,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>12.58334007435001</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5320,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3102087649402391</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5329,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.01358756502353242</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5346,13 +5347,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1.834164056382145</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>9.820225474500873</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5364,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.03739123505976084</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5396,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.920212024537041</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -5541,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.081</v>
+        <v>1.716584362139918</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5717,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.05341563786008224</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6164,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.171819947400365</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.486</v>
+        <v>0.081</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6302,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8689999999999998</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6346,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5739999999999998</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6478,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.763</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -6522,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.183</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -6566,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -6610,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.848000000000001</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -6648,13 +6649,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.490180052599636</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.671999999999999</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -6799,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.642</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -7239,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5839999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -8048,16 +8049,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1116</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.1298</v>
+        <v>3.171819947400365</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4112</v>
+        <v>2.486</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8072,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2074399596367306</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -8095,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.4622</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -8116,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.280791120080726</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -8139,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.1673</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -8160,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.070768920282543</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -8183,13 +8184,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.664200000000001</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.07699999999999996</v>
+        <v>0.8689999999999998</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8227,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.643000000000001</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.5739999999999998</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8268,10 +8269,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1429999999999971</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.710006054490414</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -8359,13 +8360,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.900600000000008</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.763</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8403,13 +8404,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1890000000000001</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1289000000000002</v>
+        <v>4.183</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -8447,13 +8448,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3810000000000002</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4179999999999999</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -8488,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8497,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.848000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -8512,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4079939455095864</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -8532,16 +8533,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.490180052599636</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.671999999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -8585,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4849999999999999</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -8606,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.359</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8686,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.826</v>
+        <v>0.642</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -8985,10 +8986,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5760000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9029,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -9073,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2329</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -9082,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.176</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9117,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9126,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8260000000000001</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9138,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -9306,16 +9307,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1116</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.1298</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.897859531772575</v>
+        <v>1.4112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9330,10 +9331,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4337548333226284</v>
+        <v>0.2074399596367306</v>
       </c>
       <c r="M2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -9353,13 +9354,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.4622</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5276566332218507</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9374,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.280791120080726</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -9397,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.1673</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2709476031215161</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9418,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.070768920282543</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -9441,13 +9442,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999999</v>
+        <v>6.664200000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2057681159420292</v>
+        <v>0.07699999999999996</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9485,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.643000000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9506,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.073764960284326</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -9526,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1429999999999971</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9550,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.710006054490414</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -9594,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5634802063930462</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -9617,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.900600000000008</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9661,13 +9662,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1890000000000001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1289000000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9705,13 +9706,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.3810000000000002</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.4179999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -9746,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9755,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.1520624303232997</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9770,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4079939455095864</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -9790,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -9799,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6117056856187292</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9843,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.4849999999999999</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9864,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.359</v>
       </c>
     </row>
   </sheetData>
@@ -9944,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.298</v>
+        <v>1.826</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9959,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -10243,10 +10244,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10287,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01899999999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -10296,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -10314,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10331,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2329</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -10340,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.176</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -10375,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -10384,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4196</v>
+        <v>0.8260000000000001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -10396,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -10573,13 +10574,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.897859531772575</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -10588,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4337548333226284</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -10617,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.5276566332218507</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10661,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2709476031215161</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10699,13 +10700,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.2057681159420292</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10764,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.073764960284326</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -10808,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -10852,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5634802063930462</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -11013,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.1520624303232997</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11057,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.6117056856187292</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -11072,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -11193,16 +11194,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>0.405</v>
       </c>
       <c r="E2">
-        <v>0.03124145615252358</v>
+        <v>0.13</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9559728670694533</v>
+        <v>0.708</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11223,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.002825140233798355</v>
+        <v>1.569</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -11281,10 +11282,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="E4">
-        <v>0.2168089871057927</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11311,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.09486820905094874</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -11328,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3585041075911092</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11355,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1583879557826125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -11372,13 +11373,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.113774708319268</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.639</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -11396,10 +11397,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.862</v>
       </c>
       <c r="N6">
-        <v>0.02718138047443245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -11416,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.371567111022995</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11440,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.686999999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -11484,10 +11485,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.0404</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.1658957659539316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -11504,13 +11505,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02821808942808569</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.06619672903549409</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -11531,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.04167611558646402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -11545,16 +11546,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03870000000000001</v>
       </c>
       <c r="E10">
-        <v>0.2194786199234713</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.05005459498621786</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -11575,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1119110440826019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -11592,13 +11593,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.094161836052704</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>9.849880857691524</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -11619,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.02239100206549814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -11636,13 +11637,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.634575916324279</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.52674294193474</v>
+        <v>0.25</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11663,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.1441633747054377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -11680,13 +11681,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1456691680797723</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.563152009282573</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -11707,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.05470001206427444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -11721,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -11822,22 +11823,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.708</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -11852,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -11910,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -11940,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -12007,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.639</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12025,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.862</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -12066,10 +12067,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="M7">
-        <v>5.686999999999999</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -12174,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03870000000000001</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -12271,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12330,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -12350,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -12451,6 +12452,635 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.298</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.33</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3">
+        <v>1965</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4">
+        <v>1970</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <v>1975</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>1980</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>1985</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8">
+        <v>1990</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9">
+        <v>1995</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.158</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11">
+        <v>2005</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>2010</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.4196</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2020</v>
+      </c>
+      <c r="B13">
+        <v>2015</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2020</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>1960</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1.6837</v>
       </c>
       <c r="E2">
@@ -13718,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3658</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13739,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13868,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3780000000000001</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -13912,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -13956,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.245</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -14970,34 +15600,34 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.091761329511611</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2062</v>
+        <v>1.0472</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.215</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4827</v>
       </c>
       <c r="K2">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.45909117701958</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5658581081081081</v>
+        <v>0.4152</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -15014,34 +15644,34 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.432770766307774</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.05859999999999976</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02499999999999999</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.342954391395561</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3265</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -15058,13 +15688,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.181773636413628</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -15073,19 +15703,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09484880000000007</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.444039301563543</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -15099,37 +15729,37 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8213695729362592</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3.684</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.9444</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.722507973110679</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4431418918918918</v>
+        <v>2.1849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -15146,34 +15776,34 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.733745432513732</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.571700000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.321</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.90218</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05597416185213721</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.8709000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -15190,34 +15820,34 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5.982442600266949</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.08100000000000002</v>
+        <v>0.1583999999999994</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1120000000000001</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2334999999999998</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3398901626416338</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.644740521910389</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1594000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -15234,34 +15864,34 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.265</v>
+        <v>2.19727211839497</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.07399999999999995</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1356099999999998</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.60781354575909</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.469259478089612</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04140000000000033</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -15275,37 +15905,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.03129999999999999</v>
       </c>
       <c r="E9">
-        <v>0.7869999999999999</v>
+        <v>1.20461255160326</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.9992099999999988</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.005100000000000104</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3774790000000006</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1498602350091676</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2143999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -15319,37 +15949,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.08640000000000003</v>
       </c>
       <c r="E10">
-        <v>0.415</v>
+        <v>0.185182230583077</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.392</v>
+        <v>4.118400000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1108</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5912199999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.327423169221067</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.05220000000000091</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -15363,7 +15993,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.6913933999999999</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -15372,28 +16002,28 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.753159000000002</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.07519999999999971</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4382499999999983</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.9099046861617532</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3640999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -15407,37 +16037,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.26985</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03612267103894985</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.987100000000002</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1565150000000006</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08918236207701816</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3110000000000008</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -15451,37 +16081,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.01509999999999989</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>5.590947090429791</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.482799999999997</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.15896</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4084500000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.618358834188772</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1632999999999987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -15504,7 +16134,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.567499999999999</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -15513,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.294461</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -15525,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.01250000000000018</v>
       </c>
     </row>
   </sheetData>
@@ -15605,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.133</v>
+        <v>0.2062</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -15617,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -15626,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0009595735228787207</v>
+        <v>0.5658581081081081</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -15670,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0021750333185251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -15714,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.004865393158596179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -15758,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.4431418918918918</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -15825,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15863,13 +16493,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.265</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15907,7 +16537,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7869999999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15951,13 +16581,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.392</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -16225,16 +16855,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.512402789886661</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.18671431025597</v>
+        <v>0.133</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16252,10 +16882,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.027205882352941</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.6818</v>
+        <v>0.0009595735228787207</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16299,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0021750333185251</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16343,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.004865393158596179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16360,7 +16990,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4243025283347861</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16404,7 +17034,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2262946817785529</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16428,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8833970588235293</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -16454,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2811140697474662</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -16472,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8833970588235296</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -16542,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.381171619996564</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16854,16 +17484,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9426000000000001</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.469497872340426</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.509</v>
+        <v>1.364722300140253</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -16875,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0045</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -16884,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.765394905407419</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16951,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.427</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17057,10 +17687,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.09987784894979886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -17077,13 +17707,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.507502127659574</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4130000000000003</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17098,10 +17728,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.337767530306632</v>
       </c>
       <c r="M7">
-        <v>21.74</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -17142,10 +17772,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.436332778702163</v>
       </c>
       <c r="M8">
-        <v>17.67</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -17186,10 +17816,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4083627287853578</v>
       </c>
       <c r="M9">
-        <v>6.549999999999997</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -17215,7 +17845,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.5878274894810657</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -17230,13 +17860,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2733073449013549</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.07872724564278286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -17259,7 +17889,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7959999999999994</v>
+        <v>0.879163043478261</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -17274,10 +17904,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.230952697884478</v>
       </c>
       <c r="M11">
-        <v>2.990000000000002</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -17303,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.762</v>
+        <v>1.326908835904629</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -17347,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.744</v>
+        <v>0.7433783309957919</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -17362,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6752769194200144</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -17391,7 +18021,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5850000000000009</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
